--- a/Task/2015-05-18_BBG_ETL_MONTH_DATA改写月汇总_MERGE/BBG_ETL_MONTH_DATA报错记录分析_20150629.xlsx
+++ b/Task/2015-05-18_BBG_ETL_MONTH_DATA改写月汇总_MERGE/BBG_ETL_MONTH_DATA报错记录分析_20150629.xlsx
@@ -16,6 +16,9 @@
     <sheet name="问题分析与排查" sheetId="3" r:id="rId2"/>
     <sheet name="修改记录" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">错误记录!$A$1:$F$20</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,15 +265,6 @@
      S.BBG_REFERENCE_FO8,
      S.BBG_REFERENCE_FO9,
      S.BBG_REFERENCE_FO10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORA-08103: object no longer exists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ORA-08103: object no longer exists
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -752,234 +746,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ORA-12801: error signaled in parallel query server P00J, instance rarac01:radb1 (1)
-ORA-08103: object no longer exists
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ORA-12801: error signaled in parallel query server P00J, instance rarac01:radb1 (1)
 ORA-08103: object no longer exists</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>删除/*+1PARALLEL...*/,移动表空间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORA-08103: object no longer exists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MERGE /*+APPEND*/
-INTO RADM.W_RTL_SLS_SC_LC_MN_CUR_A T
-USING (SELECT 
-        PROD_DH_WID,
-        ORG_WID,
-        max(ORG_SCD1_WID) ORG_SCD1_WID,
-        max(ORG_DH_WID) ORG_DH_WID,
-        SUBSTR(TO_CHAR(DT_WID), 2, 6) MN_WID,
-        RTL_TYPE_WID,
-        SUM(NVL(SLS_QTY, 0)) SLS_QTY,
-        SUM(NVL(SLS_AMT_LCL, 0)) SLS_AMT_LCL,
-        SUM(NVL(SLS_PROFIT_AMT_LCL, 0)) SLS_PROFIT_AMT_LCL,
-        SUM(NVL(SLS_MANUAL_MKDN_AMT_LCL, 0)) SLS_MANUAL_MKDN_AMT_LCL,
-        SUM(NVL(SLS_MANUAL_MKUP_AMT_LCL, 0)) SLS_MANUAL_MKUP_AMT_LCL,
-        SUM(NVL(SLS_TAX_AMT_LCL, 0)) SLS_TAX_AMT_LCL,
-        SUM(NVL(SLS_EMP_DISC_AMT_LCL, 0)) SLS_EMP_DISC_AMT_LCL,
-        SUM(NVL(SLS_MANUAL_COUNT, 0)) SLS_MANUAL_COUNT,
-        SUM(NVL(SLS_SCAN_COUNT, 0)) SLS_SCAN_COUNT,
-        SUM(NVL(RET_QTY, 0)) RET_QTY,
-        SUM(NVL(RET_AMT_LCL, 0)) RET_AMT_LCL,
-        SUM(NVL(RET_PROFIT_AMT_LCL, 0)) RET_PROFIT_AMT_LCL,
-        SUM(NVL(RET_MANUAL_MKDN_AMT_LCL, 0)) RET_MANUAL_MKDN_AMT_LCL,
-        SUM(NVL(RET_MANUAL_MKUP_AMT_LCL, 0)) RET_MANUAL_MKUP_AMT_LCL,
-        SUM(NVL(RET_TAX_AMT_LCL, 0)) RET_TAX_AMT_LCL,
-        SUM(NVL(RET_EMP_DISC_AMT_LCL, 0)) RET_EMP_DISC_AMT_LCL,
-        SUM(NVL(RET_MANUAL_COUNT, 0)) RET_MANUAL_COUNT,
-        SUM(NVL(RET_SCAN_COUNT, 0)) RET_SCAN_COUNT,
-        max(SUBSTR(INTEGRATION_ID, 1, INSTR(INTEGRATION_ID, '~', 1, 1)) ||
-            SUBSTR(INTEGRATION_ID,
-                   INSTR(INTEGRATION_ID, '~', 1, 1) + 1,
-                   INSTR(INTEGRATION_ID, '~', 1, 2) -
-                   INSTR(INTEGRATION_ID, '~', 1, 1)) ||
-            SUBSTR(TO_CHAR(DT_WID), 2, 6) ||
-            SUBSTR(INTEGRATION_ID,
-                   INSTR(INTEGRATION_ID, '~', 1, 3),
-                   LENGTH(INTEGRATION_ID) - INSTR(INTEGRATION_ID, '~', 1, 3) + 1)) INTEGRATION_ID,
-        max(GLOBAL1_EXCHANGE_RATE) GLOBAL1_EXCHANGE_RATE,
-        max(GLOBAL2_EXCHANGE_RATE) GLOBAL2_EXCHANGE_RATE,
-        max(GLOBAL3_EXCHANGE_RATE) GLOBAL3_EXCHANGE_RATE,
-        max(LOC_EXCHANGE_RATE) LOC_EXCHANGE_RATE,
-        BBG_RETAIL_TYPE_WID,
-        SUM(NVL(BBG_CUSTOMER_COUNT, 0)) BBG_CUSTOMER_COUNT,
-        SUM(NVL(BBG_SERVICE_SATISFACTION, 0)) BBG_SERVICE_SATISFACTION,
-        SYSDATE W_INSERT_DT,
-        SYSDATE W_UPDATE_DT,
-        max(BBG_REFERENCE_DO1) BBG_REFERENCE_DO1,
-        max(BBG_REFERENCE_DO2) BBG_REFERENCE_DO2,
-        max(BBG_REFERENCE_DO3) BBG_REFERENCE_DO3,
-        max(BBG_REFERENCE_DO4) BBG_REFERENCE_DO4,
-        max(BBG_REFERENCE_DO5) BBG_REFERENCE_DO5,
-        SUM(BBG_REFERENCE_FO1) BBG_REFERENCE_FO1,
-        SUM(BBG_REFERENCE_FO2) BBG_REFERENCE_FO2,
-        SUM(BBG_REFERENCE_FO3) BBG_REFERENCE_FO3,
-        SUM(BBG_REFERENCE_FO4) BBG_REFERENCE_FO4,
-        SUM(BBG_REFERENCE_FO5) BBG_REFERENCE_FO5,
-        SUM(BBG_REFERENCE_FO6) BBG_REFERENCE_FO6,
-        SUM(BBG_REFERENCE_FO7) BBG_REFERENCE_FO7,
-        SUM(BBG_REFERENCE_FO8) BBG_REFERENCE_FO8,
-        SUM(BBG_REFERENCE_FO9) BBG_REFERENCE_FO9,
-        SUM(BBG_REFERENCE_FO10) BBG_REFERENCE_FO10
-         FROM RADM.W_RTL_SLS_SC_LC_DY_CUR_A
-        WHERE DT_WID &gt;=
-              '1' || TO_CHAR(TRUNC(SYSDATE - 1, 'month'), 'YYYYMMDD') ||
-              '000'
-        GROUP BY PROD_DH_WID,
-                 ORG_WID,
-                 SUBSTR(TO_CHAR(DT_WID), 2, 6),
-                 RTL_TYPE_WID,
-                 BBG_RETAIL_TYPE_WID) S
-ON (T.PROD_DH_WID = S.PROD_DH_WID AND T.ORG_WID = S.ORG_WID AND T.MN_WID = S.MN_WID AND T.RTL_TYPE_WID = S.RTL_TYPE_WID AND T.BBG_RETAIL_TYPE_WID = S.BBG_RETAIL_TYPE_WID)
-WHEN MATCHED THEN
-  UPDATE
-     SET T.SLS_QTY                  = S.SLS_QTY,
-         T.SLS_AMT_LCL              = S.SLS_AMT_LCL,
-         T.SLS_PROFIT_AMT_LCL       = S.SLS_PROFIT_AMT_LCL,
-         T.SLS_MANUAL_MKDN_AMT_LCL  = S.SLS_MANUAL_MKDN_AMT_LCL,
-         T.SLS_MANUAL_MKUP_AMT_LCL  = S.SLS_MANUAL_MKUP_AMT_LCL,
-         T.SLS_TAX_AMT_LCL          = S.SLS_TAX_AMT_LCL,
-         T.SLS_EMP_DISC_AMT_LCL     = S.SLS_EMP_DISC_AMT_LCL,
-         T.SLS_MANUAL_COUNT         = S.SLS_MANUAL_COUNT,
-         T.SLS_SCAN_COUNT           = S.SLS_SCAN_COUNT,
-         T.RET_QTY                  = S.RET_QTY,
-         T.RET_AMT_LCL              = S.RET_AMT_LCL,
-         T.RET_PROFIT_AMT_LCL       = S.RET_PROFIT_AMT_LCL,
-         T.RET_MANUAL_MKDN_AMT_LCL  = S.RET_MANUAL_MKDN_AMT_LCL,
-         T.RET_MANUAL_MKUP_AMT_LCL  = S.RET_MANUAL_MKUP_AMT_LCL,
-         T.RET_TAX_AMT_LCL          = S.RET_TAX_AMT_LCL,
-         T.RET_EMP_DISC_AMT_LCL     = S.RET_EMP_DISC_AMT_LCL,
-         T.RET_MANUAL_COUNT         = S.RET_MANUAL_COUNT,
-         T.RET_SCAN_COUNT           = S.RET_SCAN_COUNT,
-         T.BBG_CUSTOMER_COUNT       = S.BBG_CUSTOMER_COUNT,
-         T.BBG_SERVICE_SATISFACTION = S.BBG_SERVICE_SATISFACTION,
-         T.W_UPDATE_DT              = S.W_UPDATE_DT,
-         T.BBG_REFERENCE_FO1        = S.BBG_REFERENCE_FO1,
-         T.BBG_REFERENCE_FO2        = S.BBG_REFERENCE_FO2,
-         T.BBG_REFERENCE_FO3        = S.BBG_REFERENCE_FO3,
-         T.BBG_REFERENCE_FO4        = S.BBG_REFERENCE_FO4,
-         T.BBG_REFERENCE_FO5        = S.BBG_REFERENCE_FO5,
-         T.BBG_REFERENCE_FO6        = S.BBG_REFERENCE_FO6,
-         T.BBG_REFERENCE_FO7        = S.BBG_REFERENCE_FO7,
-         T.BBG_REFERENCE_FO8        = S.BBG_REFERENCE_FO8,
-         T.BBG_REFERENCE_FO9        = S.BBG_REFERENCE_FO9,
-         T.BBG_REFERENCE_FO10       = S.BBG_REFERENCE_FO10
-WHEN NOT MATCHED THEN
-  INSERT
-    (T.PROD_DH_WID,
-     T.ORG_WID,
-     T.ORG_SCD1_WID,
-     T.ORG_DH_WID,
-     T.MN_WID,
-     T.RTL_TYPE_WID,
-     T.SLS_QTY,
-     T.SLS_AMT_LCL,
-     T.SLS_PROFIT_AMT_LCL,
-     T.SLS_MANUAL_MKDN_AMT_LCL,
-     T.SLS_MANUAL_MKUP_AMT_LCL,
-     T.SLS_TAX_AMT_LCL,
-     T.SLS_EMP_DISC_AMT_LCL,
-     T.SLS_MANUAL_COUNT,
-     T.SLS_SCAN_COUNT,
-     T.RET_QTY,
-     T.RET_AMT_LCL,
-     T.RET_PROFIT_AMT_LCL,
-     T.RET_MANUAL_MKDN_AMT_LCL,
-     T.RET_MANUAL_MKUP_AMT_LCL,
-     T.RET_TAX_AMT_LCL,
-     T.RET_EMP_DISC_AMT_LCL,
-     T.RET_MANUAL_COUNT,
-     T.RET_SCAN_COUNT,
-     T.INTEGRATION_ID,
-     T.GLOBAL1_EXCHANGE_RATE,
-     T.GLOBAL2_EXCHANGE_RATE,
-     T.GLOBAL3_EXCHANGE_RATE,
-     T.LOC_EXCHANGE_RATE,
-     T.BBG_RETAIL_TYPE_WID,
-     T.BBG_CUSTOMER_COUNT,
-     T.BBG_SERVICE_SATISFACTION,
-     T.W_INSERT_DT,
-     T.W_UPDATE_DT,
-     T.BBG_REFERENCE_DO1,
-     T.BBG_REFERENCE_DO2,
-     T.BBG_REFERENCE_DO3,
-     T.BBG_REFERENCE_DO4,
-     T.BBG_REFERENCE_DO5,
-     T.BBG_REFERENCE_FO1,
-     T.BBG_REFERENCE_FO2,
-     T.BBG_REFERENCE_FO3,
-     T.BBG_REFERENCE_FO4,
-     T.BBG_REFERENCE_FO5,
-     T.BBG_REFERENCE_FO6,
-     T.BBG_REFERENCE_FO7,
-     T.BBG_REFERENCE_FO8,
-     T.BBG_REFERENCE_FO9,
-     T.BBG_REFERENCE_FO10)
-  VALUES
-    (S.PROD_DH_WID,
-     S.ORG_WID,
-     S.ORG_SCD1_WID,
-     S.ORG_DH_WID,
-     S.MN_WID,
-     S.RTL_TYPE_WID,
-     S.SLS_QTY,
-     S.SLS_AMT_LCL,
-     S.SLS_PROFIT_AMT_LCL,
-     S.SLS_MANUAL_MKDN_AMT_LCL,
-     S.SLS_MANUAL_MKUP_AMT_LCL,
-     S.SLS_TAX_AMT_LCL,
-     S.SLS_EMP_DISC_AMT_LCL,
-     S.SLS_MANUAL_COUNT,
-     S.SLS_SCAN_COUNT,
-     S.RET_QTY,
-     S.RET_AMT_LCL,
-     S.RET_PROFIT_AMT_LCL,
-     S.RET_MANUAL_MKDN_AMT_LCL,
-     S.RET_MANUAL_MKUP_AMT_LCL,
-     S.RET_TAX_AMT_LCL,
-     S.RET_EMP_DISC_AMT_LCL,
-     S.RET_MANUAL_COUNT,
-     S.RET_SCAN_COUNT,
-     S.INTEGRATION_ID,
-     S.GLOBAL1_EXCHANGE_RATE,
-     S.GLOBAL2_EXCHANGE_RATE,
-     S.GLOBAL3_EXCHANGE_RATE,
-     S.LOC_EXCHANGE_RATE,
-     S.BBG_RETAIL_TYPE_WID,
-     S.BBG_CUSTOMER_COUNT,
-     S.BBG_SERVICE_SATISFACTION,
-     S.W_INSERT_DT,
-     S.W_UPDATE_DT,
-     S.BBG_REFERENCE_DO1,
-     S.BBG_REFERENCE_DO2,
-     S.BBG_REFERENCE_DO3,
-     S.BBG_REFERENCE_DO4,
-     S.BBG_REFERENCE_DO5,
-     S.BBG_REFERENCE_FO1,
-     S.BBG_REFERENCE_FO2,
-     S.BBG_REFERENCE_FO3,
-     S.BBG_REFERENCE_FO4,
-     S.BBG_REFERENCE_FO5,
-     S.BBG_REFERENCE_FO6,
-     S.BBG_REFERENCE_FO7,
-     S.BBG_REFERENCE_FO8,
-     S.BBG_REFERENCE_FO9,
-     S.BBG_REFERENCE_FO10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ORA-08103: object no longer exists
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1373,11 +1145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ORA-08103: object no longer exists
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PLP_RetailSalesCorpOrgITDyLoad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1454,10 +1221,6 @@
   </si>
   <si>
     <t>郭迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORA-08103: object no longer exists</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2336,6 +2099,2068 @@
   (</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>MERGE /*+APPEND*/
+INTO RADM.W_RTL_SLS_SC_LC_MN_CUR_A T
+USING (SELECT 
+        PROD_DH_WID,
+        ORG_WID,
+        max(ORG_SCD1_WID) ORG_SCD1_WID,
+        max(ORG_DH_WID) ORG_DH_WID,
+        SUBSTR(TO_CHAR(DT_WID), 2, 6) MN_WID,
+        RTL_TYPE_WID,
+        SUM(NVL(SLS_QTY, 0)) SLS_QTY,
+        SUM(NVL(SLS_AMT_LCL, 0)) SLS_AMT_LCL,
+        SUM(NVL(SLS_PROFIT_AMT_LCL, 0)) SLS_PROFIT_AMT_LCL,
+        SUM(NVL(SLS_MANUAL_MKDN_AMT_LCL, 0)) SLS_MANUAL_MKDN_AMT_LCL,
+        SUM(NVL(SLS_MANUAL_MKUP_AMT_LCL, 0)) SLS_MANUAL_MKUP_AMT_LCL,
+        SUM(NVL(SLS_TAX_AMT_LCL, 0)) SLS_TAX_AMT_LCL,
+        SUM(NVL(SLS_EMP_DISC_AMT_LCL, 0)) SLS_EMP_DISC_AMT_LCL,
+        SUM(NVL(SLS_MANUAL_COUNT, 0)) SLS_MANUAL_COUNT,
+        SUM(NVL(SLS_SCAN_COUNT, 0)) SLS_SCAN_COUNT,
+        SUM(NVL(RET_QTY, 0)) RET_QTY,
+        SUM(NVL(RET_AMT_LCL, 0)) RET_AMT_LCL,
+        SUM(NVL(RET_PROFIT_AMT_LCL, 0)) RET_PROFIT_AMT_LCL,
+        SUM(NVL(RET_MANUAL_MKDN_AMT_LCL, 0)) RET_MANUAL_MKDN_AMT_LCL,
+        SUM(NVL(RET_MANUAL_MKUP_AMT_LCL, 0)) RET_MANUAL_MKUP_AMT_LCL,
+        SUM(NVL(RET_TAX_AMT_LCL, 0)) RET_TAX_AMT_LCL,
+        SUM(NVL(RET_EMP_DISC_AMT_LCL, 0)) RET_EMP_DISC_AMT_LCL,
+        SUM(NVL(RET_MANUAL_COUNT, 0)) RET_MANUAL_COUNT,
+        SUM(NVL(RET_SCAN_COUNT, 0)) RET_SCAN_COUNT,
+        max(SUBSTR(INTEGRATION_ID, 1, INSTR(INTEGRATION_ID, '~', 1, 1)) ||
+            SUBSTR(INTEGRATION_ID,
+                   INSTR(INTEGRATION_ID, '~', 1, 1) + 1,
+                   INSTR(INTEGRATION_ID, '~', 1, 2) -
+                   INSTR(INTEGRATION_ID, '~', 1, 1)) ||
+            SUBSTR(TO_CHAR(DT_WID), 2, 6) ||
+            SUBSTR(INTEGRATION_ID,
+                   INSTR(INTEGRATION_ID, '~', 1, 3),
+                   LENGTH(INTEGRATION_ID) - INSTR(INTEGRATION_ID, '~', 1, 3) + 1)) INTEGRATION_ID,
+        max(GLOBAL1_EXCHANGE_RATE) GLOBAL1_EXCHANGE_RATE,
+        max(GLOBAL2_EXCHANGE_RATE) GLOBAL2_EXCHANGE_RATE,
+        max(GLOBAL3_EXCHANGE_RATE) GLOBAL3_EXCHANGE_RATE,
+        max(LOC_EXCHANGE_RATE) LOC_EXCHANGE_RATE,
+        BBG_RETAIL_TYPE_WID,
+        SUM(NVL(BBG_CUSTOMER_COUNT, 0)) BBG_CUSTOMER_COUNT,
+        SUM(NVL(BBG_SERVICE_SATISFACTION, 0)) BBG_SERVICE_SATISFACTION,
+        SYSDATE W_INSERT_DT,
+        SYSDATE W_UPDATE_DT,
+        max(BBG_REFERENCE_DO1) BBG_REFERENCE_DO1,
+        max(BBG_REFERENCE_DO2) BBG_REFERENCE_DO2,
+        max(BBG_REFERENCE_DO3) BBG_REFERENCE_DO3,
+        max(BBG_REFERENCE_DO4) BBG_REFERENCE_DO4,
+        max(BBG_REFERENCE_DO5) BBG_REFERENCE_DO5,
+        SUM(BBG_REFERENCE_FO1) BBG_REFERENCE_FO1,
+        SUM(BBG_REFERENCE_FO2) BBG_REFERENCE_FO2,
+        SUM(BBG_REFERENCE_FO3) BBG_REFERENCE_FO3,
+        SUM(BBG_REFERENCE_FO4) BBG_REFERENCE_FO4,
+        SUM(BBG_REFERENCE_FO5) BBG_REFERENCE_FO5,
+        SUM(BBG_REFERENCE_FO6) BBG_REFERENCE_FO6,
+        SUM(BBG_REFERENCE_FO7) BBG_REFERENCE_FO7,
+        SUM(BBG_REFERENCE_FO8) BBG_REFERENCE_FO8,
+        SUM(BBG_REFERENCE_FO9) BBG_REFERENCE_FO9,
+        SUM(BBG_REFERENCE_FO10) BBG_REFERENCE_FO10
+         FROM RADM.W_RTL_SLS_SC_LC_DY_CUR_A
+        WHERE DT_WID &gt;=
+              '1' || TO_CHAR(TRUNC(SYSDATE - 1, 'month'), 'YYYYMMDD') ||
+              '000'
+        GROUP BY PROD_DH_WID,
+                 ORG_WID,
+                 SUBSTR(TO_CHAR(DT_WID), 2, 6),
+                 RTL_TYPE_WID,
+                 BBG_RETAIL_TYPE_WID) S
+ON (T.PROD_DH_WID = S.PROD_DH_WID AND T.ORG_WID = S.ORG_WID AND T.MN_WID = S.MN_WID AND T.RTL_TYPE_WID = S.RTL_TYPE_WID AND T.BBG_RETAIL_TYPE_WID = S.BBG_RETAIL_TYPE_WID)
+WHEN MATCHED THEN
+  UPDATE
+     SET T.SLS_QTY                  = S.SLS_QTY,
+         T.SLS_AMT_LCL              = S.SLS_AMT_LCL,
+         T.SLS_PROFIT_AMT_LCL       = S.SLS_PROFIT_AMT_LCL,
+         T.SLS_MANUAL_MKDN_AMT_LCL  = S.SLS_MANUAL_MKDN_AMT_LCL,
+         T.SLS_MANUAL_MKUP_AMT_LCL  = S.SLS_MANUAL_MKUP_AMT_LCL,
+         T.SLS_TAX_AMT_LCL          = S.SLS_TAX_AMT_LCL,
+         T.SLS_EMP_DISC_AMT_LCL     = S.SLS_EMP_DISC_AMT_LCL,
+         T.SLS_MANUAL_COUNT         = S.SLS_MANUAL_COUNT,
+         T.SLS_SCAN_COUNT           = S.SLS_SCAN_COUNT,
+         T.RET_QTY                  = S.RET_QTY,
+         T.RET_AMT_LCL              = S.RET_AMT_LCL,
+         T.RET_PROFIT_AMT_LCL       = S.RET_PROFIT_AMT_LCL,
+         T.RET_MANUAL_MKDN_AMT_LCL  = S.RET_MANUAL_MKDN_AMT_LCL,
+         T.RET_MANUAL_MKUP_AMT_LCL  = S.RET_MANUAL_MKUP_AMT_LCL,
+         T.RET_TAX_AMT_LCL          = S.RET_TAX_AMT_LCL,
+         T.RET_EMP_DISC_AMT_LCL     = S.RET_EMP_DISC_AMT_LCL,
+         T.RET_MANUAL_COUNT         = S.RET_MANUAL_COUNT,
+         T.RET_SCAN_COUNT           = S.RET_SCAN_COUNT,
+         T.BBG_CUSTOMER_COUNT       = S.BBG_CUSTOMER_COUNT,
+         T.BBG_SERVICE_SATISFACTION = S.BBG_SERVICE_SATISFACTION,
+         T.W_UPDATE_DT              = S.W_UPDATE_DT,
+         T.BBG_REFERENCE_FO1        = S.BBG_REFERENCE_FO1,
+         T.BBG_REFERENCE_FO2        = S.BBG_REFERENCE_FO2,
+         T.BBG_REFERENCE_FO3        = S.BBG_REFERENCE_FO3,
+         T.BBG_REFERENCE_FO4        = S.BBG_REFERENCE_FO4,
+         T.BBG_REFERENCE_FO5        = S.BBG_REFERENCE_FO5,
+         T.BBG_REFERENCE_FO6        = S.BBG_REFERENCE_FO6,
+         T.BBG_REFERENCE_FO7        = S.BBG_REFERENCE_FO7,
+         T.BBG_REFERENCE_FO8        = S.BBG_REFERENCE_FO8,
+         T.BBG_REFERENCE_FO9        = S.BBG_REFERENCE_FO9,
+         T.BBG_REFERENCE_FO10       = S.BBG_REFERENCE_FO10
+WHEN NOT MATCHED THEN
+  INSERT
+    (T.PROD_DH_WID,
+     T.ORG_WID,
+     T.ORG_SCD1_WID,
+     T.ORG_DH_WID,
+     T.MN_WID,
+     T.RTL_TYPE_WID,
+     T.SLS_QTY,
+     T.SLS_AMT_LCL,
+     T.SLS_PROFIT_AMT_LCL,
+     T.SLS_MANUAL_MKDN_AMT_LCL,
+     T.SLS_MANUAL_MKUP_AMT_LCL,
+     T.SLS_TAX_AMT_LCL,
+     T.SLS_EMP_DISC_AMT_LCL,
+     T.SLS_MANUAL_COUNT,
+     T.SLS_SCAN_COUNT,
+     T.RET_QTY,
+     T.RET_AMT_LCL,
+     T.RET_PROFIT_AMT_LCL,
+     T.RET_MANUAL_MKDN_AMT_LCL,
+     T.RET_MANUAL_MKUP_AMT_LCL,
+     T.RET_TAX_AMT_LCL,
+     T.RET_EMP_DISC_AMT_LCL,
+     T.RET_MANUAL_COUNT,
+     T.RET_SCAN_COUNT,
+     T.INTEGRATION_ID,
+     T.GLOBAL1_EXCHANGE_RATE,
+     T.GLOBAL2_EXCHANGE_RATE,
+     T.GLOBAL3_EXCHANGE_RATE,
+     T.LOC_EXCHANGE_RATE,
+     T.BBG_RETAIL_TYPE_WID,
+     T.BBG_CUSTOMER_COUNT,
+     T.BBG_SERVICE_SATISFACTION,
+     T.W_INSERT_DT,
+     T.W_UPDATE_DT,
+     T.BBG_REFERENCE_DO1,
+     T.BBG_REFERENCE_DO2,
+     T.BBG_REFERENCE_DO3,
+     T.BBG_REFERENCE_DO4,
+     T.BBG_REFERENCE_DO5,
+     T.BBG_REFERENCE_FO1,
+     T.BBG_REFERENCE_FO2,
+     T.BBG_REFERENCE_FO3,
+     T.BBG_REFERENCE_FO4,
+     T.BBG_REFERENCE_FO5,
+     T.BBG_REFERENCE_FO6,
+     T.BBG_REFERENCE_FO7,
+     T.BBG_REFERENCE_FO8,
+     T.BBG_REFERENCE_FO9,
+     T.BBG_REFERENCE_FO10)
+  VALUES
+    (S.PROD_DH_WID,
+     S.ORG_WID,
+     S.ORG_SCD1_WID,
+     S.ORG_DH_WID,
+     S.MN_WID,
+     S.RTL_TYPE_WID,
+     S.SLS_QTY,
+     S.SLS_AMT_LCL,
+     S.SLS_PROFIT_AMT_LCL,
+     S.SLS_MANUAL_MKDN_AMT_LCL,
+     S.SLS_MANUAL_MKUP_AMT_LCL,
+     S.SLS_TAX_AMT_LCL,
+     S.SLS_EMP_DISC_AMT_LCL,
+     S.SLS_MANUAL_COUNT,
+     S.SLS_SCAN_COUNT,
+     S.RET_QTY,
+     S.RET_AMT_LCL,
+     S.RET_PROFIT_AMT_LCL,
+     S.RET_MANUAL_MKDN_AMT_LCL,
+     S.RET_MANUAL_MKUP_AMT_LCL,
+     S.RET_TAX_AMT_LCL,
+     S.RET_EMP_DISC_AMT_LCL,
+     S.RET_MANUAL_COUNT,
+     S.RET_SCAN_COUNT,
+     S.INTEGRATION_ID,
+     S.GLOBAL1_EXCHANGE_RATE,
+     S.GLOBAL2_EXCHANGE_RATE,
+     S.GLOBAL3_EXCHANGE_RATE,
+     S.LOC_EXCHANGE_RATE,
+     S.BBG_RETAIL_TYPE_WID,
+     S.BBG_CUSTOMER_COUNT,
+     S.BBG_SERVICE_SATISFACTION,
+     S.W_INSERT_DT,
+     S.W_UPDATE_DT,
+     S.BBG_REFERENCE_DO1,
+     S.BBG_REFERENCE_DO2,
+     S.BBG_REFERENCE_DO3,
+     S.BBG_REFERENCE_DO4,
+     S.BBG_REFERENCE_DO5,
+     S.BBG_REFERENCE_FO1,
+     S.BBG_REFERENCE_FO2,
+     S.BBG_REFERENCE_FO3,
+     S.BBG_REFERENCE_FO4,
+     S.BBG_REFERENCE_FO5,
+     S.BBG_REFERENCE_FO6,
+     S.BBG_REFERENCE_FO7,
+     S.BBG_REFERENCE_FO8,
+     S.BBG_REFERENCE_FO9,
+     S.BBG_REFERENCE_FO10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MERGE /*+APPEND*/
+INTO RADM.W_RTL_SLS_SC_LC_MN_CUR_A T
+USING (SELECT 
+        PROD_DH_WID,
+        ORG_WID,
+        max(ORG_SCD1_WID) ORG_SCD1_WID,
+        max(ORG_DH_WID) ORG_DH_WID,
+        SUBSTR(TO_CHAR(DT_WID), 2, 6) MN_WID,
+        RTL_TYPE_WID,
+        SUM(NVL(SLS_QTY, 0)) SLS_QTY,
+        SUM(NVL(SLS_AMT_LCL, 0)) SLS_AMT_LCL,
+        SUM(NVL(SLS_PROFIT_AMT_LCL, 0)) SLS_PROFIT_AMT_LCL,
+        SUM(NVL(SLS_MANUAL_MKDN_AMT_LCL, 0)) SLS_MANUAL_MKDN_AMT_LCL,
+        SUM(NVL(SLS_MANUAL_MKUP_AMT_LCL, 0)) SLS_MANUAL_MKUP_AMT_LCL,
+        SUM(NVL(SLS_TAX_AMT_LCL, 0)) SLS_TAX_AMT_LCL,
+        SUM(NVL(SLS_EMP_DISC_AMT_LCL, 0)) SLS_EMP_DISC_AMT_LCL,
+        SUM(NVL(SLS_MANUAL_COUNT, 0)) SLS_MANUAL_COUNT,
+        SUM(NVL(SLS_SCAN_COUNT, 0)) SLS_SCAN_COUNT,
+        SUM(NVL(RET_QTY, 0)) RET_QTY,
+        SUM(NVL(RET_AMT_LCL, 0)) RET_AMT_LCL,
+        SUM(NVL(RET_PROFIT_AMT_LCL, 0)) RET_PROFIT_AMT_LCL,
+        SUM(NVL(RET_MANUAL_MKDN_AMT_LCL, 0)) RET_MANUAL_MKDN_AMT_LCL,
+        SUM(NVL(RET_MANUAL_MKUP_AMT_LCL, 0)) RET_MANUAL_MKUP_AMT_LCL,
+        SUM(NVL(RET_TAX_AMT_LCL, 0)) RET_TAX_AMT_LCL,
+        SUM(NVL(RET_EMP_DISC_AMT_LCL, 0)) RET_EMP_DISC_AMT_LCL,
+        SUM(NVL(RET_MANUAL_COUNT, 0)) RET_MANUAL_COUNT,
+        SUM(NVL(RET_SCAN_COUNT, 0)) RET_SCAN_COUNT,
+        max(SUBSTR(INTEGRATION_ID, 1, INSTR(INTEGRATION_ID, '~', 1, 1)) ||
+            SUBSTR(INTEGRATION_ID,
+                   INSTR(INTEGRATION_ID, '~', 1, 1) + 1,
+                   INSTR(INTEGRATION_ID, '~', 1, 2) -
+                   INSTR(INTEGRATION_ID, '~', 1, 1)) ||
+            SUBSTR(TO_CHAR(DT_WID), 2, 6) ||
+            SUBSTR(INTEGRATION_ID,
+                   INSTR(INTEGRATION_ID, '~', 1, 3),
+                   LENGTH(INTEGRATION_ID) - INSTR(INTEGRATION_ID, '~', 1, 3) + 1)) INTEGRATION_ID,
+        max(GLOBAL1_EXCHANGE_RATE) GLOBAL1_EXCHANGE_RATE,
+        max(GLOBAL2_EXCHANGE_RATE) GLOBAL2_EXCHANGE_RATE,
+        max(GLOBAL3_EXCHANGE_RATE) GLOBAL3_EXCHANGE_RATE,
+        max(LOC_EXCHANGE_RATE) LOC_EXCHANGE_RATE,
+        BBG_RETAIL_TYPE_WID,
+        SUM(NVL(BBG_CUSTOMER_COUNT, 0)) BBG_CUSTOMER_COUNT,
+        SUM(NVL(BBG_SERVICE_SATISFACTION, 0)) BBG_SERVICE_SATISFACTION,
+        SYSDATE W_INSERT_DT,
+        SYSDATE W_UPDATE_DT,
+        max(BBG_REFERENCE_DO1) BBG_REFERENCE_DO1,
+        max(BBG_REFERENCE_DO2) BBG_REFERENCE_DO2,
+        max(BBG_REFERENCE_DO3) BBG_REFERENCE_DO3,
+        max(BBG_REFERENCE_DO4) BBG_REFERENCE_DO4,
+        max(BBG_REFERENCE_DO5) BBG_REFERENCE_DO5,
+        SUM(BBG_REFERENCE_FO1) BBG_REFERENCE_FO1,
+        SUM(BBG_REFERENCE_FO2) BBG_REFERENCE_FO2,
+        SUM(BBG_REFERENCE_FO3) BBG_REFERENCE_FO3,
+        SUM(BBG_REFERENCE_FO4) BBG_REFERENCE_FO4,
+        SUM(BBG_REFERENCE_FO5) BBG_REFERENCE_FO5,
+        SUM(BBG_REFERENCE_FO6) BBG_REFERENCE_FO6,
+        SUM(BBG_REFERENCE_FO7) BBG_REFERENCE_FO7,
+        SUM(BBG_REFERENCE_FO8) BBG_REFERENCE_FO8,
+        SUM(BBG_REFERENCE_FO9) BBG_REFERENCE_FO9,
+        SUM(BBG_REFERENCE_FO10) BBG_REFERENCE_FO10
+         FROM RADM.W_RTL_SLS_SC_LC_DY_CUR_A
+        WHERE DT_WID &gt;=
+              '1' || TO_CHAR(TRUNC(SYSDATE - 1, 'month'), 'YYYYMMDD') ||
+              '000'
+        GROUP BY PROD_DH_WID,
+                 ORG_WID,
+                 SUBSTR(TO_CHAR(DT_WID), 2, 6),
+                 RTL_TYPE_WID,
+                 BBG_RETAIL_TYPE_WID) S
+ON (T.PROD_DH_WID = S.PROD_DH_WID AND T.ORG_WID = S.ORG_WID AND T.MN_WID = S.MN_WID AND T.RTL_TYPE_WID = S.RTL_TYPE_WID AND T.BBG_RETAIL_TYPE_WID = S.BBG_RETAIL_TYPE_WID)
+WHEN MATCHED THEN
+  UPDATE
+     SET T.SLS_QTY                  = S.SLS_QTY,
+         T.SLS_AMT_LCL              = S.SLS_AMT_LCL,
+         T.SLS_PROFIT_AMT_LCL       = S.SLS_PROFIT_AMT_LCL,
+         T.SLS_MANUAL_MKDN_AMT_LCL  = S.SLS_MANUAL_MKDN_AMT_LCL,
+         T.SLS_MANUAL_MKUP_AMT_LCL  = S.SLS_MANUAL_MKUP_AMT_LCL,
+         T.SLS_TAX_AMT_LCL          = S.SLS_TAX_AMT_LCL,
+         T.SLS_EMP_DISC_AMT_LCL     = S.SLS_EMP_DISC_AMT_LCL,
+         T.SLS_MANUAL_COUNT         = S.SLS_MANUAL_COUNT,
+         T.SLS_SCAN_COUNT           = S.SLS_SCAN_COUNT,
+         T.RET_QTY                  = S.RET_QTY,
+         T.RET_AMT_LCL              = S.RET_AMT_LCL,
+         T.RET_PROFIT_AMT_LCL       = S.RET_PROFIT_AMT_LCL,
+         T.RET_MANUAL_MKDN_AMT_LCL  = S.RET_MANUAL_MKDN_AMT_LCL,
+         T.RET_MANUAL_MKUP_AMT_LCL  = S.RET_MANUAL_MKUP_AMT_LCL,
+         T.RET_TAX_AMT_LCL          = S.RET_TAX_AMT_LCL,
+         T.RET_EMP_DISC_AMT_LCL     = S.RET_EMP_DISC_AMT_LCL,
+         T.RET_MANUAL_COUNT         = S.RET_MANUAL_COUNT,
+         T.RET_SCAN_COUNT           = S.RET_SCAN_COUNT,
+         T.BBG_CUSTOMER_COUNT       = S.BBG_CUSTOMER_COUNT,
+         T.BBG_SERVICE_SATISFACTION = S.BBG_SERVICE_SATISFACTION,
+         T.W_UPDATE_DT              = S.W_UPDATE_DT,
+         T.BBG_REFERENCE_FO1        = S.BBG_REFERENCE_FO1,
+         T.BBG_REFERENCE_FO2        = S.BBG_REFERENCE_FO2,
+         T.BBG_REFERENCE_FO3        = S.BBG_REFERENCE_FO3,
+         T.BBG_REFERENCE_FO4        = S.BBG_REFERENCE_FO4,
+         T.BBG_REFERENCE_FO5        = S.BBG_REFERENCE_FO5,
+         T.BBG_REFERENCE_FO6        = S.BBG_REFERENCE_FO6,
+         T.BBG_REFERENCE_FO7        = S.BBG_REFERENCE_FO7,
+         T.BBG_REFERENCE_FO8        = S.BBG_REFERENCE_FO8,
+         T.BBG_REFERENCE_FO9        = S.BBG_REFERENCE_FO9,
+         T.BBG_REFERENCE_FO10       = S.BBG_REFERENCE_FO10
+WHEN NOT MATCHED THEN
+  INSERT
+    (T.PROD_DH_WID,
+     T.ORG_WID,
+     T.ORG_SCD1_WID,
+     T.ORG_DH_WID,
+     T.MN_WID,
+     T.RTL_TYPE_WID,
+     T.SLS_QTY,
+     T.SLS_AMT_LCL,
+     T.SLS_PROFIT_AMT_LCL,
+     T.SLS_MANUAL_MKDN_AMT_LCL,
+     T.SLS_MANUAL_MKUP_AMT_LCL,
+     T.SLS_TAX_AMT_LCL,
+     T.SLS_EMP_DISC_AMT_LCL,
+     T.SLS_MANUAL_COUNT,
+     T.SLS_SCAN_COUNT,
+     T.RET_QTY,
+     T.RET_AMT_LCL,
+     T.RET_PROFIT_AMT_LCL,
+     T.RET_MANUAL_MKDN_AMT_LCL,
+     T.RET_MANUAL_MKUP_AMT_LCL,
+     T.RET_TAX_AMT_LCL,
+     T.RET_EMP_DISC_AMT_LCL,
+     T.RET_MANUAL_COUNT,
+     T.RET_SCAN_COUNT,
+     T.INTEGRATION_ID,
+     T.GLOBAL1_EXCHANGE_RATE,
+     T.GLOBAL2_EXCHANGE_RATE,
+     T.GLOBAL3_EXCHANGE_RATE,
+     T.LOC_EXCHANGE_RATE,
+     T.BBG_RETAIL_TYPE_WID,
+     T.BBG_CUSTOMER_COUNT,
+     T.BBG_SERVICE_SATISFACTION,
+     T.W_INSERT_DT,
+     T.W_UPDATE_DT,
+     T.BBG_REFERENCE_DO1,
+     T.BBG_REFERENCE_DO2,
+     T.BBG_REFERENCE_DO3,
+     T.BBG_REFERENCE_DO4,
+     T.BBG_REFERENCE_DO5,
+     T.BBG_REFERENCE_FO1,
+     T.BBG_REFERENCE_FO2,
+     T.BBG_REFERENCE_FO3,
+     T.BBG_REFERENCE_FO4,
+     T.BBG_REFERENCE_FO5,
+     T.BBG_REFERENCE_FO6,
+     T.BBG_REFERENCE_FO7,
+     T.BBG_REFERENCE_FO8,
+     T.BBG_REFERENCE_FO9,
+     T.BBG_REFERENCE_FO10)
+  VALUES
+    (S.PROD_DH_WID,
+     S.ORG_WID,
+     S.ORG_SCD1_WID,
+     S.ORG_DH_WID,
+     S.MN_WID,
+     S.RTL_TYPE_WID,
+     S.SLS_QTY,
+     S.SLS_AMT_LCL,
+     S.SLS_PROFIT_AMT_LCL,
+     S.SLS_MANUAL_MKDN_AMT_LCL,
+     S.SLS_MANUAL_MKUP_AMT_LCL,
+     S.SLS_TAX_AMT_LCL,
+     S.SLS_EMP_DISC_AMT_LCL,
+     S.SLS_MANUAL_COUNT,
+     S.SLS_SCAN_COUNT,
+     S.RET_QTY,
+     S.RET_AMT_LCL,
+     S.RET_PROFIT_AMT_LCL,
+     S.RET_MANUAL_MKDN_AMT_LCL,
+     S.RET_MANUAL_MKUP_AMT_LCL,
+     S.RET_TAX_AMT_LCL,
+     S.RET_EMP_DISC_AMT_LCL,
+     S.RET_MANUAL_COUNT,
+     S.RET_SCAN_COUNT,
+     S.INTEGRATION_ID,
+     S.GLOBAL1_EXCHANGE_RATE,
+     S.GLOBAL2_EXCHANGE_RATE,
+     S.GLOBAL3_EXCHANGE_RATE,
+     S.LOC_EXCHANGE_RATE,
+     S.BBG_RETAIL_TYPE_WID,
+     S.BBG_CUSTOMER_COUNT,
+     S.BBG_SERVICE_SATISFACTION,
+     S.W_INSERT_DT,
+     S.W_UPDATE_DT,
+     S.BBG_REFERENCE_DO1,
+     S.BBG_REFERENCE_DO2,
+     S.BBG_REFERENCE_DO3,
+     S.BBG_REFERENCE_DO4,
+     S.BBG_REFERENCE_DO5,
+     S.BBG_REFERENCE_FO1,
+     S.BBG_REFERENCE_FO2,
+     S.BBG_REFERENCE_FO3,
+     S.BBG_REFERENCE_FO4,
+     S.BBG_REFERENCE_FO5,
+     S.BBG_REFERENCE_FO6,
+     S.BBG_REFERENCE_FO7,
+     S.BBG_REFERENCE_FO8,
+     S.BBG_REFERENCE_FO9,
+     S.BBG_REFERENCE_FO10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ORA-12801: error signaled in parallel query server P00J, instance rarac01:radb1 (1)
+ORA-08103: object no longer exists
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIL_RetailInvPositionFactGeneral</t>
+  </si>
+  <si>
+    <t>java.sql.SQLRecoverableException: No more data to read from socket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> merge     into  
+ RADM.W_RTL_INV_IT_LC_G T 
+ using 
+  (
+  Select   
+  W_RTL_INV_IT_LC_DY_TMP.PROD_IT_WID PROD_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_SCD1_WID PROD_SCD1_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_SC_WID PROD_SC_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_CL_WID PROD_CL_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_DP_WID PROD_DP_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_GP_WID PROD_GP_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_DV_WID PROD_DV_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_IT_NUM PROD_IT_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_SC_NUM PROD_SC_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_CL_NUM PROD_CL_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_DP_NUM PROD_DP_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_GP_NUM PROD_GP_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_DV_NUM PROD_DV_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_WID ORG_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_SCD1_WID ORG_SCD1_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_LC_WID ORG_DH_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_DS_WID ORG_DS_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_RG_WID ORG_RG_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_AR_WID ORG_AR_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_CH_WID ORG_CH_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_NUM ORG_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_DS_NUM ORG_DS_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_RG_NUM ORG_RG_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_AR_NUM ORG_AR_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_CH_NUM ORG_CH_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.CLEARANCE_FLG CLEARANCE_FLG,
+ W_RTL_INV_IT_LC_DY_TMP.INV_REPL_FLG INV_REPL_FLG,
+ W_RTL_INV_IT_LC_DY_TMP.INV_REPL_METHOD_TYPE INV_REPL_METHOD_TYPE,
+ W_RTL_INV_IT_LC_DY_TMP.INV_REPL_INCREMENT_PCT INV_REPL_INCREMENT_PCT,
+ W_RTL_INV_IT_LC_DY_TMP.INV_SOH_QTY INV_SOH_QTY,
+ W_RTL_INV_IT_LC_DY_TMP.INV_ON_ORD_QTY INV_ON_ORD_QTY,
+ W_RTL_INV_IT_LC_DY_TMP.INV_IN_TRAN_QTY INV_IN_TRAN_QTY,
+ W_RTL_INV_IT_LC_DY_TMP.INV_MAX_SOH_QTY INV_MAX_SOH_QTY,
+ W_RTL_INV_IT_LC_DY_TMP.INV_MIN_SOH_QTY INV_MIN_SOH_QTY,
+ W_RTL_INV_IT_LC_DY_TMP.INV_UNIT_RTL_AMT_LCL INV_UNIT_RTL_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_SOH_RTL_AMT_LCL INV_SOH_RTL_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_ON_ORD_RTL_AMT_LCL INV_ON_ORD_RTL_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_IN_TRAN_RTL_AMT_LCL INV_IN_TRAN_RTL_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_MAX_SOH_RTL_AMT_LCL INV_MAX_SOH_RTL_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_MIN_SOH_RTL_AMT_LCL INV_MIN_SOH_RTL_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_AVG_COST_AMT_LCL INV_AVG_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_UNIT_COST_AMT_LCL INV_UNIT_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_SOH_COST_AMT_LCL INV_SOH_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_ON_ORD_COST_AMT_LCL INV_ON_ORD_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_IN_TRAN_COST_AMT_LCL INV_IN_TRAN_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_MAX_SOH_COST_AMT_LCL INV_MAX_SOH_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_MIN_SOH_COST_AMT_LCL INV_MIN_SOH_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.DM_RECD_STATUS DM_RECD_STATUS,
+ W_RTL_INV_IT_LC_DY_TMP.DOC_CURR_CODE DOC_CURR_CODE,
+ W_RTL_INV_IT_LC_DY_TMP.LOC_CURR_CODE LOC_CURR_CODE,
+ W_RTL_INV_IT_LC_DY_TMP.LOC_EXCHANGE_RATE LOC_EXCHANGE_RATE,
+ W_RTL_INV_IT_LC_DY_TMP.GLOBAL1_EXCHANGE_RATE GLOBAL1_EXCHANGE_RATE,
+ W_RTL_INV_IT_LC_DY_TMP.GLOBAL2_EXCHANGE_RATE GLOBAL2_EXCHANGE_RATE,
+ W_RTL_INV_IT_LC_DY_TMP.GLOBAL3_EXCHANGE_RATE GLOBAL3_EXCHANGE_RATE,
+ W_RTL_INV_IT_LC_DY_TMP.CREATED_BY_ID CREATED_BY_WID,
+ W_RTL_INV_IT_LC_DY_TMP.CHANGED_BY_ID CHANGED_BY_WID,
+ W_RTL_INV_IT_LC_DY_TMP.CREATED_ON_DT CREATED_ON_DT,
+ W_RTL_INV_IT_LC_DY_TMP.CHANGED_ON_DT CHANGED_ON_DT,
+ W_RTL_INV_IT_LC_DY_TMP.AUX1_CHANGED_ON_DT AUX1_CHANGED_ON_DT,
+ W_RTL_INV_IT_LC_DY_TMP.AUX2_CHANGED_ON_DT AUX2_CHANGED_ON_DT,
+ W_RTL_INV_IT_LC_DY_TMP.AUX3_CHANGED_ON_DT AUX3_CHANGED_ON_DT,
+ W_RTL_INV_IT_LC_DY_TMP.AUX4_CHANGED_ON_DT AUX4_CHANGED_ON_DT,
+ W_RTL_INV_IT_LC_DY_TMP.DELETE_FLG DELETE_FLG,
+ SYSDATE W_INSERT_DT,
+ SYSDATE W_UPDATE_DT,
+ W_RTL_INV_IT_LC_DY_TMP.DATASOURCE_NUM_ID DATASOURCE_NUM_ID,
+ #RA_BI.ETL_PROC_WID ETL_PROC_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ETL_THREAD_VAL ETL_THREAD_VAL,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_IT_WID||'~'||W_RTL_INV_IT_LC_DY_TMP.ORG_LC_WID INTEGRATION_ID,
+ W_RTL_INV_IT_LC_DY_TMP.TENANT_ID TENANT_ID,
+ W_RTL_INV_IT_LC_DY_TMP.X_CUSTOM X_CUSTOM,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_ITEM_LOC_WID BBG_ITEM_LOC_WID,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_DO1 BBG_REFERENCE_DO1,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_DO2 BBG_REFERENCE_DO2,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_DO3 BBG_REFERENCE_DO3,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_DO4 BBG_REFERENCE_DO4,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_DO5 BBG_REFERENCE_DO5,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO1 BBG_REFERENCE_FO1,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO2 BBG_REFERENCE_FO2,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO3 BBG_REFERENCE_FO3,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO4 BBG_REFERENCE_FO4,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO5 BBG_REFERENCE_FO5,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO6 BBG_REFERENCE_FO6,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO7 BBG_REFERENCE_FO7,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO8 BBG_REFERENCE_FO8,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO9 BBG_REFERENCE_FO9,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO10 BBG_REFERENCE_FO10
+  From RABATCHER.W_RTL_INV_IT_LC_DY_TMP   W_RTL_INV_IT_LC_DY_TMP
+        Where (1=1)
+ And (W_RTL_INV_IT_LC_DY_TMP.ETL_THREAD_VAL=#RA_BI.RA_THREAD_VAL)
+  ) S
+ on (
+   T.PROD_WID=S.PROD_WID
+ and  T.ORG_WID=S.ORG_WID
+  )
+ when matched
+ then update set
+  T.PROD_SCD1_WID = S.PROD_SCD1_WID,
+ T.PROD_SC_WID = S.PROD_SC_WID,
+ T.PROD_CL_WID = S.PROD_CL_WID,
+ T.PROD_DP_WID = S.PROD_DP_WID,
+ T.PROD_GP_WID = S.PROD_GP_WID,
+ T.PROD_DV_WID = S.PROD_DV_WID,
+ T.PROD_IT_NUM = S.PROD_IT_NUM,
+ T.PROD_SC_NUM = S.PROD_SC_NUM,
+ T.PROD_CL_NUM = S.PROD_CL_NUM,
+ T.PROD_DP_NUM = S.PROD_DP_NUM,
+ T.PROD_GP_NUM = S.PROD_GP_NUM,
+ T.PROD_DV_NUM = S.PROD_DV_NUM,
+ T.ORG_SCD1_WID = S.ORG_SCD1_WID,
+ T.ORG_DH_WID = S.ORG_DH_WID,
+ T.ORG_DS_WID = S.ORG_DS_WID,
+ T.ORG_RG_WID = S.ORG_RG_WID,
+ T.ORG_AR_WID = S.ORG_AR_WID,
+ T.ORG_CH_WID = S.ORG_CH_WID,
+ T.ORG_NUM = S.ORG_NUM,
+ T.ORG_DS_NUM = S.ORG_DS_NUM,
+ T.ORG_RG_NUM = S.ORG_RG_NUM,
+ T.ORG_AR_NUM = S.ORG_AR_NUM,
+ T.ORG_CH_NUM = S.ORG_CH_NUM,
+ T.CLEARANCE_FLG = S.CLEARANCE_FLG,
+ T.INV_REPL_FLG = S.INV_REPL_FLG,
+ T.INV_REPL_METHOD_TYPE = S.INV_REPL_METHOD_TYPE,
+ T.INV_REPL_INCREMENT_PCT = S.INV_REPL_INCREMENT_PCT,
+ T.INV_SOH_QTY = S.INV_SOH_QTY,
+ T.INV_ON_ORD_QTY = S.INV_ON_ORD_QTY,
+ T.INV_IN_TRAN_QTY = S.INV_IN_TRAN_QTY,
+ T.INV_MAX_SOH_QTY = S.INV_MAX_SOH_QTY,
+ T.INV_MIN_SOH_QTY = S.INV_MIN_SOH_QTY,
+ T.INV_UNIT_RTL_AMT_LCL = S.INV_UNIT_RTL_AMT_LCL,
+ T.INV_SOH_RTL_AMT_LCL = S.INV_SOH_RTL_AMT_LCL,
+ T.INV_ON_ORD_RTL_AMT_LCL = S.INV_ON_ORD_RTL_AMT_LCL,
+ T.INV_IN_TRAN_RTL_AMT_LCL = S.INV_IN_TRAN_RTL_AMT_LCL,
+ T.INV_MAX_SOH_RTL_AMT_LCL = S.INV_MAX_SOH_RTL_AMT_LCL,
+ T.INV_MIN_SOH_RTL_AMT_LCL = S.INV_MIN_SOH_RTL_AMT_LCL,
+ T.INV_AVG_COST_AMT_LCL = S.INV_AVG_COST_AMT_LCL,
+ T.INV_UNIT_COST_AMT_LCL = S.INV_UNIT_COST_AMT_LCL,
+ T.INV_SOH_COST_AMT_LCL = S.INV_SOH_COST_AMT_LCL,
+ T.INV_ON_ORD_COST_AMT_LCL = S.INV_ON_ORD_COST_AMT_LCL,
+ T.INV_IN_TRAN_COST_AMT_LCL = S.INV_IN_TRAN_COST_AMT_LCL,
+ T.INV_MAX_SOH_COST_AMT_LCL = S.INV_MAX_SOH_COST_AMT_LCL,
+ T.INV_MIN_SOH_COST_AMT_LCL = S.INV_MIN_SOH_COST_AMT_LCL,
+ T.DM_RECD_STATUS = S.DM_RECD_STATUS,
+ T.DOC_CURR_CODE = S.DOC_CURR_CODE,
+ T.LOC_CURR_CODE = S.LOC_CURR_CODE,
+ T.LOC_EXCHANGE_RATE = S.LOC_EXCHANGE_RATE,
+ T.GLOBAL1_EXCHANGE_RATE = S.GLOBAL1_EXCHANGE_RATE,
+ T.GLOBAL2_EXCHANGE_RATE = S.GLOBAL2_EXCHANGE_RATE,
+ T.GLOBAL3_EXCHANGE_RATE = S.GLOBAL3_EXCHANGE_RATE,
+ T.CREATED_BY_WID = S.CREATED_BY_WID,
+ T.CHANGED_BY_WID = S.CHANGED_BY_WID,
+ T.CREATED_ON_DT = S.CREATED_ON_DT,
+ T.CHANGED_ON_DT = S.CHANGED_ON_DT,
+ T.AUX1_CHANGED_ON_DT = S.AUX1_CHANGED_ON_DT,
+ T.AUX2_CHANGED_ON_DT = S.AUX2_CHANGED_ON_DT,
+ T.AUX3_CHANGED_ON_DT = S.AUX3_CHANGED_ON_DT,
+ T.AUX4_CHANGED_ON_DT = S.AUX4_CHANGED_ON_DT,
+ T.DELETE_FLG = S.DELETE_FLG,
+ T.W_UPDATE_DT = S.W_UPDATE_DT,
+ T.DATASOURCE_NUM_ID = S.DATASOURCE_NUM_ID,
+ T.ETL_PROC_WID = S.ETL_PROC_WID,
+ T.ETL_THREAD_VAL = S.ETL_THREAD_VAL,
+ T.INTEGRATION_ID = S.INTEGRATION_ID,
+ T.TENANT_ID = S.TENANT_ID,
+ T.X_CUSTOM = S.X_CUSTOM,
+ T.BBG_ITEM_LOC_WID = S.BBG_ITEM_LOC_WID,
+ T.BBG_REFERENCE_DO1 = S.BBG_REFERENCE_DO1,
+ T.BBG_REFERENCE_DO2 = S.BBG_REFERENCE_DO2,
+ T.BBG_REFERENCE_DO3 = S.BBG_REFERENCE_DO3,
+ T.BBG_REFERENCE_DO4 = S.BBG_REFERENCE_DO4,
+ T.BBG_REFERENCE_DO5 = S.BBG_REFERENCE_DO5,
+ T.BBG_REFERENCE_FO1 = S.BBG_REFERENCE_FO1,
+ T.BBG_REFERENCE_FO2 = S.BBG_REFERENCE_FO2,
+ T.BBG_REFERENCE_FO3 = S.BBG_REFERENCE_FO3,
+ T.BBG_REFERENCE_FO4 = S.BBG_REFERENCE_FO4,
+ T.BBG_REFERENCE_FO5 = S.BBG_REFERENCE_FO5,
+ T.BBG_REFERENCE_FO6 = S.BBG_REFERENCE_FO6,
+ T.BBG_REFERENCE_FO7 = S.BBG_REFERENCE_FO7,
+ T.BBG_REFERENCE_FO8 = S.BBG_REFERENCE_FO8,
+ T.BBG_REFERENCE_FO9 = S.BBG_REFERENCE_FO9,
+ T.BBG_REFERENCE_FO10 = S.BBG_REFERENCE_FO10
+ when not matched
+ then insert
+  (
+  T.ROW_WID
+                ,T.PROD_WID,
+ T.PROD_SCD1_WID,
+ T.PROD_SC_WID,
+ T.PROD_CL_WID,
+ T.PROD_DP_WID,
+ T.PROD_GP_WID,
+ T.PROD_DV_WID,
+ T.PROD_IT_NUM,
+ T.PROD_SC_NUM,
+ T.PROD_CL_NUM,
+ T.PROD_DP_NUM,
+ T.PROD_GP_NUM,
+ T.PROD_DV_NUM,
+ T.ORG_WID,
+ T.ORG_SCD1_WID,
+ T.ORG_DH_WID,
+ T.ORG_DS_WID,
+ T.ORG_RG_WID,
+ T.ORG_AR_WID,
+ T.ORG_CH_WID,
+ T.ORG_NUM,
+ T.ORG_DS_NUM,
+ T.ORG_RG_NUM,
+ T.ORG_AR_NUM,
+ T.ORG_CH_NUM,
+ T.CLEARANCE_FLG,
+ T.INV_REPL_FLG,
+ T.INV_REPL_METHOD_TYPE,
+ T.INV_REPL_INCREMENT_PCT,
+ T.INV_SOH_QTY,
+ T.INV_ON_ORD_QTY,
+ T.INV_IN_TRAN_QTY,
+ T.INV_MAX_SOH_QTY,
+ T.INV_MIN_SOH_QTY,
+ T.INV_UNIT_RTL_AMT_LCL,
+ T.INV_SOH_RTL_AMT_LCL,
+ T.INV_ON_ORD_RTL_AMT_LCL,
+ T.INV_IN_TRAN_RTL_AMT_LCL,
+ T.INV_MAX_SOH_RTL_AMT_LCL,
+ T.INV_MIN_SOH_RTL_AMT_LCL,
+ T.INV_AVG_COST_AMT_LCL,
+ T.INV_UNIT_COST_AMT_LCL,
+ T.INV_SOH_COST_AMT_LCL,
+ T.INV_ON_ORD_COST_AMT_LCL,
+ T.INV_IN_TRAN_COST_AMT_LCL,
+ T.INV_MAX_SOH_COST_AMT_LCL,
+ T.INV_MIN_SOH_COST_AMT_LCL,
+ T.DM_RECD_STATUS,
+ T.DOC_CURR_CODE,
+ T.LOC_CURR_CODE,
+ T.LOC_EXCHANGE_RATE,
+ T.GLOBAL1_EXCHANGE_RATE,
+ T.GLOBAL2_EXCHANGE_RATE,
+ T.GLOBAL3_EXCHANGE_RATE,
+ T.CREATED_BY_WID,
+ T.CHANGED_BY_WID,
+ T.CREATED_ON_DT,
+ T.CHANGED_ON_DT,
+ T.AUX1_CHANGED_ON_DT,
+ T.AUX2_CHANGED_ON_DT,
+ T.AUX3_CHANGED_ON_DT,
+ T.AUX4_CHANGED_ON_DT,
+ T.DELETE_FLG,
+ T.W_INSERT_DT,
+ T.W_UPDATE_DT,
+ T.DATASOURCE_NUM_ID,
+ T.ETL_PROC_WID,
+ T.ETL_THREAD_VAL,
+ T.INTEGRATION_ID,
+ T.TENANT_ID,
+ T.X_CUSTOM,
+ T.BBG_ITEM_LOC_WID,
+ T.BBG_REFERENCE_DO1,
+ T.BBG_REFERENCE_DO2,
+ T.BBG_REFERENCE_DO3,
+ T.BBG_REFERENCE_DO4,
+ T.BBG_REFERENCE_DO5,
+ T.BBG_REFERENCE_FO1,
+ T.BBG_REFERENCE_FO2,
+ T.BBG_REFERENCE_FO3,
+ T.BBG_REFERENCE_FO4,
+ T.BBG_REFERENCE_FO5,
+ T.BBG_REFERENCE_FO6,
+ T.BBG_REFERENCE_FO7,
+ T.BBG_REFERENCE_FO8,
+ T.BBG_REFERENCE_FO9,
+ T.BBG_REFERENCE_FO10
+  )
+ values
+  (
+  RADM.W_RTL_INV_IT_LC_G_SEQ.NEXTVAL
+  ,S.PROD_WID,
+ S.PROD_SCD1_WID,
+ S.PROD_SC_WID,
+ S.PROD_CL_WID,
+ S.PROD_DP_WID,
+ S.PROD_GP_WID,
+ S.PROD_DV_WID,
+ S.PROD_IT_NUM,
+ S.PROD_SC_NUM,
+ S.PROD_CL_NUM,
+ S.PROD_DP_NUM,
+ S.PROD_GP_NUM,
+ S.PROD_DV_NUM,
+ S.ORG_WID,
+ S.ORG_SCD1_WID,
+ S.ORG_DH_WID,
+ S.ORG_DS_WID,
+ S.ORG_RG_WID,
+ S.ORG_AR_WID,
+ S.ORG_CH_WID,
+ S.ORG_NUM,
+ S.ORG_DS_NUM,
+ S.ORG_RG_NUM,
+ S.ORG_AR_NUM,
+ S.ORG_CH_NUM,
+ S.CLEARANCE_FLG,
+ S.INV_REPL_FLG,
+ S.INV_REPL_METHOD_TYPE,
+ S.INV_REPL_INCREMENT_PCT,
+ S.INV_SOH_QTY,
+ S.INV_ON_ORD_QTY,
+ S.INV_IN_TRAN_QTY,
+ S.INV_MAX_SOH_QTY,
+ S.INV_MIN_SOH_QTY,
+ S.INV_UNIT_RTL_AMT_LCL,
+ S.INV_SOH_RTL_AMT_LCL,
+ S.INV_ON_ORD_RTL_AMT_LCL,
+ S.INV_IN_TRAN_RTL_AMT_LCL,
+ S.INV_MAX_SOH_RTL_AMT_LCL,
+ S.INV_MIN_SOH_RTL_AMT_LCL,
+ S.INV_AVG_COST_AMT_LCL,
+ S.INV_UNIT_COST_AMT_LCL,
+ S.INV_SOH_COST_AMT_LCL,
+ S.INV_ON_ORD_COST_AMT_LCL,
+ S.INV_IN_TRAN_COST_AMT_LCL,
+ S.INV_MAX_SOH_COST_AMT_LCL,
+ S.INV_MIN_SOH_COST_AMT_LCL,
+ S.DM_RECD_STATUS,
+ S.DOC_CURR_CODE,
+ S.LOC_CURR_CODE,
+ S.LOC_EXCHANGE_RATE,
+ S.GLOBAL1_EXCHANGE_RATE,
+ S.GLOBAL2_EXCHANGE_RATE,
+ S.GLOBAL3_EXCHANGE_RATE,
+ S.CREATED_BY_WID,
+ S.CHANGED_BY_WID,
+ S.CREATED_ON_DT,
+ S.CHANGED_ON_DT,
+ S.AUX1_CHANGED_ON_DT,
+ S.AUX2_CHANGED_ON_DT,
+ S.AUX3_CHANGED_ON_DT,
+ S.AUX4_CHANGED_ON_DT,
+ S.DELETE_FLG,
+ S.W_INSERT_DT,
+ S.W_UPDATE_DT,
+ S.DATASOURCE_NUM_ID,
+ S.ETL_PROC_WID,
+ S.ETL_THREAD_VAL,
+ S.INTEGRATION_ID,
+ S.TENANT_ID,
+ S.X_CUSTOM,
+ S.BBG_ITEM_LOC_WID,
+ S.BBG_REFERENCE_DO1,
+ S.BBG_REFERENCE_DO2,
+ S.BBG_REFERENCE_DO3,
+ S.BBG_REFERENCE_DO4,
+ S.BBG_REFERENCE_DO5,
+ S.BBG_REFERENCE_FO1,
+ S.BBG_REFERENCE_FO2,
+ S.BBG_REFERENCE_FO3,
+ S.BBG_REFERENCE_FO4,
+ S.BBG_REFERENCE_FO5,
+ S.BBG_REFERENCE_FO6,
+ S.BBG_REFERENCE_FO7,
+ S.BBG_REFERENCE_FO8,
+ S.BBG_REFERENCE_FO9,
+ S.BBG_REFERENCE_FO10
+ )
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP_RetailSalesCorpOrgITDyLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> merge   /*+ APPEND */  into  
+ RADM.W_RTL_SLS_IT_DY_A T 
+ using 
+  (
+  Select  /*+ APPEND */ 
+  W_RTL_SLS_IT_DY_TMP.PROD_IT_WID PROD_WID,
+ W_RTL_SLS_IT_DY_TMP.PROD_SCD1_WID PROD_SCD1_WID,
+ W_RTL_SLS_IT_DY_TMP.DT_WID DT_WID,
+ W_RTL_SLS_IT_DY_TMP.RTL_TYPE_WID RTL_TYPE_WID,
+ W_RTL_SLS_IT_DY_TMP.VOUCHER_FLG VOUCHER_FLG,
+ W_RTL_SLS_IT_DY_TMP.DATASOURCE_NUM_ID DATASOURCE_NUM_ID,
+ W_RTL_SLS_IT_DY_TMP.DELETE_FLG DELETE_FLG,
+ #RA_BI.ETL_PROC_WID ETL_PROC_WID,
+ W_RTL_SLS_IT_DY_TMP.PROD_IT_NUM||'~'||W_RTL_SLS_IT_DY_TMP.DAY_DT||'~'||W_RTL_SLS_IT_DY_TMP.RTL_TYPE_CODE||'~'||W_RTL_SLS_IT_DY_TMP.VOUCHER_FLG INTEGRATION_ID,
+ W_RTL_SLS_IT_DY_TMP.TENANT_ID TENANT_ID,
+ SYSDATE W_INSERT_DT,
+ SYSDATE W_UPDATE_DT,
+ W_RTL_SLS_IT_DY_TMP.X_CUSTOM X_CUSTOM,
+ W_RTL_SLS_IT_DY_TMP.BBG_RETAIL_TYPE_WID BBG_RETAIL_TYPE_WID,
+ sum(W_RTL_SLS_IT_DY_TMP.BBG_CUSTOMER_COUNT) BBG_CUSTOMER_COUNT,
+ avg( W_RTL_SLS_IT_DY_TMP.BBG_SERVICE_SATISFACTION ) BBG_SERVICE_SATISFACTION,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_DO1 BBG_REFERENCE_DO1,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_DO2 BBG_REFERENCE_DO2,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_DO3 BBG_REFERENCE_DO3,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_DO4 BBG_REFERENCE_DO4,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_DO5 BBG_REFERENCE_DO5,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO1 BBG_REFERENCE_FO1,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO2 BBG_REFERENCE_FO2,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO3 BBG_REFERENCE_FO3,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO4 BBG_REFERENCE_FO4,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO5 BBG_REFERENCE_FO5,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO6 BBG_REFERENCE_FO6,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO7 BBG_REFERENCE_FO7,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO8 BBG_REFERENCE_FO8,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO9 BBG_REFERENCE_FO9,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO10 BBG_REFERENCE_FO10,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_QTY VIP_SLS_QTY,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_AMT_LCL VIP_SLS_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_PROFIT_AMT_LCL VIP_SLS_PROFIT_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_TAX_AMT_LCL VIP_SLS_TAX_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_EMP_DISC_AMT_LCL VIP_SLS_EMP_DISC_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_QTY VIP_RET_QTY,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_AMT_LCL VIP_RET_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_PROFIT_AMT_LCL VIP_RET_PROFIT_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_TAX_AMT_LCL VIP_RET_TAX_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_EMP_DISC_AMT_LCL VIP_RET_EMP_DISC_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_MANUAL_MKDN_AMT_LCL VIP_SLS_MANUAL_MKDN_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_MANUAL_MKUP_AMT_LCL VIP_SLS_MANUAL_MKUP_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_MANUAL_MKDN_AMT_LCL VIP_RET_MANUAL_MKDN_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_MANUAL_MKUP_AMT_LCL VIP_RET_MANUAL_MKUP_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_AMT VIP_SLS_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_AMT_GLOBAL1 VIP_SLS_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_AMT_GLOBAL2 VIP_SLS_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_AMT_GLOBAL3 VIP_SLS_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_PROFIT_AMT VIP_SLS_PROFIT_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_PROFIT_AMT_GLOBAL1 VIP_SLS_PROFIT_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_PROFIT_AMT_GLOBAL2 VIP_SLS_PROFIT_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_PROFIT_AMT_GLOBAL3 VIP_SLS_PROFIT_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_MANUAL_MKDN_AMT VIP_SLS_MANUAL_MKDN_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_MANUAL_MKUP_AMT VIP_SLS_MANUAL_MKUP_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_TAX_AMT VIP_SLS_TAX_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_TAX_AMT_GLOBAL1 VIP_SLS_TAX_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_TAX_AMT_GLOBAL2 VIP_SLS_TAX_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_TAX_AMT_GLOBAL3 VIP_SLS_TAX_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_EMP_DISC_AMT VIP_SLS_EMP_DISC_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_EMP_DISC_AMT_GLOBAL1 VIP_SLS_EMP_DISC_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_EMP_DISC_AMT_GLOBAL2 VIP_SLS_EMP_DISC_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_EMP_DISC_AMT_GLOBAL3 VIP_SLS_EMP_DISC_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_AMT VIP_RET_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_AMT_GLOBAL1 VIP_RET_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_AMT_GLOBAL2 VIP_RET_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_AMT_GLOBAL3 VIP_RET_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_PROFIT_AMT VIP_RET_PROFIT_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_PROFIT_AMT_GLOBAL1 VIP_RET_PROFIT_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_PROFIT_AMT_GLOBAL2 VIP_RET_PROFIT_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_PROFIT_AMT_GLOBAL3 VIP_RET_PROFIT_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_MANUAL_MKDN_AMT VIP_RET_MANUAL_MKDN_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_MANUAL_MKUP_AMT VIP_RET_MANUAL_MKUP_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_TAX_AMT VIP_RET_TAX_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_TAX_AMT_GLOBAL1 VIP_RET_TAX_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_TAX_AMT_GLOBAL2 VIP_RET_TAX_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_TAX_AMT_GLOBAL3 VIP_RET_TAX_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_EMP_DISC_AMT VIP_RET_EMP_DISC_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_EMP_DISC_AMT_GLOBAL1 VIP_RET_EMP_DISC_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_EMP_DISC_AMT_GLOBAL2 VIP_RET_EMP_DISC_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_EMP_DISC_AMT_GLOBAL3 VIP_RET_EMP_DISC_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_MANUAL_COUNT VIP_SLS_MANUAL_COUNT,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_SCAN_COUNT VIP_SLS_SCAN_COUNT,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_MANUAL_COUNT VIP_RET_MANUAL_COUNT,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_SCAN_COUNT VIP_RET_SCAN_COUNT,
+ W_RTL_SLS_IT_DY_TMP.V_SLS_MANUAL_MKDN_AMT_GLOBAL1 V_SLS_MANUAL_MKDN_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.V_SLS_MANUAL_MKDN_AMT_GLOBAL2 V_SLS_MANUAL_MKDN_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.V_SLS_MANUAL_MKDN_AMT_GLOBAL3 V_SLS_MANUAL_MKDN_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.V_SLS_MANUAL_MKUP_AMT_GLOBAL1 V_SLS_MANUAL_MKUP_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.V_SLS_MANUAL_MKUP_AMT_GLOBAL2 V_SLS_MANUAL_MKUP_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.V_SLS_MANUAL_MKUP_AMT_GLOBAL3 V_SLS_MANUAL_MKUP_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.V_RET_MANUAL_MKDN_AMT_GLOBAL1 V_RET_MANUAL_MKDN_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.V_RET_MANUAL_MKDN_AMT_GLOBAL2 V_RET_MANUAL_MKDN_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.V_RET_MANUAL_MKDN_AMT_GLOBAL3 V_RET_MANUAL_MKDN_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.V_RET_MANUAL_MKUP_AMT_GLOBAL1 V_RET_MANUAL_MKUP_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.V_RET_MANUAL_MKUP_AMT_GLOBAL2 V_RET_MANUAL_MKUP_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.V_RET_MANUAL_MKUP_AMT_GLOBAL3 V_RET_MANUAL_MKUP_AMT_GLOBAL3
+  ,W_RTL_SLS_IT_DY_TMP.SLS_QTY SLS_QTY,
+ W_RTL_SLS_IT_DY_TMP.SLS_AMT_LCL SLS_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.SLS_PROFIT_AMT_LCL SLS_PROFIT_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.SLS_TAX_AMT_LCL SLS_TAX_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.SLS_EMP_DISC_AMT_LCL SLS_EMP_DISC_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.RET_QTY RET_QTY,
+ W_RTL_SLS_IT_DY_TMP.RET_AMT_LCL RET_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.RET_PROFIT_AMT_LCL RET_PROFIT_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.RET_TAX_AMT_LCL RET_TAX_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.RET_EMP_DISC_AMT_LCL RET_EMP_DISC_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKDN_AMT_LCL SLS_MANUAL_MKDN_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKUP_AMT_LCL SLS_MANUAL_MKUP_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKDN_AMT_LCL RET_MANUAL_MKDN_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKUP_AMT_LCL RET_MANUAL_MKUP_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.SLS_AMT SLS_AMT,
+ W_RTL_SLS_IT_DY_TMP.SLS_AMT_GLOBAL1 SLS_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.SLS_AMT_GLOBAL2 SLS_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.SLS_AMT_GLOBAL3 SLS_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.SLS_PROFIT_AMT SLS_PROFIT_AMT,
+ W_RTL_SLS_IT_DY_TMP.SLS_PROFIT_AMT_GLOBAL1 SLS_PROFIT_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.SLS_PROFIT_AMT_GLOBAL2 SLS_PROFIT_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.SLS_PROFIT_AMT_GLOBAL3 SLS_PROFIT_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKDN_AMT SLS_MANUAL_MKDN_AMT,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKDN_AMT_GLOBAL1 SLS_MANUAL_MKDN_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKDN_AMT_GLOBAL2 SLS_MANUAL_MKDN_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKDN_AMT_GLOBAL3 SLS_MANUAL_MKDN_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKUP_AMT SLS_MANUAL_MKUP_AMT,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKUP_AMT_GLOBAL1 SLS_MANUAL_MKUP_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKUP_AMT_GLOBAL2 SLS_MANUAL_MKUP_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKUP_AMT_GLOBAL3 SLS_MANUAL_MKUP_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.SLS_TAX_AMT SLS_TAX_AMT,
+ W_RTL_SLS_IT_DY_TMP.SLS_TAX_AMT_GLOBAL1 SLS_TAX_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.SLS_TAX_AMT_GLOBAL2 SLS_TAX_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.SLS_TAX_AMT_GLOBAL3 SLS_TAX_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.SLS_EMP_DISC_AMT SLS_EMP_DISC_AMT,
+ W_RTL_SLS_IT_DY_TMP.SLS_EMP_DISC_AMT_GLOBAL1 SLS_EMP_DISC_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.SLS_EMP_DISC_AMT_GLOBAL2 SLS_EMP_DISC_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.SLS_EMP_DISC_AMT_GLOBAL3 SLS_EMP_DISC_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.RET_AMT RET_AMT,
+ W_RTL_SLS_IT_DY_TMP.RET_AMT_GLOBAL1 RET_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.RET_AMT_GLOBAL2 RET_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.RET_AMT_GLOBAL3 RET_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.RET_PROFIT_AMT RET_PROFIT_AMT,
+ W_RTL_SLS_IT_DY_TMP.RET_PROFIT_AMT_GLOBAL1 RET_PROFIT_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.RET_PROFIT_AMT_GLOBAL2 RET_PROFIT_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.RET_PROFIT_AMT_GLOBAL3 RET_PROFIT_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKDN_AMT RET_MANUAL_MKDN_AMT,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKDN_AMT_GLOBAL1 RET_MANUAL_MKDN_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKDN_AMT_GLOBAL2 RET_MANUAL_MKDN_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKDN_AMT_GLOBAL3 RET_MANUAL_MKDN_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKUP_AMT RET_MANUAL_MKUP_AMT,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKUP_AMT_GLOBAL1 RET_MANUAL_MKUP_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKUP_AMT_GLOBAL2 RET_MANUAL_MKUP_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKUP_AMT_GLOBAL3 RET_MANUAL_MKUP_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.RET_TAX_AMT RET_TAX_AMT,
+ W_RTL_SLS_IT_DY_TMP.RET_TAX_AMT_GLOBAL1 RET_TAX_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.RET_TAX_AMT_GLOBAL2 RET_TAX_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.RET_TAX_AMT_GLOBAL3 RET_TAX_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.RET_EMP_DISC_AMT RET_EMP_DISC_AMT,
+ W_RTL_SLS_IT_DY_TMP.RET_EMP_DISC_AMT_GLOBAL1 RET_EMP_DISC_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.RET_EMP_DISC_AMT_GLOBAL2 RET_EMP_DISC_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.RET_EMP_DISC_AMT_GLOBAL3 RET_EMP_DISC_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_COUNT SLS_MANUAL_COUNT,
+ W_RTL_SLS_IT_DY_TMP.SLS_SCAN_COUNT SLS_SCAN_COUNT,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_COUNT RET_MANUAL_COUNT,
+ W_RTL_SLS_IT_DY_TMP.RET_SCAN_COUNT RET_SCAN_COUNT
+  From RABATCHER.W_RTL_SLS_IT_DY_TMP   W_RTL_SLS_IT_DY_TMP
+        Where (1=1)
+ Group By W_RTL_SLS_IT_DY_TMP.PROD_IT_WID,
+ W_RTL_SLS_IT_DY_TMP.PROD_SCD1_WID,
+ W_RTL_SLS_IT_DY_TMP.DT_WID,
+ W_RTL_SLS_IT_DY_TMP.RTL_TYPE_WID,
+ W_RTL_SLS_IT_DY_TMP.VOUCHER_FLG,
+ W_RTL_SLS_IT_DY_TMP.SLS_QTY,
+ W_RTL_SLS_IT_DY_TMP.SLS_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.SLS_PROFIT_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.SLS_TAX_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.SLS_EMP_DISC_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.RET_QTY,
+ W_RTL_SLS_IT_DY_TMP.RET_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.RET_PROFIT_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.RET_TAX_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.RET_EMP_DISC_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKDN_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKUP_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKDN_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKUP_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.SLS_AMT,
+ W_RTL_SLS_IT_DY_TMP.SLS_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.SLS_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.SLS_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.SLS_PROFIT_AMT,
+ W_RTL_SLS_IT_DY_TMP.SLS_PROFIT_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.SLS_PROFIT_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.SLS_PROFIT_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKDN_AMT,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKDN_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKDN_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKDN_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKUP_AMT,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKUP_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKUP_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_MKUP_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.SLS_TAX_AMT,
+ W_RTL_SLS_IT_DY_TMP.SLS_TAX_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.SLS_TAX_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.SLS_TAX_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.SLS_EMP_DISC_AMT,
+ W_RTL_SLS_IT_DY_TMP.SLS_EMP_DISC_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.SLS_EMP_DISC_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.SLS_EMP_DISC_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.RET_AMT,
+ W_RTL_SLS_IT_DY_TMP.RET_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.RET_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.RET_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.RET_PROFIT_AMT,
+ W_RTL_SLS_IT_DY_TMP.RET_PROFIT_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.RET_PROFIT_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.RET_PROFIT_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKDN_AMT,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKDN_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKDN_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKDN_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKUP_AMT,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKUP_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKUP_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_MKUP_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.RET_TAX_AMT,
+ W_RTL_SLS_IT_DY_TMP.RET_TAX_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.RET_TAX_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.RET_TAX_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.RET_EMP_DISC_AMT,
+ W_RTL_SLS_IT_DY_TMP.RET_EMP_DISC_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.RET_EMP_DISC_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.RET_EMP_DISC_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.SLS_MANUAL_COUNT,
+ W_RTL_SLS_IT_DY_TMP.SLS_SCAN_COUNT,
+ W_RTL_SLS_IT_DY_TMP.RET_MANUAL_COUNT,
+ W_RTL_SLS_IT_DY_TMP.RET_SCAN_COUNT,
+ W_RTL_SLS_IT_DY_TMP.DATASOURCE_NUM_ID,
+ W_RTL_SLS_IT_DY_TMP.DELETE_FLG,
+ W_RTL_SLS_IT_DY_TMP.PROD_IT_NUM||'~'||W_RTL_SLS_IT_DY_TMP.DAY_DT||'~'||W_RTL_SLS_IT_DY_TMP.RTL_TYPE_CODE||'~'||W_RTL_SLS_IT_DY_TMP.VOUCHER_FLG,
+ W_RTL_SLS_IT_DY_TMP.TENANT_ID,
+ W_RTL_SLS_IT_DY_TMP.X_CUSTOM,
+ W_RTL_SLS_IT_DY_TMP.BBG_RETAIL_TYPE_WID,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_DO1,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_DO2,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_DO3,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_DO4,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_DO5,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO1,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO2,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO3,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO4,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO5,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO6,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO7,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO8,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO9,
+ W_RTL_SLS_IT_DY_TMP.BBG_REFERENCE_FO10,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_QTY,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_PROFIT_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_TAX_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_EMP_DISC_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_QTY,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_PROFIT_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_TAX_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_EMP_DISC_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_MANUAL_MKDN_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_MANUAL_MKUP_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_MANUAL_MKDN_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_MANUAL_MKUP_AMT_LCL,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_PROFIT_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_PROFIT_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_PROFIT_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_PROFIT_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_MANUAL_MKDN_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_MANUAL_MKUP_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_TAX_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_TAX_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_TAX_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_TAX_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_EMP_DISC_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_EMP_DISC_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_EMP_DISC_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_EMP_DISC_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_PROFIT_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_PROFIT_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_PROFIT_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_PROFIT_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_MANUAL_MKDN_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_MANUAL_MKUP_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_TAX_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_TAX_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_TAX_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_TAX_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_EMP_DISC_AMT,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_EMP_DISC_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_EMP_DISC_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_EMP_DISC_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_MANUAL_COUNT,
+ W_RTL_SLS_IT_DY_TMP.VIP_SLS_SCAN_COUNT,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_MANUAL_COUNT,
+ W_RTL_SLS_IT_DY_TMP.VIP_RET_SCAN_COUNT,
+ W_RTL_SLS_IT_DY_TMP.V_SLS_MANUAL_MKDN_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.V_SLS_MANUAL_MKDN_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.V_SLS_MANUAL_MKDN_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.V_SLS_MANUAL_MKUP_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.V_SLS_MANUAL_MKUP_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.V_SLS_MANUAL_MKUP_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.V_RET_MANUAL_MKDN_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.V_RET_MANUAL_MKDN_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.V_RET_MANUAL_MKDN_AMT_GLOBAL3,
+ W_RTL_SLS_IT_DY_TMP.V_RET_MANUAL_MKUP_AMT_GLOBAL1,
+ W_RTL_SLS_IT_DY_TMP.V_RET_MANUAL_MKUP_AMT_GLOBAL2,
+ W_RTL_SLS_IT_DY_TMP.V_RET_MANUAL_MKUP_AMT_GLOBAL3
+  ) S
+ on (
+   T.PROD_WID=S.PROD_WID
+ and  T.PROD_SCD1_WID=S.PROD_SCD1_WID
+ and  T.DT_WID=S.DT_WID
+ and  T.RTL_TYPE_WID=S.RTL_TYPE_WID
+ and  T.VOUCHER_FLG=S.VOUCHER_FLG
+ and  T.ETL_PROC_WID=S.ETL_PROC_WID
+ and  T.BBG_RETAIL_TYPE_WID=S.BBG_RETAIL_TYPE_WID
+  )
+ when matched
+ then update set
+  T.DATASOURCE_NUM_ID = S.DATASOURCE_NUM_ID,
+ T.DELETE_FLG = S.DELETE_FLG,
+ T.INTEGRATION_ID = S.INTEGRATION_ID,
+ T.TENANT_ID = S.TENANT_ID,
+ T.W_INSERT_DT = S.W_INSERT_DT,
+ T.W_UPDATE_DT = S.W_UPDATE_DT,
+ T.X_CUSTOM = S.X_CUSTOM,
+ T.BBG_CUSTOMER_COUNT = S.BBG_CUSTOMER_COUNT,
+ T.BBG_SERVICE_SATISFACTION = S.BBG_SERVICE_SATISFACTION,
+ T.BBG_REFERENCE_DO1 = S.BBG_REFERENCE_DO1,
+ T.BBG_REFERENCE_DO2 = S.BBG_REFERENCE_DO2,
+ T.BBG_REFERENCE_DO3 = S.BBG_REFERENCE_DO3,
+ T.BBG_REFERENCE_DO4 = S.BBG_REFERENCE_DO4,
+ T.BBG_REFERENCE_DO5 = S.BBG_REFERENCE_DO5,
+ T.BBG_REFERENCE_FO1 = S.BBG_REFERENCE_FO1,
+ T.BBG_REFERENCE_FO2 = S.BBG_REFERENCE_FO2,
+ T.BBG_REFERENCE_FO3 = S.BBG_REFERENCE_FO3,
+ T.BBG_REFERENCE_FO4 = S.BBG_REFERENCE_FO4,
+ T.BBG_REFERENCE_FO5 = S.BBG_REFERENCE_FO5,
+ T.BBG_REFERENCE_FO6 = S.BBG_REFERENCE_FO6,
+ T.BBG_REFERENCE_FO7 = S.BBG_REFERENCE_FO7,
+ T.BBG_REFERENCE_FO8 = S.BBG_REFERENCE_FO8,
+ T.BBG_REFERENCE_FO9 = S.BBG_REFERENCE_FO9,
+ T.BBG_REFERENCE_FO10 = S.BBG_REFERENCE_FO10,
+ T.VIP_SLS_QTY = S.VIP_SLS_QTY,
+ T.VIP_SLS_AMT_LCL = S.VIP_SLS_AMT_LCL,
+ T.VIP_SLS_PROFIT_AMT_LCL = S.VIP_SLS_PROFIT_AMT_LCL,
+ T.VIP_SLS_TAX_AMT_LCL = S.VIP_SLS_TAX_AMT_LCL,
+ T.VIP_SLS_EMP_DISC_AMT_LCL = S.VIP_SLS_EMP_DISC_AMT_LCL,
+ T.VIP_RET_QTY = S.VIP_RET_QTY,
+ T.VIP_RET_AMT_LCL = S.VIP_RET_AMT_LCL,
+ T.VIP_RET_PROFIT_AMT_LCL = S.VIP_RET_PROFIT_AMT_LCL,
+ T.VIP_RET_TAX_AMT_LCL = S.VIP_RET_TAX_AMT_LCL,
+ T.VIP_RET_EMP_DISC_AMT_LCL = S.VIP_RET_EMP_DISC_AMT_LCL,
+ T.VIP_SLS_MANUAL_MKDN_AMT_LCL = S.VIP_SLS_MANUAL_MKDN_AMT_LCL,
+ T.VIP_SLS_MANUAL_MKUP_AMT_LCL = S.VIP_SLS_MANUAL_MKUP_AMT_LCL,
+ T.VIP_RET_MANUAL_MKDN_AMT_LCL = S.VIP_RET_MANUAL_MKDN_AMT_LCL,
+ T.VIP_RET_MANUAL_MKUP_AMT_LCL = S.VIP_RET_MANUAL_MKUP_AMT_LCL,
+ T.VIP_SLS_AMT = S.VIP_SLS_AMT,
+ T.VIP_SLS_AMT_GLOBAL1 = S.VIP_SLS_AMT_GLOBAL1,
+ T.VIP_SLS_AMT_GLOBAL2 = S.VIP_SLS_AMT_GLOBAL2,
+ T.VIP_SLS_AMT_GLOBAL3 = S.VIP_SLS_AMT_GLOBAL3,
+ T.VIP_SLS_PROFIT_AMT = S.VIP_SLS_PROFIT_AMT,
+ T.VIP_SLS_PROFIT_AMT_GLOBAL1 = S.VIP_SLS_PROFIT_AMT_GLOBAL1,
+ T.VIP_SLS_PROFIT_AMT_GLOBAL2 = S.VIP_SLS_PROFIT_AMT_GLOBAL2,
+ T.VIP_SLS_PROFIT_AMT_GLOBAL3 = S.VIP_SLS_PROFIT_AMT_GLOBAL3,
+ T.VIP_SLS_MANUAL_MKDN_AMT = S.VIP_SLS_MANUAL_MKDN_AMT,
+ T.VIP_SLS_MANUAL_MKUP_AMT = S.VIP_SLS_MANUAL_MKUP_AMT,
+ T.VIP_SLS_TAX_AMT = S.VIP_SLS_TAX_AMT,
+ T.VIP_SLS_TAX_AMT_GLOBAL1 = S.VIP_SLS_TAX_AMT_GLOBAL1,
+ T.VIP_SLS_TAX_AMT_GLOBAL2 = S.VIP_SLS_TAX_AMT_GLOBAL2,
+ T.VIP_SLS_TAX_AMT_GLOBAL3 = S.VIP_SLS_TAX_AMT_GLOBAL3,
+ T.VIP_SLS_EMP_DISC_AMT = S.VIP_SLS_EMP_DISC_AMT,
+ T.VIP_SLS_EMP_DISC_AMT_GLOBAL1 = S.VIP_SLS_EMP_DISC_AMT_GLOBAL1,
+ T.VIP_SLS_EMP_DISC_AMT_GLOBAL2 = S.VIP_SLS_EMP_DISC_AMT_GLOBAL2,
+ T.VIP_SLS_EMP_DISC_AMT_GLOBAL3 = S.VIP_SLS_EMP_DISC_AMT_GLOBAL3,
+ T.VIP_RET_AMT = S.VIP_RET_AMT,
+ T.VIP_RET_AMT_GLOBAL1 = S.VIP_RET_AMT_GLOBAL1,
+ T.VIP_RET_AMT_GLOBAL2 = S.VIP_RET_AMT_GLOBAL2,
+ T.VIP_RET_AMT_GLOBAL3 = S.VIP_RET_AMT_GLOBAL3,
+ T.VIP_RET_PROFIT_AMT = S.VIP_RET_PROFIT_AMT,
+ T.VIP_RET_PROFIT_AMT_GLOBAL1 = S.VIP_RET_PROFIT_AMT_GLOBAL1,
+ T.VIP_RET_PROFIT_AMT_GLOBAL2 = S.VIP_RET_PROFIT_AMT_GLOBAL2,
+ T.VIP_RET_PROFIT_AMT_GLOBAL3 = S.VIP_RET_PROFIT_AMT_GLOBAL3,
+ T.VIP_RET_MANUAL_MKDN_AMT = S.VIP_RET_MANUAL_MKDN_AMT,
+ T.VIP_RET_MANUAL_MKUP_AMT = S.VIP_RET_MANUAL_MKUP_AMT,
+ T.VIP_RET_TAX_AMT = S.VIP_RET_TAX_AMT,
+ T.VIP_RET_TAX_AMT_GLOBAL1 = S.VIP_RET_TAX_AMT_GLOBAL1,
+ T.VIP_RET_TAX_AMT_GLOBAL2 = S.VIP_RET_TAX_AMT_GLOBAL2,
+ T.VIP_RET_TAX_AMT_GLOBAL3 = S.VIP_RET_TAX_AMT_GLOBAL3,
+ T.VIP_RET_EMP_DISC_AMT = S.VIP_RET_EMP_DISC_AMT,
+ T.VIP_RET_EMP_DISC_AMT_GLOBAL1 = S.VIP_RET_EMP_DISC_AMT_GLOBAL1,
+ T.VIP_RET_EMP_DISC_AMT_GLOBAL2 = S.VIP_RET_EMP_DISC_AMT_GLOBAL2,
+ T.VIP_RET_EMP_DISC_AMT_GLOBAL3 = S.VIP_RET_EMP_DISC_AMT_GLOBAL3,
+ T.VIP_SLS_MANUAL_COUNT = S.VIP_SLS_MANUAL_COUNT,
+ T.VIP_SLS_SCAN_COUNT = S.VIP_SLS_SCAN_COUNT,
+ T.VIP_RET_MANUAL_COUNT = S.VIP_RET_MANUAL_COUNT,
+ T.VIP_RET_SCAN_COUNT = S.VIP_RET_SCAN_COUNT,
+ T.V_SLS_MANUAL_MKDN_AMT_GLOBAL1 = S.V_SLS_MANUAL_MKDN_AMT_GLOBAL1,
+ T.V_SLS_MANUAL_MKDN_AMT_GLOBAL2 = S.V_SLS_MANUAL_MKDN_AMT_GLOBAL2,
+ T.V_SLS_MANUAL_MKDN_AMT_GLOBAL3 = S.V_SLS_MANUAL_MKDN_AMT_GLOBAL3,
+ T.V_SLS_MANUAL_MKUP_AMT_GLOBAL1 = S.V_SLS_MANUAL_MKUP_AMT_GLOBAL1,
+ T.V_SLS_MANUAL_MKUP_AMT_GLOBAL2 = S.V_SLS_MANUAL_MKUP_AMT_GLOBAL2,
+ T.V_SLS_MANUAL_MKUP_AMT_GLOBAL3 = S.V_SLS_MANUAL_MKUP_AMT_GLOBAL3,
+ T.V_RET_MANUAL_MKDN_AMT_GLOBAL1 = S.V_RET_MANUAL_MKDN_AMT_GLOBAL1,
+ T.V_RET_MANUAL_MKDN_AMT_GLOBAL2 = S.V_RET_MANUAL_MKDN_AMT_GLOBAL2,
+ T.V_RET_MANUAL_MKDN_AMT_GLOBAL3 = S.V_RET_MANUAL_MKDN_AMT_GLOBAL3,
+ T.V_RET_MANUAL_MKUP_AMT_GLOBAL1 = S.V_RET_MANUAL_MKUP_AMT_GLOBAL1,
+ T.V_RET_MANUAL_MKUP_AMT_GLOBAL2 = S.V_RET_MANUAL_MKUP_AMT_GLOBAL2,
+ T.V_RET_MANUAL_MKUP_AMT_GLOBAL3 = S.V_RET_MANUAL_MKUP_AMT_GLOBAL3
+  ,T.SLS_QTY = S.SLS_QTY + T.SLS_QTY,
+ T.SLS_AMT_LCL = S.SLS_AMT_LCL + T.SLS_AMT_LCL,
+ T.SLS_PROFIT_AMT_LCL = S.SLS_PROFIT_AMT_LCL + T.SLS_PROFIT_AMT_LCL,
+ T.SLS_TAX_AMT_LCL = S.SLS_TAX_AMT_LCL + T.SLS_TAX_AMT_LCL,
+ T.SLS_EMP_DISC_AMT_LCL = S.SLS_EMP_DISC_AMT_LCL + T.SLS_EMP_DISC_AMT_LCL,
+ T.RET_QTY = S.RET_QTY + T.RET_QTY,
+ T.RET_AMT_LCL = S.RET_AMT_LCL + T.RET_AMT_LCL,
+ T.RET_PROFIT_AMT_LCL = S.RET_PROFIT_AMT_LCL + T.RET_PROFIT_AMT_LCL,
+ T.RET_TAX_AMT_LCL = S.RET_TAX_AMT_LCL + T.RET_TAX_AMT_LCL,
+ T.RET_EMP_DISC_AMT_LCL = S.RET_EMP_DISC_AMT_LCL + T.RET_EMP_DISC_AMT_LCL,
+ T.SLS_MANUAL_MKDN_AMT_LCL = S.SLS_MANUAL_MKDN_AMT_LCL + T.SLS_MANUAL_MKDN_AMT_LCL,
+ T.SLS_MANUAL_MKUP_AMT_LCL = S.SLS_MANUAL_MKUP_AMT_LCL + T.SLS_MANUAL_MKUP_AMT_LCL,
+ T.RET_MANUAL_MKDN_AMT_LCL = S.RET_MANUAL_MKDN_AMT_LCL + T.RET_MANUAL_MKDN_AMT_LCL,
+ T.RET_MANUAL_MKUP_AMT_LCL = S.RET_MANUAL_MKUP_AMT_LCL + T.RET_MANUAL_MKUP_AMT_LCL,
+ T.SLS_AMT = S.SLS_AMT + T.SLS_AMT,
+ T.SLS_AMT_GLOBAL1 = S.SLS_AMT_GLOBAL1 + T.SLS_AMT_GLOBAL1,
+ T.SLS_AMT_GLOBAL2 = S.SLS_AMT_GLOBAL2 + T.SLS_AMT_GLOBAL2,
+ T.SLS_AMT_GLOBAL3 = S.SLS_AMT_GLOBAL3 + T.SLS_AMT_GLOBAL3,
+ T.SLS_PROFIT_AMT = S.SLS_PROFIT_AMT + T.SLS_PROFIT_AMT,
+ T.SLS_PROFIT_AMT_GLOBAL1 = S.SLS_PROFIT_AMT_GLOBAL1 + T.SLS_PROFIT_AMT_GLOBAL1,
+ T.SLS_PROFIT_AMT_GLOBAL2 = S.SLS_PROFIT_AMT_GLOBAL2 + T.SLS_PROFIT_AMT_GLOBAL2,
+ T.SLS_PROFIT_AMT_GLOBAL3 = S.SLS_PROFIT_AMT_GLOBAL3 + T.SLS_PROFIT_AMT_GLOBAL3,
+ T.SLS_MANUAL_MKDN_AMT = S.SLS_MANUAL_MKDN_AMT + T.SLS_MANUAL_MKDN_AMT,
+ T.SLS_MANUAL_MKDN_AMT_GLOBAL1 = S.SLS_MANUAL_MKDN_AMT_GLOBAL1 + T.SLS_MANUAL_MKDN_AMT_GLOBAL1,
+ T.SLS_MANUAL_MKDN_AMT_GLOBAL2 = S.SLS_MANUAL_MKDN_AMT_GLOBAL2 + T.SLS_MANUAL_MKDN_AMT_GLOBAL2,
+ T.SLS_MANUAL_MKDN_AMT_GLOBAL3 = S.SLS_MANUAL_MKDN_AMT_GLOBAL3 + T.SLS_MANUAL_MKDN_AMT_GLOBAL3,
+ T.SLS_MANUAL_MKUP_AMT = S.SLS_MANUAL_MKUP_AMT + T.SLS_MANUAL_MKUP_AMT,
+ T.SLS_MANUAL_MKUP_AMT_GLOBAL1 = S.SLS_MANUAL_MKUP_AMT_GLOBAL1 + T.SLS_MANUAL_MKUP_AMT_GLOBAL1,
+ T.SLS_MANUAL_MKUP_AMT_GLOBAL2 = S.SLS_MANUAL_MKUP_AMT_GLOBAL2 + T.SLS_MANUAL_MKUP_AMT_GLOBAL2,
+ T.SLS_MANUAL_MKUP_AMT_GLOBAL3 = S.SLS_MANUAL_MKUP_AMT_GLOBAL3 + T.SLS_MANUAL_MKUP_AMT_GLOBAL3,
+ T.SLS_TAX_AMT = S.SLS_TAX_AMT + T.SLS_TAX_AMT,
+ T.SLS_TAX_AMT_GLOBAL1 = S.SLS_TAX_AMT_GLOBAL1 + T.SLS_TAX_AMT_GLOBAL1,
+ T.SLS_TAX_AMT_GLOBAL2 = S.SLS_TAX_AMT_GLOBAL2 + T.SLS_TAX_AMT_GLOBAL2,
+ T.SLS_TAX_AMT_GLOBAL3 = S.SLS_TAX_AMT_GLOBAL3 + T.SLS_TAX_AMT_GLOBAL3,
+ T.SLS_EMP_DISC_AMT = S.SLS_EMP_DISC_AMT + T.SLS_EMP_DISC_AMT,
+ T.SLS_EMP_DISC_AMT_GLOBAL1 = S.SLS_EMP_DISC_AMT_GLOBAL1 + T.SLS_EMP_DISC_AMT_GLOBAL1,
+ T.SLS_EMP_DISC_AMT_GLOBAL2 = S.SLS_EMP_DISC_AMT_GLOBAL2 + T.SLS_EMP_DISC_AMT_GLOBAL2,
+ T.SLS_EMP_DISC_AMT_GLOBAL3 = S.SLS_EMP_DISC_AMT_GLOBAL3 + T.SLS_EMP_DISC_AMT_GLOBAL3,
+ T.RET_AMT = S.RET_AMT + T.RET_AMT,
+ T.RET_AMT_GLOBAL1 = S.RET_AMT_GLOBAL1 + T.RET_AMT_GLOBAL1,
+ T.RET_AMT_GLOBAL2 = S.RET_AMT_GLOBAL2 + T.RET_AMT_GLOBAL2,
+ T.RET_AMT_GLOBAL3 = S.RET_AMT_GLOBAL3 + T.RET_AMT_GLOBAL3,
+ T.RET_PROFIT_AMT = S.RET_PROFIT_AMT + T.RET_PROFIT_AMT,
+ T.RET_PROFIT_AMT_GLOBAL1 = S.RET_PROFIT_AMT_GLOBAL1 + T.RET_PROFIT_AMT_GLOBAL1,
+ T.RET_PROFIT_AMT_GLOBAL2 = S.RET_PROFIT_AMT_GLOBAL2 + T.RET_PROFIT_AMT_GLOBAL2,
+ T.RET_PROFIT_AMT_GLOBAL3 = S.RET_PROFIT_AMT_GLOBAL3 + T.RET_PROFIT_AMT_GLOBAL3,
+ T.RET_MANUAL_MKDN_AMT = S.RET_MANUAL_MKDN_AMT + T.RET_MANUAL_MKDN_AMT,
+ T.RET_MANUAL_MKDN_AMT_GLOBAL1 = S.RET_MANUAL_MKDN_AMT_GLOBAL1 + T.RET_MANUAL_MKDN_AMT_GLOBAL1,
+ T.RET_MANUAL_MKDN_AMT_GLOBAL2 = S.RET_MANUAL_MKDN_AMT_GLOBAL2 + T.RET_MANUAL_MKDN_AMT_GLOBAL2,
+ T.RET_MANUAL_MKDN_AMT_GLOBAL3 = S.RET_MANUAL_MKDN_AMT_GLOBAL3 + T.RET_MANUAL_MKDN_AMT_GLOBAL3,
+ T.RET_MANUAL_MKUP_AMT = S.RET_MANUAL_MKUP_AMT + T.RET_MANUAL_MKUP_AMT,
+ T.RET_MANUAL_MKUP_AMT_GLOBAL1 = S.RET_MANUAL_MKUP_AMT_GLOBAL1 + T.RET_MANUAL_MKUP_AMT_GLOBAL1,
+ T.RET_MANUAL_MKUP_AMT_GLOBAL2 = S.RET_MANUAL_MKUP_AMT_GLOBAL2 + T.RET_MANUAL_MKUP_AMT_GLOBAL2,
+ T.RET_MANUAL_MKUP_AMT_GLOBAL3 = S.RET_MANUAL_MKUP_AMT_GLOBAL3 + T.RET_MANUAL_MKUP_AMT_GLOBAL3,
+ T.RET_TAX_AMT = S.RET_TAX_AMT + T.RET_TAX_AMT,
+ T.RET_TAX_AMT_GLOBAL1 = S.RET_TAX_AMT_GLOBAL1 + T.RET_TAX_AMT_GLOBAL1,
+ T.RET_TAX_AMT_GLOBAL2 = S.RET_TAX_AMT_GLOBAL2 + T.RET_TAX_AMT_GLOBAL2,
+ T.RET_TAX_AMT_GLOBAL3 = S.RET_TAX_AMT_GLOBAL3 + T.RET_TAX_AMT_GLOBAL3,
+ T.RET_EMP_DISC_AMT = S.RET_EMP_DISC_AMT + T.RET_EMP_DISC_AMT,
+ T.RET_EMP_DISC_AMT_GLOBAL1 = S.RET_EMP_DISC_AMT_GLOBAL1 + T.RET_EMP_DISC_AMT_GLOBAL1,
+ T.RET_EMP_DISC_AMT_GLOBAL2 = S.RET_EMP_DISC_AMT_GLOBAL2 + T.RET_EMP_DISC_AMT_GLOBAL2,
+ T.RET_EMP_DISC_AMT_GLOBAL3 = S.RET_EMP_DISC_AMT_GLOBAL3 + T.RET_EMP_DISC_AMT_GLOBAL3,
+ T.SLS_MANUAL_COUNT = S.SLS_MANUAL_COUNT + T.SLS_MANUAL_COUNT,
+ T.SLS_SCAN_COUNT = S.SLS_SCAN_COUNT + T.SLS_SCAN_COUNT,
+ T.RET_MANUAL_COUNT = S.RET_MANUAL_COUNT + T.RET_MANUAL_COUNT,
+ T.RET_SCAN_COUNT = S.RET_SCAN_COUNT + T.RET_SCAN_COUNT
+ when not matched
+ then insert
+  (
+  T.ROW_WID
+                ,T.PROD_WID,
+ T.PROD_SCD1_WID,
+ T.DT_WID,
+ T.RTL_TYPE_WID,
+ T.VOUCHER_FLG,
+ T.SLS_QTY,
+ T.SLS_AMT_LCL,
+ T.SLS_PROFIT_AMT_LCL,
+ T.SLS_TAX_AMT_LCL,
+ T.SLS_EMP_DISC_AMT_LCL,
+ T.RET_QTY,
+ T.RET_AMT_LCL,
+ T.RET_PROFIT_AMT_LCL,
+ T.RET_TAX_AMT_LCL,
+ T.RET_EMP_DISC_AMT_LCL,
+ T.SLS_MANUAL_MKDN_AMT_LCL,
+ T.SLS_MANUAL_MKUP_AMT_LCL,
+ T.RET_MANUAL_MKDN_AMT_LCL,
+ T.RET_MANUAL_MKUP_AMT_LCL,
+ T.SLS_AMT,
+ T.SLS_AMT_GLOBAL1,
+ T.SLS_AMT_GLOBAL2,
+ T.SLS_AMT_GLOBAL3,
+ T.SLS_PROFIT_AMT,
+ T.SLS_PROFIT_AMT_GLOBAL1,
+ T.SLS_PROFIT_AMT_GLOBAL2,
+ T.SLS_PROFIT_AMT_GLOBAL3,
+ T.SLS_MANUAL_MKDN_AMT,
+ T.SLS_MANUAL_MKDN_AMT_GLOBAL1,
+ T.SLS_MANUAL_MKDN_AMT_GLOBAL2,
+ T.SLS_MANUAL_MKDN_AMT_GLOBAL3,
+ T.SLS_MANUAL_MKUP_AMT,
+ T.SLS_MANUAL_MKUP_AMT_GLOBAL1,
+ T.SLS_MANUAL_MKUP_AMT_GLOBAL2,
+ T.SLS_MANUAL_MKUP_AMT_GLOBAL3,
+ T.SLS_TAX_AMT,
+ T.SLS_TAX_AMT_GLOBAL1,
+ T.SLS_TAX_AMT_GLOBAL2,
+ T.SLS_TAX_AMT_GLOBAL3,
+ T.SLS_EMP_DISC_AMT,
+ T.SLS_EMP_DISC_AMT_GLOBAL1,
+ T.SLS_EMP_DISC_AMT_GLOBAL2,
+ T.SLS_EMP_DISC_AMT_GLOBAL3,
+ T.RET_AMT,
+ T.RET_AMT_GLOBAL1,
+ T.RET_AMT_GLOBAL2,
+ T.RET_AMT_GLOBAL3,
+ T.RET_PROFIT_AMT,
+ T.RET_PROFIT_AMT_GLOBAL1,
+ T.RET_PROFIT_AMT_GLOBAL2,
+ T.RET_PROFIT_AMT_GLOBAL3,
+ T.RET_MANUAL_MKDN_AMT,
+ T.RET_MANUAL_MKDN_AMT_GLOBAL1,
+ T.RET_MANUAL_MKDN_AMT_GLOBAL2,
+ T.RET_MANUAL_MKDN_AMT_GLOBAL3,
+ T.RET_MANUAL_MKUP_AMT,
+ T.RET_MANUAL_MKUP_AMT_GLOBAL1,
+ T.RET_MANUAL_MKUP_AMT_GLOBAL2,
+ T.RET_MANUAL_MKUP_AMT_GLOBAL3,
+ T.RET_TAX_AMT,
+ T.RET_TAX_AMT_GLOBAL1,
+ T.RET_TAX_AMT_GLOBAL2,
+ T.RET_TAX_AMT_GLOBAL3,
+ T.RET_EMP_DISC_AMT,
+ T.RET_EMP_DISC_AMT_GLOBAL1,
+ T.RET_EMP_DISC_AMT_GLOBAL2,
+ T.RET_EMP_DISC_AMT_GLOBAL3,
+ T.SLS_MANUAL_COUNT,
+ T.SLS_SCAN_COUNT,
+ T.RET_MANUAL_COUNT,
+ T.RET_SCAN_COUNT,
+ T.DATASOURCE_NUM_ID,
+ T.DELETE_FLG,
+ T.ETL_PROC_WID,
+ T.INTEGRATION_ID,
+ T.TENANT_ID,
+ T.W_INSERT_DT,
+ T.W_UPDATE_DT,
+ T.X_CUSTOM,
+ T.BBG_RETAIL_TYPE_WID,
+ T.BBG_CUSTOMER_COUNT,
+ T.BBG_SERVICE_SATISFACTION,
+ T.BBG_REFERENCE_DO1,
+ T.BBG_REFERENCE_DO2,
+ T.BBG_REFERENCE_DO3,
+ T.BBG_REFERENCE_DO4,
+ T.BBG_REFERENCE_DO5,
+ T.BBG_REFERENCE_FO1,
+ T.BBG_REFERENCE_FO2,
+ T.BBG_REFERENCE_FO3,
+ T.BBG_REFERENCE_FO4,
+ T.BBG_REFERENCE_FO5,
+ T.BBG_REFERENCE_FO6,
+ T.BBG_REFERENCE_FO7,
+ T.BBG_REFERENCE_FO8,
+ T.BBG_REFERENCE_FO9,
+ T.BBG_REFERENCE_FO10,
+ T.VIP_SLS_QTY,
+ T.VIP_SLS_AMT_LCL,
+ T.VIP_SLS_PROFIT_AMT_LCL,
+ T.VIP_SLS_TAX_AMT_LCL,
+ T.VIP_SLS_EMP_DISC_AMT_LCL,
+ T.VIP_RET_QTY,
+ T.VIP_RET_AMT_LCL,
+ T.VIP_RET_PROFIT_AMT_LCL,
+ T.VIP_RET_TAX_AMT_LCL,
+ T.VIP_RET_EMP_DISC_AMT_LCL,
+ T.VIP_SLS_MANUAL_MKDN_AMT_LCL,
+ T.VIP_SLS_MANUAL_MKUP_AMT_LCL,
+ T.VIP_RET_MANUAL_MKDN_AMT_LCL,
+ T.VIP_RET_MANUAL_MKUP_AMT_LCL,
+ T.VIP_SLS_AMT,
+ T.VIP_SLS_AMT_GLOBAL1,
+ T.VIP_SLS_AMT_GLOBAL2,
+ T.VIP_SLS_AMT_GLOBAL3,
+ T.VIP_SLS_PROFIT_AMT,
+ T.VIP_SLS_PROFIT_AMT_GLOBAL1,
+ T.VIP_SLS_PROFIT_AMT_GLOBAL2,
+ T.VIP_SLS_PROFIT_AMT_GLOBAL3,
+ T.VIP_SLS_MANUAL_MKDN_AMT,
+ T.VIP_SLS_MANUAL_MKUP_AMT,
+ T.VIP_SLS_TAX_AMT,
+ T.VIP_SLS_TAX_AMT_GLOBAL1,
+ T.VIP_SLS_TAX_AMT_GLOBAL2,
+ T.VIP_SLS_TAX_AMT_GLOBAL3,
+ T.VIP_SLS_EMP_DISC_AMT,
+ T.VIP_SLS_EMP_DISC_AMT_GLOBAL1,
+ T.VIP_SLS_EMP_DISC_AMT_GLOBAL2,
+ T.VIP_SLS_EMP_DISC_AMT_GLOBAL3,
+ T.VIP_RET_AMT,
+ T.VIP_RET_AMT_GLOBAL1,
+ T.VIP_RET_AMT_GLOBAL2,
+ T.VIP_RET_AMT_GLOBAL3,
+ T.VIP_RET_PROFIT_AMT,
+ T.VIP_RET_PROFIT_AMT_GLOBAL1,
+ T.VIP_RET_PROFIT_AMT_GLOBAL2,
+ T.VIP_RET_PROFIT_AMT_GLOBAL3,
+ T.VIP_RET_MANUAL_MKDN_AMT,
+ T.VIP_RET_MANUAL_MKUP_AMT,
+ T.VIP_RET_TAX_AMT,
+ T.VIP_RET_TAX_AMT_GLOBAL1,
+ T.VIP_RET_TAX_AMT_GLOBAL2,
+ T.VIP_RET_TAX_AMT_GLOBAL3,
+ T.VIP_RET_EMP_DISC_AMT,
+ T.VIP_RET_EMP_DISC_AMT_GLOBAL1,
+ T.VIP_RET_EMP_DISC_AMT_GLOBAL2,
+ T.VIP_RET_EMP_DISC_AMT_GLOBAL3,
+ T.VIP_SLS_MANUAL_COUNT,
+ T.VIP_SLS_SCAN_COUNT,
+ T.VIP_RET_MANUAL_COUNT,
+ T.VIP_RET_SCAN_COUNT,
+ T.V_SLS_MANUAL_MKDN_AMT_GLOBAL1,
+ T.V_SLS_MANUAL_MKDN_AMT_GLOBAL2,
+ T.V_SLS_MANUAL_MKDN_AMT_GLOBAL3,
+ T.V_SLS_MANUAL_MKUP_AMT_GLOBAL1,
+ T.V_SLS_MANUAL_MKUP_AMT_GLOBAL2,
+ T.V_SLS_MANUAL_MKUP_AMT_GLOBAL3,
+ T.V_RET_MANUAL_MKDN_AMT_GLOBAL1,
+ T.V_RET_MANUAL_MKDN_AMT_GLOBAL2,
+ T.V_RET_MANUAL_MKDN_AMT_GLOBAL3,
+ T.V_RET_MANUAL_MKUP_AMT_GLOBAL1,
+ T.V_RET_MANUAL_MKUP_AMT_GLOBAL2,
+ T.V_RET_MANUAL_MKUP_AMT_GLOBAL3
+  )
+ values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MERGE /*+APPEND*/ INTO RADM.W_RTL_SLS_SC_LC_MN_A T
+USING (SELECT 
+        PROD_DH_WID,
+        ORG_WID,
+        MAX(ORG_SCD1_WID) ORG_SCD1_WID,
+        MAX(ORG_DH_WID) ORG_DH_WID,
+        SUBSTR(TO_CHAR(DT_WID), 2, 6) MN_WID,
+        RTL_TYPE_WID,
+        SUM(NVL(SLS_QTY, 0)) SLS_QTY,
+        SUM(NVL(SLS_AMT_LCL, 0)) SLS_AMT_LCL,
+        SUM(NVL(SLS_PROFIT_AMT_LCL, 0)) SLS_PROFIT_AMT_LCL,
+        SUM(NVL(SLS_MANUAL_MKDN_AMT_LCL, 0)) SLS_MANUAL_MKDN_AMT_LCL,
+        SUM(NVL(SLS_MANUAL_MKUP_AMT_LCL, 0)) SLS_MANUAL_MKUP_AMT_LCL,
+        SUM(NVL(SLS_TAX_AMT_LCL, 0)) SLS_TAX_AMT_LCL,
+        SUM(NVL(SLS_EMP_DISC_AMT_LCL, 0)) SLS_EMP_DISC_AMT_LCL,
+        SUM(NVL(SLS_MANUAL_COUNT, 0)) SLS_MANUAL_COUNT,
+        SUM(NVL(SLS_SCAN_COUNT, 0)) SLS_SCAN_COUNT,
+        SUM(NVL(RET_QTY, 0)) RET_QTY,
+        SUM(NVL(RET_AMT_LCL, 0)) RET_AMT_LCL,
+        SUM(NVL(RET_PROFIT_AMT_LCL, 0)) RET_PROFIT_AMT_LCL,
+        SUM(NVL(RET_MANUAL_MKDN_AMT_LCL, 0)) RET_MANUAL_MKDN_AMT_LCL,
+        SUM(NVL(RET_MANUAL_MKUP_AMT_LCL, 0)) RET_MANUAL_MKUP_AMT_LCL,
+        SUM(NVL(RET_TAX_AMT_LCL, 0)) RET_TAX_AMT_LCL,
+        SUM(NVL(RET_EMP_DISC_AMT_LCL, 0)) RET_EMP_DISC_AMT_LCL,
+        SUM(NVL(RET_MANUAL_COUNT, 0)) RET_MANUAL_COUNT,
+        SUM(NVL(RET_SCAN_COUNT, 0)) RET_SCAN_COUNT,
+        MAX(SUBSTR(INTEGRATION_ID, 1, INSTR(INTEGRATION_ID, '~', 1, 1)) ||
+            SUBSTR(INTEGRATION_ID,
+                   INSTR(INTEGRATION_ID, '~', 1, 1) + 1,
+                   INSTR(INTEGRATION_ID, '~', 1, 2) -
+                   INSTR(INTEGRATION_ID, '~', 1, 1)) ||
+            SUBSTR(TO_CHAR(DT_WID), 2, 6) ||
+            SUBSTR(INTEGRATION_ID,
+                   INSTR(INTEGRATION_ID, '~', 1, 3),
+                   LENGTH(INTEGRATION_ID) - INSTR(INTEGRATION_ID, '~', 1, 3) + 1)) INTEGRATION_ID,
+        MAX(GLOBAL1_EXCHANGE_RATE) GLOBAL1_EXCHANGE_RATE,
+        MAX(GLOBAL2_EXCHANGE_RATE) GLOBAL2_EXCHANGE_RATE,
+        MAX(GLOBAL3_EXCHANGE_RATE) GLOBAL3_EXCHANGE_RATE,
+        MAX(LOC_EXCHANGE_RATE) LOC_EXCHANGE_RATE,
+        BBG_RETAIL_TYPE_WID,
+        SUM(NVL(BBG_CUSTOMER_COUNT, 0)) BBG_CUSTOMER_COUNT,
+        SUM(NVL(BBG_SERVICE_SATISFACTION, 0)) BBG_SERVICE_SATISFACTION,
+        SYSDATE W_INSERT_DT,
+        SYSDATE W_UPDATE_DT,
+        MAX(BBG_REFERENCE_DO1) BBG_REFERENCE_DO1,
+        MAX(BBG_REFERENCE_DO2) BBG_REFERENCE_DO2,
+        MAX(BBG_REFERENCE_DO3) BBG_REFERENCE_DO3,
+        MAX(BBG_REFERENCE_DO4) BBG_REFERENCE_DO4,
+        MAX(BBG_REFERENCE_DO5) BBG_REFERENCE_DO5,
+        MAX(BBG_REFERENCE_FO1) BBG_REFERENCE_FO1,
+        MAX(BBG_REFERENCE_FO2) BBG_REFERENCE_FO2,
+        MAX(BBG_REFERENCE_FO3) BBG_REFERENCE_FO3,
+        MAX(BBG_REFERENCE_FO4) BBG_REFERENCE_FO4,
+        MAX(BBG_REFERENCE_FO5) BBG_REFERENCE_FO5,
+        MAX(BBG_REFERENCE_FO6) BBG_REFERENCE_FO6,
+        MAX(BBG_REFERENCE_FO7) BBG_REFERENCE_FO7,
+        MAX(BBG_REFERENCE_FO8) BBG_REFERENCE_FO8,
+        MAX(BBG_REFERENCE_FO9) BBG_REFERENCE_FO9,
+        MAX(BBG_REFERENCE_FO10) BBG_REFERENCE_FO10
+         FROM RADM.W_RTL_SLS_SC_LC_DY_A
+        WHERE DT_WID &gt;=
+              '1' || TO_CHAR(TRUNC(SYSDATE - 1, 'month'), 'YYYYMMDD') ||
+              '000'
+        GROUP BY PROD_DH_WID,
+                 ORG_WID,
+                 SUBSTR(TO_CHAR(DT_WID), 2, 6),
+                 RTL_TYPE_WID,
+                 BBG_RETAIL_TYPE_WID) S
+ON (T.PROD_DH_WID = S.PROD_DH_WID AND T.ORG_WID = S.ORG_WID AND T.MN_WID = S.MN_WID AND T.RTL_TYPE_WID = S.RTL_TYPE_WID AND T.BBG_RETAIL_TYPE_WID = S.BBG_RETAIL_TYPE_WID)
+WHEN MATCHED THEN
+  UPDATE
+     SET T.SLS_QTY                  = S.SLS_QTY,
+         T.SLS_AMT_LCL              = S.SLS_AMT_LCL,
+         T.SLS_PROFIT_AMT_LCL       = S.SLS_PROFIT_AMT_LCL,
+         T.SLS_MANUAL_MKDN_AMT_LCL  = S.SLS_MANUAL_MKDN_AMT_LCL,
+         T.SLS_MANUAL_MKUP_AMT_LCL  = S.SLS_MANUAL_MKUP_AMT_LCL,
+         T.SLS_TAX_AMT_LCL          = S.SLS_TAX_AMT_LCL,
+         T.SLS_EMP_DISC_AMT_LCL     = S.SLS_EMP_DISC_AMT_LCL,
+         T.SLS_MANUAL_COUNT         = S.SLS_MANUAL_COUNT,
+         T.SLS_SCAN_COUNT           = S.SLS_SCAN_COUNT,
+         T.RET_QTY                  = S.RET_QTY,
+         T.RET_AMT_LCL              = S.RET_AMT_LCL,
+         T.RET_PROFIT_AMT_LCL       = S.RET_PROFIT_AMT_LCL,
+         T.RET_MANUAL_MKDN_AMT_LCL  = S.RET_MANUAL_MKDN_AMT_LCL,
+         T.RET_MANUAL_MKUP_AMT_LCL  = S.RET_MANUAL_MKUP_AMT_LCL,
+         T.RET_TAX_AMT_LCL          = S.RET_TAX_AMT_LCL,
+         T.RET_EMP_DISC_AMT_LCL     = S.RET_EMP_DISC_AMT_LCL,
+         T.RET_MANUAL_COUNT         = S.RET_MANUAL_COUNT,
+         T.RET_SCAN_COUNT           = S.RET_SCAN_COUNT,
+         T.BBG_CUSTOMER_COUNT       = S.BBG_CUSTOMER_COUNT,
+         T.BBG_SERVICE_SATISFACTION = S.BBG_SERVICE_SATISFACTION,
+         T.W_UPDATE_DT              = S.W_UPDATE_DT,
+         T.BBG_REFERENCE_FO1        = S.BBG_REFERENCE_FO1,
+         T.BBG_REFERENCE_FO2        = S.BBG_REFERENCE_FO2,
+         T.BBG_REFERENCE_FO3        = S.BBG_REFERENCE_FO3,
+         T.BBG_REFERENCE_FO4        = S.BBG_REFERENCE_FO4,
+         T.BBG_REFERENCE_FO5        = S.BBG_REFERENCE_FO5,
+         T.BBG_REFERENCE_FO6        = S.BBG_REFERENCE_FO6,
+         T.BBG_REFERENCE_FO7        = S.BBG_REFERENCE_FO7,
+         T.BBG_REFERENCE_FO8        = S.BBG_REFERENCE_FO8,
+         T.BBG_REFERENCE_FO9        = S.BBG_REFERENCE_FO9,
+         T.BBG_REFERENCE_FO10       = S.BBG_REFERENCE_FO10
+WHEN NOT MATCHED THEN
+  INSERT
+    (T.PROD_DH_WID,
+     T.ORG_WID,
+     T.ORG_SCD1_WID,
+     T.ORG_DH_WID,
+     T.MN_WID,
+     T.RTL_TYPE_WID,
+     T.SLS_QTY,
+     T.SLS_AMT_LCL,
+     T.SLS_PROFIT_AMT_LCL,
+     T.SLS_MANUAL_MKDN_AMT_LCL,
+     T.SLS_MANUAL_MKUP_AMT_LCL,
+     T.SLS_TAX_AMT_LCL,
+     T.SLS_EMP_DISC_AMT_LCL,
+     T.SLS_MANUAL_COUNT,
+     T.SLS_SCAN_COUNT,
+     T.RET_QTY,
+     T.RET_AMT_LCL,
+     T.RET_PROFIT_AMT_LCL,
+     T.RET_MANUAL_MKDN_AMT_LCL,
+     T.RET_MANUAL_MKUP_AMT_LCL,
+     T.RET_TAX_AMT_LCL,
+     T.RET_EMP_DISC_AMT_LCL,
+     T.RET_MANUAL_COUNT,
+     T.RET_SCAN_COUNT,
+     T.INTEGRATION_ID,
+     T.GLOBAL1_EXCHANGE_RATE,
+     T.GLOBAL2_EXCHANGE_RATE,
+     T.GLOBAL3_EXCHANGE_RATE,
+     T.LOC_EXCHANGE_RATE,
+     T.BBG_RETAIL_TYPE_WID,
+     T.BBG_CUSTOMER_COUNT,
+     T.BBG_SERVICE_SATISFACTION,
+     T.W_INSERT_DT,
+     T.W_UPDATE_DT,
+     T.BBG_REFERENCE_DO1,
+     T.BBG_REFERENCE_DO2,
+     T.BBG_REFERENCE_DO3,
+     T.BBG_REFERENCE_DO4,
+     T.BBG_REFERENCE_DO5,
+     T.BBG_REFERENCE_FO1,
+     T.BBG_REFERENCE_FO2,
+     T.BBG_REFERENCE_FO3,
+     T.BBG_REFERENCE_FO4,
+     T.BBG_REFERENCE_FO5,
+     T.BBG_REFERENCE_FO6,
+     T.BBG_REFERENCE_FO7,
+     T.BBG_REFERENCE_FO8,
+     T.BBG_REFERENCE_FO9,
+     T.BBG_REFERENCE_FO10)
+  VALUES
+    (S.PROD_DH_WID,
+     S.ORG_WID,
+     S.ORG_SCD1_WID,
+     S.ORG_DH_WID,
+     S.MN_WID,
+     S.RTL_TYPE_WID,
+     S.SLS_QTY,
+     S.SLS_AMT_LCL,
+     S.SLS_PROFIT_AMT_LCL,
+     S.SLS_MANUAL_MKDN_AMT_LCL,
+     S.SLS_MANUAL_MKUP_AMT_LCL,
+     S.SLS_TAX_AMT_LCL,
+     S.SLS_EMP_DISC_AMT_LCL,
+     S.SLS_MANUAL_COUNT,
+     S.SLS_SCAN_COUNT,
+     S.RET_QTY,
+     S.RET_AMT_LCL,
+     S.RET_PROFIT_AMT_LCL,
+     S.RET_MANUAL_MKDN_AMT_LCL,
+     S.RET_MANUAL_MKUP_AMT_LCL,
+     S.RET_TAX_AMT_LCL,
+     S.RET_EMP_DISC_AMT_LCL,
+     S.RET_MANUAL_COUNT,
+     S.RET_SCAN_COUNT,
+     S.INTEGRATION_ID,
+     S.GLOBAL1_EXCHANGE_RATE,
+     S.GLOBAL2_EXCHANGE_RATE,
+     S.GLOBAL3_EXCHANGE_RATE,
+     S.LOC_EXCHANGE_RATE,
+     S.BBG_RETAIL_TYPE_WID,
+     S.BBG_CUSTOMER_COUNT,
+     S.BBG_SERVICE_SATISFACTION,
+     S.W_INSERT_DT,
+     S.W_UPDATE_DT,
+     S.BBG_REFERENCE_DO1,
+     S.BBG_REFERENCE_DO2,
+     S.BBG_REFERENCE_DO3,
+     S.BBG_REFERENCE_DO4,
+     S.BBG_REFERENCE_DO5,
+     S.BBG_REFERENCE_FO1,
+     S.BBG_REFERENCE_FO2,
+     S.BBG_REFERENCE_FO3,
+     S.BBG_REFERENCE_FO4,
+     S.BBG_REFERENCE_FO5,
+     S.BBG_REFERENCE_FO6,
+     S.BBG_REFERENCE_FO7,
+     S.BBG_REFERENCE_FO8,
+     S.BBG_REFERENCE_FO9,
+     S.BBG_REFERENCE_FO10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORA-08103: object no longer exists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORA-08103: object no longer exists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java.sql.SQLRecoverableException: No more data to read from socket</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> merge     into  
+ RADM.W_RTL_INV_IT_LC_G T 
+ using 
+  (
+  Select   
+  W_RTL_INV_IT_LC_DY_TMP.PROD_IT_WID PROD_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_SCD1_WID PROD_SCD1_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_SC_WID PROD_SC_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_CL_WID PROD_CL_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_DP_WID PROD_DP_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_GP_WID PROD_GP_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_DV_WID PROD_DV_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_IT_NUM PROD_IT_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_SC_NUM PROD_SC_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_CL_NUM PROD_CL_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_DP_NUM PROD_DP_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_GP_NUM PROD_GP_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_DV_NUM PROD_DV_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_WID ORG_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_SCD1_WID ORG_SCD1_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_LC_WID ORG_DH_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_DS_WID ORG_DS_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_RG_WID ORG_RG_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_AR_WID ORG_AR_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_CH_WID ORG_CH_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_NUM ORG_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_DS_NUM ORG_DS_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_RG_NUM ORG_RG_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_AR_NUM ORG_AR_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_CH_NUM ORG_CH_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.CLEARANCE_FLG CLEARANCE_FLG,
+ W_RTL_INV_IT_LC_DY_TMP.INV_REPL_FLG INV_REPL_FLG,
+ W_RTL_INV_IT_LC_DY_TMP.INV_REPL_METHOD_TYPE INV_REPL_METHOD_TYPE,
+ W_RTL_INV_IT_LC_DY_TMP.INV_REPL_INCREMENT_PCT INV_REPL_INCREMENT_PCT,
+ W_RTL_INV_IT_LC_DY_TMP.INV_SOH_QTY INV_SOH_QTY,
+ W_RTL_INV_IT_LC_DY_TMP.INV_ON_ORD_QTY INV_ON_ORD_QTY,
+ W_RTL_INV_IT_LC_DY_TMP.INV_IN_TRAN_QTY INV_IN_TRAN_QTY,
+ W_RTL_INV_IT_LC_DY_TMP.INV_MAX_SOH_QTY INV_MAX_SOH_QTY,
+ W_RTL_INV_IT_LC_DY_TMP.INV_MIN_SOH_QTY INV_MIN_SOH_QTY,
+ W_RTL_INV_IT_LC_DY_TMP.INV_UNIT_RTL_AMT_LCL INV_UNIT_RTL_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_SOH_RTL_AMT_LCL INV_SOH_RTL_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_ON_ORD_RTL_AMT_LCL INV_ON_ORD_RTL_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_IN_TRAN_RTL_AMT_LCL INV_IN_TRAN_RTL_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_MAX_SOH_RTL_AMT_LCL INV_MAX_SOH_RTL_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_MIN_SOH_RTL_AMT_LCL INV_MIN_SOH_RTL_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_AVG_COST_AMT_LCL INV_AVG_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_UNIT_COST_AMT_LCL INV_UNIT_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_SOH_COST_AMT_LCL INV_SOH_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_ON_ORD_COST_AMT_LCL INV_ON_ORD_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_IN_TRAN_COST_AMT_LCL INV_IN_TRAN_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_MAX_SOH_COST_AMT_LCL INV_MAX_SOH_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_MIN_SOH_COST_AMT_LCL INV_MIN_SOH_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.DM_RECD_STATUS DM_RECD_STATUS,
+ W_RTL_INV_IT_LC_DY_TMP.DOC_CURR_CODE DOC_CURR_CODE,
+ W_RTL_INV_IT_LC_DY_TMP.LOC_CURR_CODE LOC_CURR_CODE,
+ W_RTL_INV_IT_LC_DY_TMP.LOC_EXCHANGE_RATE LOC_EXCHANGE_RATE,
+ W_RTL_INV_IT_LC_DY_TMP.GLOBAL1_EXCHANGE_RATE GLOBAL1_EXCHANGE_RATE,
+ W_RTL_INV_IT_LC_DY_TMP.GLOBAL2_EXCHANGE_RATE GLOBAL2_EXCHANGE_RATE,
+ W_RTL_INV_IT_LC_DY_TMP.GLOBAL3_EXCHANGE_RATE GLOBAL3_EXCHANGE_RATE,
+ W_RTL_INV_IT_LC_DY_TMP.CREATED_BY_ID CREATED_BY_WID,
+ W_RTL_INV_IT_LC_DY_TMP.CHANGED_BY_ID CHANGED_BY_WID,
+ W_RTL_INV_IT_LC_DY_TMP.CREATED_ON_DT CREATED_ON_DT,
+ W_RTL_INV_IT_LC_DY_TMP.CHANGED_ON_DT CHANGED_ON_DT,
+ W_RTL_INV_IT_LC_DY_TMP.AUX1_CHANGED_ON_DT AUX1_CHANGED_ON_DT,
+ W_RTL_INV_IT_LC_DY_TMP.AUX2_CHANGED_ON_DT AUX2_CHANGED_ON_DT,
+ W_RTL_INV_IT_LC_DY_TMP.AUX3_CHANGED_ON_DT AUX3_CHANGED_ON_DT,
+ W_RTL_INV_IT_LC_DY_TMP.AUX4_CHANGED_ON_DT AUX4_CHANGED_ON_DT,
+ W_RTL_INV_IT_LC_DY_TMP.DELETE_FLG DELETE_FLG,
+ SYSDATE W_INSERT_DT,
+ SYSDATE W_UPDATE_DT,
+ W_RTL_INV_IT_LC_DY_TMP.DATASOURCE_NUM_ID DATASOURCE_NUM_ID,
+ #RA_BI.ETL_PROC_WID ETL_PROC_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ETL_THREAD_VAL ETL_THREAD_VAL,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_IT_WID||'~'||W_RTL_INV_IT_LC_DY_TMP.ORG_LC_WID INTEGRATION_ID,
+ W_RTL_INV_IT_LC_DY_TMP.TENANT_ID TENANT_ID,
+ W_RTL_INV_IT_LC_DY_TMP.X_CUSTOM X_CUSTOM,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_ITEM_LOC_WID BBG_ITEM_LOC_WID,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_DO1 BBG_REFERENCE_DO1,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_DO2 BBG_REFERENCE_DO2,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_DO3 BBG_REFERENCE_DO3,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_DO4 BBG_REFERENCE_DO4,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_DO5 BBG_REFERENCE_DO5,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO1 BBG_REFERENCE_FO1,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO2 BBG_REFERENCE_FO2,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO3 BBG_REFERENCE_FO3,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO4 BBG_REFERENCE_FO4,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO5 BBG_REFERENCE_FO5,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO6 BBG_REFERENCE_FO6,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO7 BBG_REFERENCE_FO7,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO8 BBG_REFERENCE_FO8,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO9 BBG_REFERENCE_FO9,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO10 BBG_REFERENCE_FO10
+  From RABATCHER.W_RTL_INV_IT_LC_DY_TMP   W_RTL_INV_IT_LC_DY_TMP
+        Where (1=1)
+ And (W_RTL_INV_IT_LC_DY_TMP.ETL_THREAD_VAL=#RA_BI.RA_THREAD_VAL)
+  ) S
+ on (
+   T.PROD_WID=S.PROD_WID
+ and  T.ORG_WID=S.ORG_WID
+  )
+ when matched
+ then update set
+  T.PROD_SCD1_WID = S.PROD_SCD1_WID,
+ T.PROD_SC_WID = S.PROD_SC_WID,
+ T.PROD_CL_WID = S.PROD_CL_WID,
+ T.PROD_DP_WID = S.PROD_DP_WID,
+ T.PROD_GP_WID = S.PROD_GP_WID,
+ T.PROD_DV_WID = S.PROD_DV_WID,
+ T.PROD_IT_NUM = S.PROD_IT_NUM,
+ T.PROD_SC_NUM = S.PROD_SC_NUM,
+ T.PROD_CL_NUM = S.PROD_CL_NUM,
+ T.PROD_DP_NUM = S.PROD_DP_NUM,
+ T.PROD_GP_NUM = S.PROD_GP_NUM,
+ T.PROD_DV_NUM = S.PROD_DV_NUM,
+ T.ORG_SCD1_WID = S.ORG_SCD1_WID,
+ T.ORG_DH_WID = S.ORG_DH_WID,
+ T.ORG_DS_WID = S.ORG_DS_WID,
+ T.ORG_RG_WID = S.ORG_RG_WID,
+ T.ORG_AR_WID = S.ORG_AR_WID,
+ T.ORG_CH_WID = S.ORG_CH_WID,
+ T.ORG_NUM = S.ORG_NUM,
+ T.ORG_DS_NUM = S.ORG_DS_NUM,
+ T.ORG_RG_NUM = S.ORG_RG_NUM,
+ T.ORG_AR_NUM = S.ORG_AR_NUM,
+ T.ORG_CH_NUM = S.ORG_CH_NUM,
+ T.CLEARANCE_FLG = S.CLEARANCE_FLG,
+ T.INV_REPL_FLG = S.INV_REPL_FLG,
+ T.INV_REPL_METHOD_TYPE = S.INV_REPL_METHOD_TYPE,
+ T.INV_REPL_INCREMENT_PCT = S.INV_REPL_INCREMENT_PCT,
+ T.INV_SOH_QTY = S.INV_SOH_QTY,
+ T.INV_ON_ORD_QTY = S.INV_ON_ORD_QTY,
+ T.INV_IN_TRAN_QTY = S.INV_IN_TRAN_QTY,
+ T.INV_MAX_SOH_QTY = S.INV_MAX_SOH_QTY,
+ T.INV_MIN_SOH_QTY = S.INV_MIN_SOH_QTY,
+ T.INV_UNIT_RTL_AMT_LCL = S.INV_UNIT_RTL_AMT_LCL,
+ T.INV_SOH_RTL_AMT_LCL = S.INV_SOH_RTL_AMT_LCL,
+ T.INV_ON_ORD_RTL_AMT_LCL = S.INV_ON_ORD_RTL_AMT_LCL,
+ T.INV_IN_TRAN_RTL_AMT_LCL = S.INV_IN_TRAN_RTL_AMT_LCL,
+ T.INV_MAX_SOH_RTL_AMT_LCL = S.INV_MAX_SOH_RTL_AMT_LCL,
+ T.INV_MIN_SOH_RTL_AMT_LCL = S.INV_MIN_SOH_RTL_AMT_LCL,
+ T.INV_AVG_COST_AMT_LCL = S.INV_AVG_COST_AMT_LCL,
+ T.INV_UNIT_COST_AMT_LCL = S.INV_UNIT_COST_AMT_LCL,
+ T.INV_SOH_COST_AMT_LCL = S.INV_SOH_COST_AMT_LCL,
+ T.INV_ON_ORD_COST_AMT_LCL = S.INV_ON_ORD_COST_AMT_LCL,
+ T.INV_IN_TRAN_COST_AMT_LCL = S.INV_IN_TRAN_COST_AMT_LCL,
+ T.INV_MAX_SOH_COST_AMT_LCL = S.INV_MAX_SOH_COST_AMT_LCL,
+ T.INV_MIN_SOH_COST_AMT_LCL = S.INV_MIN_SOH_COST_AMT_LCL,
+ T.DM_RECD_STATUS = S.DM_RECD_STATUS,
+ T.DOC_CURR_CODE = S.DOC_CURR_CODE,
+ T.LOC_CURR_CODE = S.LOC_CURR_CODE,
+ T.LOC_EXCHANGE_RATE = S.LOC_EXCHANGE_RATE,
+ T.GLOBAL1_EXCHANGE_RATE = S.GLOBAL1_EXCHANGE_RATE,
+ T.GLOBAL2_EXCHANGE_RATE = S.GLOBAL2_EXCHANGE_RATE,
+ T.GLOBAL3_EXCHANGE_RATE = S.GLOBAL3_EXCHANGE_RATE,
+ T.CREATED_BY_WID = S.CREATED_BY_WID,
+ T.CHANGED_BY_WID = S.CHANGED_BY_WID,
+ T.CREATED_ON_DT = S.CREATED_ON_DT,
+ T.CHANGED_ON_DT = S.CHANGED_ON_DT,
+ T.AUX1_CHANGED_ON_DT = S.AUX1_CHANGED_ON_DT,
+ T.AUX2_CHANGED_ON_DT = S.AUX2_CHANGED_ON_DT,
+ T.AUX3_CHANGED_ON_DT = S.AUX3_CHANGED_ON_DT,
+ T.AUX4_CHANGED_ON_DT = S.AUX4_CHANGED_ON_DT,
+ T.DELETE_FLG = S.DELETE_FLG,
+ T.W_UPDATE_DT = S.W_UPDATE_DT,
+ T.DATASOURCE_NUM_ID = S.DATASOURCE_NUM_ID,
+ T.ETL_PROC_WID = S.ETL_PROC_WID,
+ T.ETL_THREAD_VAL = S.ETL_THREAD_VAL,
+ T.INTEGRATION_ID = S.INTEGRATION_ID,
+ T.TENANT_ID = S.TENANT_ID,
+ T.X_CUSTOM = S.X_CUSTOM,
+ T.BBG_ITEM_LOC_WID = S.BBG_ITEM_LOC_WID,
+ T.BBG_REFERENCE_DO1 = S.BBG_REFERENCE_DO1,
+ T.BBG_REFERENCE_DO2 = S.BBG_REFERENCE_DO2,
+ T.BBG_REFERENCE_DO3 = S.BBG_REFERENCE_DO3,
+ T.BBG_REFERENCE_DO4 = S.BBG_REFERENCE_DO4,
+ T.BBG_REFERENCE_DO5 = S.BBG_REFERENCE_DO5,
+ T.BBG_REFERENCE_FO1 = S.BBG_REFERENCE_FO1,
+ T.BBG_REFERENCE_FO2 = S.BBG_REFERENCE_FO2,
+ T.BBG_REFERENCE_FO3 = S.BBG_REFERENCE_FO3,
+ T.BBG_REFERENCE_FO4 = S.BBG_REFERENCE_FO4,
+ T.BBG_REFERENCE_FO5 = S.BBG_REFERENCE_FO5,
+ T.BBG_REFERENCE_FO6 = S.BBG_REFERENCE_FO6,
+ T.BBG_REFERENCE_FO7 = S.BBG_REFERENCE_FO7,
+ T.BBG_REFERENCE_FO8 = S.BBG_REFERENCE_FO8,
+ T.BBG_REFERENCE_FO9 = S.BBG_REFERENCE_FO9,
+ T.BBG_REFERENCE_FO10 = S.BBG_REFERENCE_FO10
+ when not matched
+ then insert
+  (
+  T.ROW_WID
+                ,T.PROD_WID,
+ T.PROD_SCD1_WID,
+ T.PROD_SC_WID,
+ T.PROD_CL_WID,
+ T.PROD_DP_WID,
+ T.PROD_GP_WID,
+ T.PROD_DV_WID,
+ T.PROD_IT_NUM,
+ T.PROD_SC_NUM,
+ T.PROD_CL_NUM,
+ T.PROD_DP_NUM,
+ T.PROD_GP_NUM,
+ T.PROD_DV_NUM,
+ T.ORG_WID,
+ T.ORG_SCD1_WID,
+ T.ORG_DH_WID,
+ T.ORG_DS_WID,
+ T.ORG_RG_WID,
+ T.ORG_AR_WID,
+ T.ORG_CH_WID,
+ T.ORG_NUM,
+ T.ORG_DS_NUM,
+ T.ORG_RG_NUM,
+ T.ORG_AR_NUM,
+ T.ORG_CH_NUM,
+ T.CLEARANCE_FLG,
+ T.INV_REPL_FLG,
+ T.INV_REPL_METHOD_TYPE,
+ T.INV_REPL_INCREMENT_PCT,
+ T.INV_SOH_QTY,
+ T.INV_ON_ORD_QTY,
+ T.INV_IN_TRAN_QTY,
+ T.INV_MAX_SOH_QTY,
+ T.INV_MIN_SOH_QTY,
+ T.INV_UNIT_RTL_AMT_LCL,
+ T.INV_SOH_RTL_AMT_LCL,
+ T.INV_ON_ORD_RTL_AMT_LCL,
+ T.INV_IN_TRAN_RTL_AMT_LCL,
+ T.INV_MAX_SOH_RTL_AMT_LCL,
+ T.INV_MIN_SOH_RTL_AMT_LCL,
+ T.INV_AVG_COST_AMT_LCL,
+ T.INV_UNIT_COST_AMT_LCL,
+ T.INV_SOH_COST_AMT_LCL,
+ T.INV_ON_ORD_COST_AMT_LCL,
+ T.INV_IN_TRAN_COST_AMT_LCL,
+ T.INV_MAX_SOH_COST_AMT_LCL,
+ T.INV_MIN_SOH_COST_AMT_LCL,
+ T.DM_RECD_STATUS,
+ T.DOC_CURR_CODE,
+ T.LOC_CURR_CODE,
+ T.LOC_EXCHANGE_RATE,
+ T.GLOBAL1_EXCHANGE_RATE,
+ T.GLOBAL2_EXCHANGE_RATE,
+ T.GLOBAL3_EXCHANGE_RATE,
+ T.CREATED_BY_WID,
+ T.CHANGED_BY_WID,
+ T.CREATED_ON_DT,
+ T.CHANGED_ON_DT,
+ T.AUX1_CHANGED_ON_DT,
+ T.AUX2_CHANGED_ON_DT,
+ T.AUX3_CHANGED_ON_DT,
+ T.AUX4_CHANGED_ON_DT,
+ T.DELETE_FLG,
+ T.W_INSERT_DT,
+ T.W_UPDATE_DT,
+ T.DATASOURCE_NUM_ID,
+ T.ETL_PROC_WID,
+ T.ETL_THREAD_VAL,
+ T.INTEGRATION_ID,
+ T.TENANT_ID,
+ T.X_CUSTOM,
+ T.BBG_ITEM_LOC_WID,
+ T.BBG_REFERENCE_DO1,
+ T.BBG_REFERENCE_DO2,
+ T.BBG_REFERENCE_DO3,
+ T.BBG_REFERENCE_DO4,
+ T.BBG_REFERENCE_DO5,
+ T.BBG_REFERENCE_FO1,
+ T.BBG_REFERENCE_FO2,
+ T.BBG_REFERENCE_FO3,
+ T.BBG_REFERENCE_FO4,
+ T.BBG_REFERENCE_FO5,
+ T.BBG_REFERENCE_FO6,
+ T.BBG_REFERENCE_FO7,
+ T.BBG_REFERENCE_FO8,
+ T.BBG_REFERENCE_FO9,
+ T.BBG_REFERENCE_FO10
+  )
+ values
+  (
+  RADM.W_RTL_INV_IT_LC_G_SEQ.NEXTVAL
+  ,S.PROD_WID,
+ S.PROD_SCD1_WID,
+ S.PROD_SC_WID,
+ S.PROD_CL_WID,
+ S.PROD_DP_WID,
+ S.PROD_GP_WID,
+ S.PROD_DV_WID,
+ S.PROD_IT_NUM,
+ S.PROD_SC_NUM,
+ S.PROD_CL_NUM,
+ S.PROD_DP_NUM,
+ S.PROD_GP_NUM,
+ S.PROD_DV_NUM,
+ S.ORG_WID,
+ S.ORG_SCD1_WID,
+ S.ORG_DH_WID,
+ S.ORG_DS_WID,
+ S.ORG_RG_WID,
+ S.ORG_AR_WID,
+ S.ORG_CH_WID,
+ S.ORG_NUM,
+ S.ORG_DS_NUM,
+ S.ORG_RG_NUM,
+ S.ORG_AR_NUM,
+ S.ORG_CH_NUM,
+ S.CLEARANCE_FLG,
+ S.INV_REPL_FLG,
+ S.INV_REPL_METHOD_TYPE,
+ S.INV_REPL_INCREMENT_PCT,
+ S.INV_SOH_QTY,
+ S.INV_ON_ORD_QTY,
+ S.INV_IN_TRAN_QTY,
+ S.INV_MAX_SOH_QTY,
+ S.INV_MIN_SOH_QTY,
+ S.INV_UNIT_RTL_AMT_LCL,
+ S.INV_SOH_RTL_AMT_LCL,
+ S.INV_ON_ORD_RTL_AMT_LCL,
+ S.INV_IN_TRAN_RTL_AMT_LCL,
+ S.INV_MAX_SOH_RTL_AMT_LCL,
+ S.INV_MIN_SOH_RTL_AMT_LCL,
+ S.INV_AVG_COST_AMT_LCL,
+ S.INV_UNIT_COST_AMT_LCL,
+ S.INV_SOH_COST_AMT_LCL,
+ S.INV_ON_ORD_COST_AMT_LCL,
+ S.INV_IN_TRAN_COST_AMT_LCL,
+ S.INV_MAX_SOH_COST_AMT_LCL,
+ S.INV_MIN_SOH_COST_AMT_LCL,
+ S.DM_RECD_STATUS,
+ S.DOC_CURR_CODE,
+ S.LOC_CURR_CODE,
+ S.LOC_EXCHANGE_RATE,
+ S.GLOBAL1_EXCHANGE_RATE,
+ S.GLOBAL2_EXCHANGE_RATE,
+ S.GLOBAL3_EXCHANGE_RATE,
+ S.CREATED_BY_WID,
+ S.CHANGED_BY_WID,
+ S.CREATED_ON_DT,
+ S.CHANGED_ON_DT,
+ S.AUX1_CHANGED_ON_DT,
+ S.AUX2_CHANGED_ON_DT,
+ S.AUX3_CHANGED_ON_DT,
+ S.AUX4_CHANGED_ON_DT,
+ S.DELETE_FLG,
+ S.W_INSERT_DT,
+ S.W_UPDATE_DT,
+ S.DATASOURCE_NUM_ID,
+ S.ETL_PROC_WID,
+ S.ETL_THREAD_VAL,
+ S.INTEGRATION_ID,
+ S.TENANT_ID,
+ S.X_CUSTOM,
+ S.BBG_ITEM_LOC_WID,
+ S.BBG_REFERENCE_DO1,
+ S.BBG_REFERENCE_DO2,
+ S.BBG_REFERENCE_DO3,
+ S.BBG_REFERENCE_DO4,
+ S.BBG_REFERENCE_DO5,
+ S.BBG_REFERENCE_FO1,
+ S.BBG_REFERENCE_FO2,
+ S.BBG_REFERENCE_FO3,
+ S.BBG_REFERENCE_FO4,
+ S.BBG_REFERENCE_FO5,
+ S.BBG_REFERENCE_FO6,
+ S.BBG_REFERENCE_FO7,
+ S.BBG_REFERENCE_FO8,
+ S.BBG_REFERENCE_FO9,
+ S.BBG_REFERENCE_FO10
+ )
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2781,17 +4606,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="24.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="14" style="4" customWidth="1"/>
@@ -2804,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -2816,7 +4641,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2824,13 +4649,13 @@
         <v>42110</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2838,10 +4663,10 @@
         <v>42150.264768518522</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2849,10 +4674,10 @@
         <v>42156</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2860,16 +4685,16 @@
         <v>42172.34207175926</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2877,7 +4702,7 @@
         <v>42173.329317129632</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -2886,10 +4711,10 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2897,7 +4722,7 @@
         <v>42174.260405092595</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>5</v>
@@ -2906,10 +4731,10 @@
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2917,16 +4742,16 @@
         <v>42175.249108796299</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2934,19 +4759,19 @@
         <v>42176.225185185183</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2954,7 +4779,7 @@
         <v>42178.22079861111</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>5</v>
@@ -2963,7 +4788,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2971,19 +4796,19 @@
         <v>42180.271817129629</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2991,13 +4816,13 @@
         <v>42182.260127314818</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3005,13 +4830,13 @@
         <v>42183.311215277776</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3019,13 +4844,13 @@
         <v>42184.147581018522</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3033,16 +4858,16 @@
         <v>42184.187777777777</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3050,18 +4875,104 @@
         <v>42186.451469907406</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17">
+        <v>42187.436851851853</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="17">
+        <v>42188.191018518519</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="18" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17">
+        <v>42188.217141203706</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="17">
+        <v>42188.289247685185</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="17">
+        <v>42190.149664351855</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="17">
+        <v>42193.231828703705</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F20"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3082,58 +4993,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -3166,13 +5077,13 @@
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16384" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3180,10 +5091,10 @@
         <v>42110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -19572,10 +21483,10 @@
         <v>42142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:16384" x14ac:dyDescent="0.15">
@@ -19583,10 +21494,10 @@
         <v>42156</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:16384" x14ac:dyDescent="0.15">
@@ -19594,10 +21505,10 @@
         <v>42180</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Task/2015-05-18_BBG_ETL_MONTH_DATA改写月汇总_MERGE/BBG_ETL_MONTH_DATA报错记录分析_20150629.xlsx
+++ b/Task/2015-05-18_BBG_ETL_MONTH_DATA改写月汇总_MERGE/BBG_ETL_MONTH_DATA报错记录分析_20150629.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4161,6 +4161,310 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>java.sql.SQLRecoverableException: No more data to read from socket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT /*+append parallel(JIN_RMS_RA_RTV_CHECK,16)*/
+INTO RADM.JIN_RMS_RA_RTV_CHECK
+  SELECT RMS.DAY_DT,
+         RMS.ITEM,
+         RMS.LOC,
+         RMS.SUPPLIER,
+         RMS.RTV_QTY RMS_RTV_QTY,
+         RMS.RTV_COST RMS_RTV_COST,
+         NVL(RA.RTV_QTY, 0) RA_RTV_QTY,
+         NVL(RA.RTV_COST, 0) RA_RTV_COST
+    FROM (SELECT A.DAY_DT, A.ITEM, A.LOC, A.SUPPLIER, A.RTV_QTY, A.RTV_COST
+            FROM (SELECT DAY_DT,
+                         ITEM,
+                         LOC,
+                         SUPPLIER,
+                         SHIP_TO_COUNTRY_ID,
+                         RTV_QTY,
+                         RTV_COST,
+                         '' BBG_REFERENCE_DO1,
+                         '' BBG_REFERENCE_DO2,
+                         '' BBG_REFERENCE_DO3,
+                         '' BBG_REFERENCE_DO4,
+                         '' BBG_REFERENCE_DO5,
+                         NULL BBG_REFERENCE_FO1,
+                         NULL BBG_REFERENCE_FO2,
+                         NULL BBG_REFERENCE_FO3,
+                         NULL BBG_REFERENCE_FO4,
+                         NULL BBG_REFERENCE_FO5,
+                         NULL BBG_REFERENCE_FO6,
+                         NULL BBG_REFERENCE_FO7,
+                         NULL BBG_REFERENCE_FO8,
+                         NULL BBG_REFERENCE_FO9,
+                         NULL BBG_REFERENCE_FO10
+                    FROM (SELECT TRUNC(RH.COMPLETED_DATE) DAY_DT,
+                                 RD.ITEM,
+                                 RH.STORE LOC,
+                                 RH.SUPPLIER,
+                                 RH.SHIP_TO_COUNTRY_ID,
+                                 SUM(RD.QTY_RETURNED) RTV_QTY,
+                                 SUM(RD.UNIT_COST * RD.QTY_RETURNED) RTV_COST
+                            FROM RMS.RTV_HEAD@RA_RMS_DBLINK   RH,
+                                 RMS.RTV_DETAIL@RA_RMS_DBLINK RD
+                           WHERE 1 = 1
+                             AND RH.RTV_ORDER_NO = RD.RTV_ORDER_NO
+                             AND RH.STATUS_IND = 15 -- 05- Input 10 - Approved 12 - In Progress 15 - Shipped 20 - Cancelled
+                             AND RH.STORE &lt;&gt; -1
+                             AND RH.COMPLETED_DATE &lt; TRUNC(SYSDATE - 1)
+                           GROUP BY TRUNC(RH.COMPLETED_DATE),
+                                    RD.ITEM,
+                                    RH.STORE,
+                                    RH.SUPPLIER,
+                                    RH.SHIP_TO_COUNTRY_ID
+                          UNION
+                          SELECT TRUNC(RH.COMPLETED_DATE) DAY_DT,
+                                 RD.ITEM,
+                                 RH.WH,
+                                 RH.SUPPLIER,
+                                 RH.SHIP_TO_COUNTRY_ID,
+                                 SUM(RD.QTY_RETURNED) RTV_QTY,
+                                 SUM(RD.UNIT_COST * RD.QTY_RETURNED) RTV_COST
+                            FROM RMS.RTV_HEAD@RA_RMS_DBLINK   RH,
+                                 RMS.RTV_DETAIL@RA_RMS_DBLINK RD
+                           WHERE 1 = 1
+                             AND RH.RTV_ORDER_NO = RD.RTV_ORDER_NO
+                             AND RH.STATUS_IND = 15 -- 05- Input 10 - Approved 12 - In Progress 15 - Shipped 20 - Cancelled
+                             AND RH.WH &lt;&gt; -1
+                             AND RH.COMPLETED_DATE &lt; TRUNC(SYSDATE - 1)
+                           GROUP BY TRUNC(RH.COMPLETED_DATE),
+                                    RD.ITEM,
+                                    RH.WH,
+                                    RH.SUPPLIER,
+                                    RH.SHIP_TO_COUNTRY_ID)) A) RMS,
+         (SELECT TO_DATE(SUBSTR(A.DT_WID, 2, 8), 'YYYYMMDD') DAY_DT,
+                 P.PROD_NUM ITEM,
+                 O.ORG_NUM LOC,
+                 S.SUPPLIER_NUM SUPPLIER,
+                 A.TRANSFER_QTY RTV_QTY,
+                 A.TRANSFER_COST RTV_COST
+            FROM RADM.BBG_RA_RTV_IT_LC_SUPP_DY_F A,
+                 RADM.W_PRODUCT_D                P,
+                 RADM.W_INT_ORG_D                O,
+                 RADM.W_PARTY_ORG_D              S
+           WHERE A.PROD_WID = P.ROW_WID
+             AND A.ORG_WID = O.ROW_WID
+             AND A.SUPPLIER_WID = S.ROW_WID
+             AND A.DT_WID &gt;= 120130515000) RA
+   WHERE RMS.DAY_DT = RA.DAY_DT(+)
+     AND RMS.ITEM = RA.ITEM(+)
+     AND RMS.LOC = RA.LOC(+)
+     AND RMS.SUPPLIER = RA.SUPPLIER(+)
+     AND RMS.RTV_COST &lt;&gt; NVL(RA.RTV_COST, 0)
+   ORDER BY RMS.DAY_DT, RMS.ITEM, RMS.LOC, RMS.SUPPLIER
+INSERT /*+append parallel(JIN_RMS_RA_RTV_CHECK,16)*/
+INTO RADM.JIN_RMS_RA_RTV_CHECK
+  SELECT RMS.DAY_DT,
+         RMS.ITEM,
+         RMS.LOC,
+         RMS.SUPPLIER,
+         RMS.RTV_QTY RMS_RTV_QTY,
+         RMS.RTV_COST RMS_RTV_COST,
+         NVL(RA.RTV_QTY, 0) RA_RTV_QTY,
+         NVL(RA.RTV_COST, 0) RA_RTV_COST
+    FROM (SELECT A.DAY_DT, A.ITEM, A.LOC, A.SUPPLIER, A.RTV_QTY, A.RTV_COST
+            FROM (SELECT DAY_DT,
+                         ITEM,
+                         LOC,
+                         SUPPLIER,
+                         SHIP_TO_COUNTRY_ID,
+                         RTV_QTY,
+                         RTV_COST,
+                         '' BBG_REFERENCE_DO1,
+                         '' BBG_REFERENCE_DO2,
+                         '' BBG_REFERENCE_DO3,
+                         '' BBG_REFERENCE_DO4,
+                         '' BBG_REFERENCE_DO5,
+                         NULL BBG_REFERENCE_FO1,
+                         NULL BBG_REFERENCE_FO2,
+                         NULL BBG_REFERENCE_FO3,
+                         NULL BBG_REFERENCE_FO4,
+                         NULL BBG_REFERENCE_FO5,
+                         NULL BBG_REFERENCE_FO6,
+                         NULL BBG_REFERENCE_FO7,
+                         NULL BBG_REFERENCE_FO8,
+                         NULL BBG_REFERENCE_FO9,
+                         NULL BBG_REFERENCE_FO10
+                    FROM (SELECT TRUNC(RH.COMPLETED_DATE) DAY_DT,
+                                 RD.ITEM,
+                                 RH.STORE LOC,
+                                 RH.SUPPLIER,
+                                 RH.SHIP_TO_COUNTRY_ID,
+                                 SUM(RD.QTY_RETURNED) RTV_QTY,
+                                 SUM(RD.UNIT_COST * RD.QTY_RETURNED) RTV_COST
+                            FROM RMS.RTV_HEAD@RA_RMS_DBLINK   RH,
+                                 RMS.RTV_DETAIL@RA_RMS_DBLINK RD
+                           WHERE 1 = 1
+                             AND RH.RTV_ORDER_NO = RD.RTV_ORDER_NO
+                             AND RH.STATUS_IND = 15 -- 05- Input 10 - Approved 12 - In Progress 15 - Shipped 20 - Cancelled
+                             AND RH.STORE &lt;&gt; -1
+                             AND RH.COMPLETED_DATE &lt; TRUNC(SYSDATE - 1)
+                           GROUP BY TRUNC(RH.COMPLETED_DATE),
+                                    RD.ITEM,
+                                    RH.STORE,
+                                    RH.SUPPLIER,
+                                    RH.SHIP_TO_COUNTRY_ID
+                          UNION
+                          SELECT TRUNC(RH.COMPLETED_DATE) DAY_DT,
+                                 RD.ITEM,
+                                 RH.WH,
+                                 RH.SUPPLIER,
+                                 RH.SHIP_TO_COUNTRY_ID,
+                                 SUM(RD.QTY_RETURNED) RTV_QTY,
+                                 SUM(RD.UNIT_COST * RD.QTY_RETURNED) RTV_COST
+                            FROM RMS.RTV_HEAD@RA_RMS_DBLINK   RH,
+                                 RMS.RTV_DETAIL@RA_RMS_DBLINK RD
+                           WHERE 1 = 1
+                             AND RH.RTV_ORDER_NO = RD.RTV_ORDER_NO
+                             AND RH.STATUS_IND = 15 -- 05- Input 10 - Approved 12 - In Progress 15 - Shipped 20 - Cancelled
+                             AND RH.WH &lt;&gt; -1
+                             AND RH.COMPLETED_DATE &lt; TRUNC(SYSDATE - 1)
+                           GROUP BY TRUNC(RH.COMPLETED_DATE),
+                                    RD.ITEM,
+                                    RH.WH,
+                                    RH.SUPPLIER,
+                                    RH.SHIP_TO_COUNTRY_ID)) A) RMS,
+         (SELECT TO_DATE(SUBSTR(A.DT_WID, 2, 8), 'YYYYMMDD') DAY_DT,
+                 P.PROD_NUM ITEM,
+                 O.ORG_NUM LOC,
+                 S.SUPPLIER_NUM SUPPLIER,
+                 A.TRANSFER_QTY RTV_QTY,
+                 A.TRANSFER_COST RTV_COST
+            FROM RADM.BBG_RA_RTV_IT_LC_SUPP_DY_F A,
+                 RADM.W_PRODUCT_D                P,
+                 RADM.W_INT_ORG_D                O,
+                 RADM.W_PARTY_ORG_D              S
+           WHERE A.PROD_WID = P.ROW_WID
+             AND A.ORG_WID = O.ROW_WID
+             AND A.SUPPLIER_WID = S.ROW_WID
+             AND A.DT_WID &gt;= 120130515000) RA
+   WHERE RMS.DAY_DT = RA.DAY_DT(+)
+     AND RMS.ITEM = RA.ITEM(+)
+     AND RMS.LOC = RA.LOC(+)
+     AND RMS.SUPPLIER = RA.SUPPLIER(+)
+     AND RMS.RTV_COST &lt;&gt; NVL(RA.RTV_COST, 0)
+   ORDER BY RMS.DAY_DT, RMS.ITEM, RMS.LOC, RMS.SUPPLIER
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBG_ETL_MONTH_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBG_SIL_BBG_RA_CUST_IT_LC_DY_FACT</t>
+  </si>
+  <si>
+    <t>BBG_SIL_BBG_RA_CUST_IT_LC_DY_FACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">java.sql.SQLException: ORA-08103: object no longer exists
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> merge   /*+ APPEND */  into  
+ RADM.BBG_RA_CUST_IT_LC_DY_F T 
+ using 
+  (
+  Select  /*+ APPEND */ 
+  BBG_RA_CUST_IT_LC_DY_TMP.PROD_IT_WID PROD_WID,
+ BBG_RA_CUST_IT_LC_DY_TMP.PROD_SCD1_WID PROD_SCD1_WID,
+ BBG_RA_CUST_IT_LC_DY_TMP.ORG_WID ORG_WID,
+ BBG_RA_CUST_IT_LC_DY_TMP.ORG_LC_WID ORG_DH_WID,
+ BBG_RA_CUST_IT_LC_DY_TMP.ORG_SCD1_WID ORG_SCD1_WID,
+ BBG_RA_CUST_IT_LC_DY_TMP.DT_WID DT_WID,
+ BBG_RA_CUST_IT_LC_DY_TMP.BBG_ITEM_LOC_WID BBG_ITEM_LOC_WID,
+ BBG_RA_CUST_IT_LC_DY_TMP.BBG_CUSTOMER_COUNT BBG_CUSTOMER_COUNT,
+ BBG_RA_CUST_IT_LC_DY_TMP.BBG_SERVICE_SATISFACTION BBG_SERVICE_SATISFACTION,
+ BBG_RA_CUST_IT_LC_DY_TMP.DATASOURCE_NUM_ID DATASOURCE_NUM_ID,
+ BBG_RA_CUST_IT_LC_DY_TMP.INTEGRATION_ID INTEGRATION_ID,
+ BBG_RA_CUST_IT_LC_DY_TMP.W_INSERT_DT W_INSERT_DT,
+ BBG_RA_CUST_IT_LC_DY_TMP.W_UPDATE_DT W_UPDATE_DT
+  From RABATCHER.BBG_RA_CUST_IT_LC_DY_TMP   BBG_RA_CUST_IT_LC_DY_TMP
+        Where (1=1)
+  ) S
+ on (
+   T.PROD_WID=S.PROD_WID
+ and  T.ORG_WID=S.ORG_WID
+ and  T.DT_WID=S.DT_WID
+ and  T.BBG_ITEM_LOC_WID=S.BBG_ITEM_LOC_WID
+  )
+ when matched
+ then update set
+  T.PROD_SCD1_WID = S.PROD_SCD1_WID,
+ T.ORG_DH_WID = S.ORG_DH_WID,
+ T.ORG_SCD1_WID = S.ORG_SCD1_WID,
+ T.BBG_CUSTOMER_COUNT = S.BBG_CUSTOMER_COUNT,
+ T.BBG_SERVICE_SATISFACTION = S.BBG_SERVICE_SATISFACTION,
+ T.DATASOURCE_NUM_ID = S.DATASOURCE_NUM_ID,
+ T.INTEGRATION_ID = S.INTEGRATION_ID,
+ T.W_INSERT_DT = S.W_INSERT_DT,
+ T.W_UPDATE_DT = S.W_UPDATE_DT
+ when not matched
+ then insert
+  (
+  T.ROW_WID
+                ,T.PROD_WID,
+ T.PROD_SCD1_WID,
+ T.ORG_WID,
+ T.ORG_DH_WID,
+ T.ORG_SCD1_WID,
+ T.DT_WID,
+ T.BBG_ITEM_LOC_WID,
+ T.BBG_CUSTOMER_COUNT,
+ T.BBG_SERVICE_SATISFACTION,
+ T.DATASOURCE_NUM_ID,
+ T.INTEGRATION_ID,
+ T.W_INSERT_DT,
+ T.W_UPDATE_DT
+  )
+ values
+  (
+  RADM.BBG_RA_CUST_IT_LC_DY_F_SEQ.NEXTVAL
+  ,S.PROD_WID,
+ S.PROD_SCD1_WID,
+ S.ORG_WID,
+ S.ORG_DH_WID,
+ S.ORG_SCD1_WID,
+ S.DT_WID,
+ S.BBG_ITEM_LOC_WID,
+ S.BBG_CUSTOMER_COUNT,
+ S.BBG_SERVICE_SATISFACTION,
+ S.DATASOURCE_NUM_ID,
+ S.INTEGRATION_ID,
+ S.W_INSERT_DT,
+ S.W_UPDATE_DT
+ )
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java.sql.SQLException: ORA-00600: internal error code, arguments: [kclcls_8], [11], [199784], [], [], [], [], [], [], [], [], []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORA-04021: timeout occurred while waiting to lock object </t>
+  </si>
+  <si>
+    <t>SDE_RetailSalesPromotionTransactionFact</t>
+  </si>
+  <si>
+    <t>begin 
+RADM.ANALYZE_RA_TBL('W_RTL_SLSPR_TX_IT_LC_DY_FS');
+end;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODI中取消此步的分析表步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -4606,11 +4910,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4884,7 +5188,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17">
         <v>42187.436851851853</v>
       </c>
@@ -4898,7 +5202,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17">
         <v>42188.191018518519</v>
       </c>
@@ -4912,7 +5216,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17">
         <v>42188.217141203706</v>
       </c>
@@ -4926,12 +5230,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17">
         <v>42188.289247685185</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>64</v>
@@ -4940,7 +5244,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17">
         <v>42190.149664351855</v>
       </c>
@@ -4948,13 +5252,13 @@
         <v>57</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="17">
         <v>42193.231828703705</v>
       </c>
@@ -4966,6 +5270,65 @@
       </c>
       <c r="D22" s="18" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17">
+        <v>42196.246053240742</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="17">
+        <v>42204.191701388889</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17">
+        <v>42205.150138888886</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="17">
+        <v>42206.098078703704</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Task/2015-05-18_BBG_ETL_MONTH_DATA改写月汇总_MERGE/BBG_ETL_MONTH_DATA报错记录分析_20150629.xlsx
+++ b/Task/2015-05-18_BBG_ETL_MONTH_DATA改写月汇总_MERGE/BBG_ETL_MONTH_DATA报错记录分析_20150629.xlsx
@@ -4913,8 +4913,8 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Task/2015-05-18_BBG_ETL_MONTH_DATA改写月汇总_MERGE/BBG_ETL_MONTH_DATA报错记录分析_20150629.xlsx
+++ b/Task/2015-05-18_BBG_ETL_MONTH_DATA改写月汇总_MERGE/BBG_ETL_MONTH_DATA报错记录分析_20150629.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\D\WORK\BBG\Task\2015-05-18_BBG_ETL_MONTH_DATA改写月汇总_MERGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\BBG\Task\2015-05-18_BBG_ETL_MONTH_DATA改写月汇总_MERGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4465,6 +4465,359 @@
     <t>ODI中取消此步的分析表步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SIL_RetailSalesPackFact</t>
+  </si>
+  <si>
+    <t>alter session enable parallel dml</t>
+  </si>
+  <si>
+    <t>PLP_RetailSalesITLcDyLoad</t>
+  </si>
+  <si>
+    <t>ORA-26027: unique index RADM.PK_W_RTL_SLS_IT_LC_DY_A partition W_RTL_SLS_IT_LC_DY_A_201508 initially in unusable state</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> merge   /*+ APPEND */  into  
+ RADM.W_RTL_SLS_IT_LC_DY_A T 
+ using 
+  (
+  Select  /*+ APPEND */ 
+  W_RTL_SLS_IT_LC_DY_TMP.PROD_IT_WID PROD_WID,
+ W_RTL_SLS_IT_LC_DY_TMP.PROD_SCD1_WID PROD_SCD1_WID,
+ W_RTL_SLS_IT_LC_DY_TMP.ORG_WID ORG_WID,
+ W_RTL_SLS_IT_LC_DY_TMP.ORG_SCD1_WID ORG_SCD1_WID,
+ W_RTL_SLS_IT_LC_DY_TMP.ORG_LC_WID ORG_DH_WID,
+ W_RTL_SLS_IT_LC_DY_TMP.DT_WID DT_WID,
+ W_RTL_SLS_IT_LC_DY_TMP.VOUCHER_FLG VOUCHER_FLG,
+ W_RTL_SLS_IT_LC_DY_TMP.RTL_TYPE_WID RTL_TYPE_WID,
+ W_RTL_SLS_IT_LC_DY_TMP.EMPLOYEE_WID EMPLOYEE_WID,
+ W_RTL_SLS_IT_LC_DY_TMP.RTL_TYPE_CODE RTL_TYPE_CODE,
+ W_RTL_SLS_IT_LC_DY_TMP.DATASOURCE_NUM_ID DATASOURCE_NUM_ID,
+ W_RTL_SLS_IT_LC_DY_TMP.DELETE_FLG DELETE_FLG,
+ W_RTL_SLS_IT_LC_DY_TMP.DOC_CURR_CODE DOC_CURR_CODE,
+ #RA_BI.ETL_PROC_WID ETL_PROC_WID,
+ W_RTL_SLS_IT_LC_DY_TMP.GLOBAL1_EXCHANGE_RATE GLOBAL1_EXCHANGE_RATE,
+ W_RTL_SLS_IT_LC_DY_TMP.GLOBAL2_EXCHANGE_RATE GLOBAL2_EXCHANGE_RATE,
+ W_RTL_SLS_IT_LC_DY_TMP.GLOBAL3_EXCHANGE_RATE GLOBAL3_EXCHANGE_RATE,
+ W_RTL_SLS_IT_LC_DY_TMP.PROD_IT_NUM||'~'||W_RTL_SLS_IT_LC_DY_TMP.ORG_NUM||'~'||W_RTL_SLS_IT_LC_DY_TMP.DAY_DT||'~'||W_RTL_SLS_IT_LC_DY_TMP.RTL_TYPE_CODE INTEGRATION_ID,
+ W_RTL_SLS_IT_LC_DY_TMP.LOC_CURR_CODE LOC_CURR_CODE,
+ W_RTL_SLS_IT_LC_DY_TMP.LOC_EXCHANGE_RATE LOC_EXCHANGE_RATE,
+ W_RTL_SLS_IT_LC_DY_TMP.TENANT_ID TENANT_ID,
+ SYSDATE W_INSERT_DT,
+ SYSDATE W_UPDATE_DT,
+ W_RTL_SLS_IT_LC_DY_TMP.X_CUSTOM X_CUSTOM,
+ W_RTL_SLS_IT_LC_DY_TMP.BBG_ITEM_LOC_WID BBG_ITEM_LOC_WID,
+ W_RTL_SLS_IT_LC_DY_TMP.BBG_RETAIL_TYPE_WID BBG_RETAIL_TYPE_WID,
+ W_RTL_SLS_IT_LC_DY_TMP.BBG_CUSTOMER_COUNT BBG_CUSTOMER_COUNT,
+ W_RTL_SLS_IT_LC_DY_TMP.BBG_SERVICE_SATISFACTION BBG_SERVICE_SATISFACTION,
+ W_RTL_SLS_IT_LC_DY_TMP.BBG_REFERENCE_DO1 BBG_REFERENCE_DO1,
+ W_RTL_SLS_IT_LC_DY_TMP.BBG_REFERENCE_DO2 BBG_REFERENCE_DO2,
+ W_RTL_SLS_IT_LC_DY_TMP.BBG_REFERENCE_DO3 BBG_REFERENCE_DO3,
+ W_RTL_SLS_IT_LC_DY_TMP.BBG_REFERENCE_DO4 BBG_REFERENCE_DO4,
+ W_RTL_SLS_IT_LC_DY_TMP.BBG_REFERENCE_DO5 BBG_REFERENCE_DO5,
+ W_RTL_SLS_IT_LC_DY_TMP.BBG_REFERENCE_FO1 BBG_REFERENCE_FO1,
+ W_RTL_SLS_IT_LC_DY_TMP.BBG_REFERENCE_FO2 BBG_REFERENCE_FO2,
+ W_RTL_SLS_IT_LC_DY_TMP.BBG_REFERENCE_FO3 BBG_REFERENCE_FO3,
+ W_RTL_SLS_IT_LC_DY_TMP.BBG_REFERENCE_FO4 BBG_REFERENCE_FO4,
+ W_RTL_SLS_IT_LC_DY_TMP.BBG_REFERENCE_FO5 BBG_REFERENCE_FO5,
+ W_RTL_SLS_IT_LC_DY_TMP.BBG_REFERENCE_FO6 BBG_REFERENCE_FO6,
+ W_RTL_SLS_IT_LC_DY_TMP.BBG_REFERENCE_FO7 BBG_REFERENCE_FO7,
+ W_RTL_SLS_IT_LC_DY_TMP.BBG_REFERENCE_FO8 BBG_REFERENCE_FO8,
+ W_RTL_SLS_IT_LC_DY_TMP.BBG_REFERENCE_FO8 BBG_REFERENCE_FO9,
+ W_RTL_SLS_IT_LC_DY_TMP.BBG_REFERENCE_FO10 BBG_REFERENCE_FO10,
+ W_RTL_SLS_IT_LC_DY_TMP.VIP_SLS_QTY VIP_SLS_QTY,
+ W_RTL_SLS_IT_LC_DY_TMP.VIP_SLS_AMT_LCL VIP_SLS_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.VIP_SLS_PROFIT_AMT_LCL VIP_SLS_PROFIT_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.VIP_SLS_MANUAL_MKDN_AMT_LCL VIP_SLS_MANUAL_MKDN_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.VIP_SLS_MANUAL_MKUP_AMT_LCL VIP_SLS_MANUAL_MKUP_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.VIP_SLS_TAX_AMT_LCL VIP_SLS_TAX_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.VIP_SLS_EMP_DISC_AMT_LCL VIP_SLS_EMP_DISC_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.VIP_SLS_MANUAL_COUNT VIP_SLS_MANUAL_COUNT,
+ W_RTL_SLS_IT_LC_DY_TMP.VIP_SLS_SCAN_COUNT VIP_SLS_SCAN_COUNT,
+ W_RTL_SLS_IT_LC_DY_TMP.VIP_RET_QTY VIP_RET_QTY,
+ W_RTL_SLS_IT_LC_DY_TMP.VIP_RET_AMT_LCL VIP_RET_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.VIP_RET_PROFIT_AMT_LCL VIP_RET_PROFIT_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.VIP_RET_MANUAL_MKDN_AMT_LCL VIP_RET_MANUAL_MKDN_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.VIP_RET_MANUAL_MKUP_AMT_LCL VIP_RET_MANUAL_MKUP_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.VIP_RET_TAX_AMT_LCL VIP_RET_TAX_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.VIP_RET_EMP_DISC_AMT_LCL VIP_RET_EMP_DISC_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.VIP_RET_MANUAL_COUNT VIP_RET_MANUAL_COUNT,
+ W_RTL_SLS_IT_LC_DY_TMP.VIP_RET_SCAN_COUNT VIP_RET_SCAN_COUNT
+  ,W_RTL_SLS_IT_LC_DY_TMP.SLS_QTY SLS_QTY,
+ W_RTL_SLS_IT_LC_DY_TMP.SLS_AMT_LCL SLS_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.SLS_PROFIT_AMT_LCL SLS_PROFIT_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.SLS_MANUAL_MKDN_AMT_LCL SLS_MANUAL_MKDN_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.SLS_MANUAL_MKUP_AMT_LCL SLS_MANUAL_MKUP_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.SLS_TAX_AMT_LCL SLS_TAX_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.SLS_EMP_DISC_AMT_LCL SLS_EMP_DISC_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.SLS_MANUAL_COUNT SLS_MANUAL_COUNT,
+ W_RTL_SLS_IT_LC_DY_TMP.SLS_SCAN_COUNT SLS_SCAN_COUNT,
+ W_RTL_SLS_IT_LC_DY_TMP.RET_QTY RET_QTY,
+ W_RTL_SLS_IT_LC_DY_TMP.RET_AMT_LCL RET_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.RET_PROFIT_AMT_LCL RET_PROFIT_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.RET_MANUAL_MKDN_AMT_LCL RET_MANUAL_MKDN_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.RET_MANUAL_MKUP_AMT_LCL RET_MANUAL_MKUP_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.RET_TAX_AMT_LCL RET_TAX_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.RET_EMP_DISC_AMT_LCL RET_EMP_DISC_AMT_LCL,
+ W_RTL_SLS_IT_LC_DY_TMP.RET_MANUAL_COUNT RET_MANUAL_COUNT,
+ W_RTL_SLS_IT_LC_DY_TMP.RET_SCAN_COUNT RET_SCAN_COUNT
+  From RABATCHER.W_RTL_SLS_IT_LC_DY_TMP   W_RTL_SLS_IT_LC_DY_TMP
+        Where (1=1)
+  ) S
+ on (
+   T.PROD_WID=S.PROD_WID
+ and  T.ORG_WID=S.ORG_WID
+ and  T.DT_WID=S.DT_WID
+ and  T.VOUCHER_FLG=S.VOUCHER_FLG
+ and  T.RTL_TYPE_WID=S.RTL_TYPE_WID
+ and  T.BBG_ITEM_LOC_WID=S.BBG_ITEM_LOC_WID
+ and  T.BBG_RETAIL_TYPE_WID=S.BBG_RETAIL_TYPE_WID
+  )
+ when matched
+ then update set
+  T.PROD_SCD1_WID = S.PROD_SCD1_WID,
+ T.ORG_SCD1_WID = S.ORG_SCD1_WID,
+ T.ORG_DH_WID = S.ORG_DH_WID,
+ T.EMPLOYEE_WID = S.EMPLOYEE_WID,
+ T.RTL_TYPE_CODE = S.RTL_TYPE_CODE,
+ T.DATASOURCE_NUM_ID = S.DATASOURCE_NUM_ID,
+ T.DELETE_FLG = S.DELETE_FLG,
+ T.DOC_CURR_CODE = S.DOC_CURR_CODE,
+ T.ETL_PROC_WID = S.ETL_PROC_WID,
+ T.GLOBAL1_EXCHANGE_RATE = S.GLOBAL1_EXCHANGE_RATE,
+ T.GLOBAL2_EXCHANGE_RATE = S.GLOBAL2_EXCHANGE_RATE,
+ T.GLOBAL3_EXCHANGE_RATE = S.GLOBAL3_EXCHANGE_RATE,
+ T.INTEGRATION_ID = S.INTEGRATION_ID,
+ T.LOC_CURR_CODE = S.LOC_CURR_CODE,
+ T.LOC_EXCHANGE_RATE = S.LOC_EXCHANGE_RATE,
+ T.TENANT_ID = S.TENANT_ID,
+ T.W_INSERT_DT = S.W_INSERT_DT,
+ T.W_UPDATE_DT = S.W_UPDATE_DT,
+ T.X_CUSTOM = S.X_CUSTOM,
+ T.BBG_CUSTOMER_COUNT = S.BBG_CUSTOMER_COUNT,
+ T.BBG_SERVICE_SATISFACTION = S.BBG_SERVICE_SATISFACTION,
+ T.BBG_REFERENCE_DO1 = S.BBG_REFERENCE_DO1,
+ T.BBG_REFERENCE_DO2 = S.BBG_REFERENCE_DO2,
+ T.BBG_REFERENCE_DO3 = S.BBG_REFERENCE_DO3,
+ T.BBG_REFERENCE_DO4 = S.BBG_REFERENCE_DO4,
+ T.BBG_REFERENCE_DO5 = S.BBG_REFERENCE_DO5,
+ T.BBG_REFERENCE_FO1 = S.BBG_REFERENCE_FO1,
+ T.BBG_REFERENCE_FO2 = S.BBG_REFERENCE_FO2,
+ T.BBG_REFERENCE_FO3 = S.BBG_REFERENCE_FO3,
+ T.BBG_REFERENCE_FO4 = S.BBG_REFERENCE_FO4,
+ T.BBG_REFERENCE_FO5 = S.BBG_REFERENCE_FO5,
+ T.BBG_REFERENCE_FO6 = S.BBG_REFERENCE_FO6,
+ T.BBG_REFERENCE_FO7 = S.BBG_REFERENCE_FO7,
+ T.BBG_REFERENCE_FO8 = S.BBG_REFERENCE_FO8,
+ T.BBG_REFERENCE_FO9 = S.BBG_REFERENCE_FO9,
+ T.BBG_REFERENCE_FO10 = S.BBG_REFERENCE_FO10,
+ T.VIP_SLS_QTY = S.VIP_SLS_QTY,
+ T.VIP_SLS_AMT_LCL = S.VIP_SLS_AMT_LCL,
+ T.VIP_SLS_PROFIT_AMT_LCL = S.VIP_SLS_PROFIT_AMT_LCL,
+ T.VIP_SLS_MANUAL_MKDN_AMT_LCL = S.VIP_SLS_MANUAL_MKDN_AMT_LCL,
+ T.VIP_SLS_MANUAL_MKUP_AMT_LCL = S.VIP_SLS_MANUAL_MKUP_AMT_LCL,
+ T.VIP_SLS_TAX_AMT_LCL = S.VIP_SLS_TAX_AMT_LCL,
+ T.VIP_SLS_EMP_DISC_AMT_LCL = S.VIP_SLS_EMP_DISC_AMT_LCL,
+ T.VIP_SLS_MANUAL_COUNT = S.VIP_SLS_MANUAL_COUNT,
+ T.VIP_SLS_SCAN_COUNT = S.VIP_SLS_SCAN_COUNT,
+ T.VIP_RET_QTY = S.VIP_RET_QTY,
+ T.VIP_RET_AMT_LCL = S.VIP_RET_AMT_LCL,
+ T.VIP_RET_PROFIT_AMT_LCL = S.VIP_RET_PROFIT_AMT_LCL,
+ T.VIP_RET_MANUAL_MKDN_AMT_LCL = S.VIP_RET_MANUAL_MKDN_AMT_LCL,
+ T.VIP_RET_MANUAL_MKUP_AMT_LCL = S.VIP_RET_MANUAL_MKUP_AMT_LCL,
+ T.VIP_RET_TAX_AMT_LCL = S.VIP_RET_TAX_AMT_LCL,
+ T.VIP_RET_EMP_DISC_AMT_LCL = S.VIP_RET_EMP_DISC_AMT_LCL,
+ T.VIP_RET_MANUAL_COUNT = S.VIP_RET_MANUAL_COUNT,
+ T.VIP_RET_SCAN_COUNT = S.VIP_RET_SCAN_COUNT
+  ,T.SLS_QTY = S.SLS_QTY + T.SLS_QTY,
+ T.SLS_AMT_LCL = S.SLS_AMT_LCL + T.SLS_AMT_LCL,
+ T.SLS_PROFIT_AMT_LCL = S.SLS_PROFIT_AMT_LCL + T.SLS_PROFIT_AMT_LCL,
+ T.SLS_MANUAL_MKDN_AMT_LCL = S.SLS_MANUAL_MKDN_AMT_LCL + T.SLS_MANUAL_MKDN_AMT_LCL,
+ T.SLS_MANUAL_MKUP_AMT_LCL = S.SLS_MANUAL_MKUP_AMT_LCL + T.SLS_MANUAL_MKUP_AMT_LCL,
+ T.SLS_TAX_AMT_LCL = S.SLS_TAX_AMT_LCL + T.SLS_TAX_AMT_LCL,
+ T.SLS_EMP_DISC_AMT_LCL = S.SLS_EMP_DISC_AMT_LCL + T.SLS_EMP_DISC_AMT_LCL,
+ T.SLS_MANUAL_COUNT = S.SLS_MANUAL_COUNT + T.SLS_MANUAL_COUNT,
+ T.SLS_SCAN_COUNT = S.SLS_SCAN_COUNT + T.SLS_SCAN_COUNT,
+ T.RET_QTY = S.RET_QTY + T.RET_QTY,
+ T.RET_AMT_LCL = S.RET_AMT_LCL + T.RET_AMT_LCL,
+ T.RET_PROFIT_AMT_LCL = S.RET_PROFIT_AMT_LCL + T.RET_PROFIT_AMT_LCL,
+ T.RET_MANUAL_MKDN_AMT_LCL = S.RET_MANUAL_MKDN_AMT_LCL + T.RET_MANUAL_MKDN_AMT_LCL,
+ T.RET_MANUAL_MKUP_AMT_LCL = S.RET_MANUAL_MKUP_AMT_LCL + T.RET_MANUAL_MKUP_AMT_LCL,
+ T.RET_TAX_AMT_LCL = S.RET_TAX_AMT_LCL + T.RET_TAX_AMT_LCL,
+ T.RET_EMP_DISC_AMT_LCL = S.RET_EMP_DISC_AMT_LCL + T.RET_EMP_DISC_AMT_LCL,
+ T.RET_MANUAL_COUNT = S.RET_MANUAL_COUNT + T.RET_MANUAL_COUNT,
+ T.RET_SCAN_COUNT = S.RET_SCAN_COUNT + T.RET_SCAN_COUNT
+ when not matched
+ then insert
+  (
+  T.ROW_WID
+                ,T.PROD_WID,
+ T.PROD_SCD1_WID,
+ T.ORG_WID,
+ T.ORG_SCD1_WID,
+ T.ORG_DH_WID,
+ T.DT_WID,
+ T.VOUCHER_FLG,
+ T.RTL_TYPE_WID,
+ T.EMPLOYEE_WID,
+ T.SLS_QTY,
+ T.SLS_AMT_LCL,
+ T.SLS_PROFIT_AMT_LCL,
+ T.SLS_MANUAL_MKDN_AMT_LCL,
+ T.SLS_MANUAL_MKUP_AMT_LCL,
+ T.SLS_TAX_AMT_LCL,
+ T.SLS_EMP_DISC_AMT_LCL,
+ T.SLS_MANUAL_COUNT,
+ T.SLS_SCAN_COUNT,
+ T.RET_QTY,
+ T.RET_AMT_LCL,
+ T.RET_PROFIT_AMT_LCL,
+ T.RET_MANUAL_MKDN_AMT_LCL,
+ T.RET_MANUAL_MKUP_AMT_LCL,
+ T.RET_TAX_AMT_LCL,
+ T.RET_EMP_DISC_AMT_LCL,
+ T.RET_MANUAL_COUNT,
+ T.RET_SCAN_COUNT,
+ T.RTL_TYPE_CODE,
+ T.DATASOURCE_NUM_ID,
+ T.DELETE_FLG,
+ T.DOC_CURR_CODE,
+ T.ETL_PROC_WID,
+ T.GLOBAL1_EXCHANGE_RATE,
+ T.GLOBAL2_EXCHANGE_RATE,
+ T.GLOBAL3_EXCHANGE_RATE,
+ T.INTEGRATION_ID,
+ T.LOC_CURR_CODE,
+ T.LOC_EXCHANGE_RATE,
+ T.TENANT_ID,
+ T.W_INSERT_DT,
+ T.W_UPDATE_DT,
+ T.X_CUSTOM,
+ T.BBG_ITEM_LOC_WID,
+ T.BBG_RETAIL_TYPE_WID,
+ T.BBG_CUSTOMER_COUNT,
+ T.BBG_SERVICE_SATISFACTION,
+ T.BBG_REFERENCE_DO1,
+ T.BBG_REFERENCE_DO2,
+ T.BBG_REFERENCE_DO3,
+ T.BBG_REFERENCE_DO4,
+ T.BBG_REFERENCE_DO5,
+ T.BBG_REFERENCE_FO1,
+ T.BBG_REFERENCE_FO2,
+ T.BBG_REFERENCE_FO3,
+ T.BBG_REFERENCE_FO4,
+ T.BBG_REFERENCE_FO5,
+ T.BBG_REFERENCE_FO6,
+ T.BBG_REFERENCE_FO7,
+ T.BBG_REFERENCE_FO8,
+ T.BBG_REFERENCE_FO9,
+ T.BBG_REFERENCE_FO10,
+ T.VIP_SLS_QTY,
+ T.VIP_SLS_AMT_LCL,
+ T.VIP_SLS_PROFIT_AMT_LCL,
+ T.VIP_SLS_MANUAL_MKDN_AMT_LCL,
+ T.VIP_SLS_MANUAL_MKUP_AMT_LCL,
+ T.VIP_SLS_TAX_AMT_LCL,
+ T.VIP_SLS_EMP_DISC_AMT_LCL,
+ T.VIP_SLS_MANUAL_COUNT,
+ T.VIP_SLS_SCAN_COUNT,
+ T.VIP_RET_QTY,
+ T.VIP_RET_AMT_LCL,
+ T.VIP_RET_PROFIT_AMT_LCL,
+ T.VIP_RET_MANUAL_MKDN_AMT_LCL,
+ T.VIP_RET_MANUAL_MKUP_AMT_LCL,
+ T.VIP_RET_TAX_AMT_LCL,
+ T.VIP_RET_EMP_DISC_AMT_LCL,
+ T.VIP_RET_MANUAL_COUNT,
+ T.VIP_RET_SCAN_COUNT
+  )
+ values
+  (
+  RADM.W_RTL_SLS_IT_LC_DY_A_SEQ.nextval
+  ,S.PROD_WID,
+ S.PROD_SCD1_WID,
+ S.ORG_WID,
+ S.ORG_SCD1_WID,
+ S.ORG_DH_WID,
+ S.DT_WID,
+ S.VOUCHER_FLG,
+ S.RTL_TYPE_WID,
+ S.EMPLOYEE_WID,
+ S.SLS_QTY,
+ S.SLS_AMT_LCL,
+ S.SLS_PROFIT_AMT_LCL,
+ S.SLS_MANUAL_MKDN_AMT_LCL,
+ S.SLS_MANUAL_MKUP_AMT_LCL,
+ S.SLS_TAX_AMT_LCL,
+ S.SLS_EMP_DISC_AMT_LCL,
+ S.SLS_MANUAL_COUNT,
+ S.SLS_SCAN_COUNT,
+ S.RET_QTY,
+ S.RET_AMT_LCL,
+ S.RET_PROFIT_AMT_LCL,
+ S.RET_MANUAL_MKDN_AMT_LCL,
+ S.RET_MANUAL_MKUP_AMT_LCL,
+ S.RET_TAX_AMT_LCL,
+ S.RET_EMP_DISC_AMT_LCL,
+ S.RET_MANUAL_COUNT,
+ S.RET_SCAN_COUNT,
+ S.RTL_TYPE_CODE,
+ S.DATASOURCE_NUM_ID,
+ S.DELETE_FLG,
+ S.DOC_CURR_CODE,
+ S.ETL_PROC_WID,
+ S.GLOBAL1_EXCHANGE_RATE,
+ S.GLOBAL2_EXCHANGE_RATE,
+ S.GLOBAL3_EXCHANGE_RATE,
+ S.INTEGRATION_ID,
+ S.LOC_CURR_CODE,
+ S.LOC_EXCHANGE_RATE,
+ S.TENANT_ID,
+ S.W_INSERT_DT,
+ S.W_UPDATE_DT,
+ S.X_CUSTOM,
+ S.BBG_ITEM_LOC_WID,
+ S.BBG_RETAIL_TYPE_WID,
+ S.BBG_CUSTOMER_COUNT,
+ S.BBG_SERVICE_SATISFACTION,
+ S.BBG_REFERENCE_DO1,
+ S.BBG_REFERENCE_DO2,
+ S.BBG_REFERENCE_DO3,
+ S.BBG_REFERENCE_DO4,
+ S.BBG_REFERENCE_DO5,
+ S.BBG_REFERENCE_FO1,
+ S.BBG_REFERENCE_FO2,
+ S.BBG_REFERENCE_FO3,
+ S.BBG_REFERENCE_FO4,
+ S.BBG_REFERENCE_FO5,
+ S.BBG_REFERENCE_FO6,
+ S.BBG_REFERENCE_FO7,
+ S.BBG_REFERENCE_FO8,
+ S.BBG_REFERENCE_FO9,
+ S.BBG_REFERENCE_FO10,
+ S.VIP_SLS_QTY,
+ S.VIP_SLS_AMT_LCL,
+ S.VIP_SLS_PROFIT_AMT_LCL,
+ S.VIP_SLS_MANUAL_MKDN_AMT_LCL,
+ S.VIP_SLS_MANUAL_MKUP_AMT_LCL,
+ S.VIP_SLS_TAX_AMT_LCL,
+ S.VIP_SLS_EMP_DISC_AMT_LCL,
+ S.VIP_SLS_MANUAL_COUNT,
+ S.VIP_SLS_SCAN_COUNT,
+ S.VIP_RET_QTY,
+ S.VIP_RET_AMT_LCL,
+ S.VIP_RET_PROFIT_AMT_LCL,
+ S.VIP_RET_MANUAL_MKDN_AMT_LCL,
+ S.VIP_RET_MANUAL_MKUP_AMT_LCL,
+ S.VIP_RET_TAX_AMT_LCL,
+ S.VIP_RET_EMP_DISC_AMT_LCL,
+ S.VIP_RET_MANUAL_COUNT,
+ S.VIP_RET_SCAN_COUNT
+ )
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -4910,11 +5263,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5329,6 +5682,34 @@
       </c>
       <c r="F26" s="6" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="17">
+        <v>42227.379571759258</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17">
+        <v>42227.386250000003</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Task/2015-05-18_BBG_ETL_MONTH_DATA改写月汇总_MERGE/BBG_ETL_MONTH_DATA报错记录分析_20150629.xlsx
+++ b/Task/2015-05-18_BBG_ETL_MONTH_DATA改写月汇总_MERGE/BBG_ETL_MONTH_DATA报错记录分析_20150629.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1221,213 +1221,6 @@
   </si>
   <si>
     <t>郭迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MERGE /*+APPEND*/
-INTO RADM.W_RTL_SLS_SC_LC_MN_CUR_A T
-USING (SELECT 
-        PROD_DH_WID,
-        ORG_WID,
-        max(ORG_SCD1_WID) ORG_SCD1_WID,
-        max(ORG_DH_WID) ORG_DH_WID,
-        SUBSTR(TO_CHAR(DT_WID), 2, 6) MN_WID,
-        RTL_TYPE_WID,
-        SUM(NVL(SLS_QTY, 0)) SLS_QTY,
-        SUM(NVL(SLS_AMT_LCL, 0)) SLS_AMT_LCL,
-        SUM(NVL(SLS_PROFIT_AMT_LCL, 0)) SLS_PROFIT_AMT_LCL,
-        SUM(NVL(SLS_MANUAL_MKDN_AMT_LCL, 0)) SLS_MANUAL_MKDN_AMT_LCL,
-        SUM(NVL(SLS_MANUAL_MKUP_AMT_LCL, 0)) SLS_MANUAL_MKUP_AMT_LCL,
-        SUM(NVL(SLS_TAX_AMT_LCL, 0)) SLS_TAX_AMT_LCL,
-        SUM(NVL(SLS_EMP_DISC_AMT_LCL, 0)) SLS_EMP_DISC_AMT_LCL,
-        SUM(NVL(SLS_MANUAL_COUNT, 0)) SLS_MANUAL_COUNT,
-        SUM(NVL(SLS_SCAN_COUNT, 0)) SLS_SCAN_COUNT,
-        SUM(NVL(RET_QTY, 0)) RET_QTY,
-        SUM(NVL(RET_AMT_LCL, 0)) RET_AMT_LCL,
-        SUM(NVL(RET_PROFIT_AMT_LCL, 0)) RET_PROFIT_AMT_LCL,
-        SUM(NVL(RET_MANUAL_MKDN_AMT_LCL, 0)) RET_MANUAL_MKDN_AMT_LCL,
-        SUM(NVL(RET_MANUAL_MKUP_AMT_LCL, 0)) RET_MANUAL_MKUP_AMT_LCL,
-        SUM(NVL(RET_TAX_AMT_LCL, 0)) RET_TAX_AMT_LCL,
-        SUM(NVL(RET_EMP_DISC_AMT_LCL, 0)) RET_EMP_DISC_AMT_LCL,
-        SUM(NVL(RET_MANUAL_COUNT, 0)) RET_MANUAL_COUNT,
-        SUM(NVL(RET_SCAN_COUNT, 0)) RET_SCAN_COUNT,
-        max(SUBSTR(INTEGRATION_ID, 1, INSTR(INTEGRATION_ID, '~', 1, 1)) ||
-            SUBSTR(INTEGRATION_ID,
-                   INSTR(INTEGRATION_ID, '~', 1, 1) + 1,
-                   INSTR(INTEGRATION_ID, '~', 1, 2) -
-                   INSTR(INTEGRATION_ID, '~', 1, 1)) ||
-            SUBSTR(TO_CHAR(DT_WID), 2, 6) ||
-            SUBSTR(INTEGRATION_ID,
-                   INSTR(INTEGRATION_ID, '~', 1, 3),
-                   LENGTH(INTEGRATION_ID) - INSTR(INTEGRATION_ID, '~', 1, 3) + 1)) INTEGRATION_ID,
-        max(GLOBAL1_EXCHANGE_RATE) GLOBAL1_EXCHANGE_RATE,
-        max(GLOBAL2_EXCHANGE_RATE) GLOBAL2_EXCHANGE_RATE,
-        max(GLOBAL3_EXCHANGE_RATE) GLOBAL3_EXCHANGE_RATE,
-        max(LOC_EXCHANGE_RATE) LOC_EXCHANGE_RATE,
-        BBG_RETAIL_TYPE_WID,
-        SUM(NVL(BBG_CUSTOMER_COUNT, 0)) BBG_CUSTOMER_COUNT,
-        SUM(NVL(BBG_SERVICE_SATISFACTION, 0)) BBG_SERVICE_SATISFACTION,
-        SYSDATE W_INSERT_DT,
-        SYSDATE W_UPDATE_DT,
-        max(BBG_REFERENCE_DO1) BBG_REFERENCE_DO1,
-        max(BBG_REFERENCE_DO2) BBG_REFERENCE_DO2,
-        max(BBG_REFERENCE_DO3) BBG_REFERENCE_DO3,
-        max(BBG_REFERENCE_DO4) BBG_REFERENCE_DO4,
-        max(BBG_REFERENCE_DO5) BBG_REFERENCE_DO5,
-        SUM(BBG_REFERENCE_FO1) BBG_REFERENCE_FO1,
-        SUM(BBG_REFERENCE_FO2) BBG_REFERENCE_FO2,
-        SUM(BBG_REFERENCE_FO3) BBG_REFERENCE_FO3,
-        SUM(BBG_REFERENCE_FO4) BBG_REFERENCE_FO4,
-        SUM(BBG_REFERENCE_FO5) BBG_REFERENCE_FO5,
-        SUM(BBG_REFERENCE_FO6) BBG_REFERENCE_FO6,
-        SUM(BBG_REFERENCE_FO7) BBG_REFERENCE_FO7,
-        SUM(BBG_REFERENCE_FO8) BBG_REFERENCE_FO8,
-        SUM(BBG_REFERENCE_FO9) BBG_REFERENCE_FO9,
-        SUM(BBG_REFERENCE_FO10) BBG_REFERENCE_FO10
-         FROM RADM.W_RTL_SLS_SC_LC_DY_CUR_A
-        WHERE DT_WID &gt;=
-              '1' || TO_CHAR(TRUNC(SYSDATE - 1, 'month'), 'YYYYMMDD') ||
-              '000'
-        GROUP BY PROD_DH_WID,
-                 ORG_WID,
-                 SUBSTR(TO_CHAR(DT_WID), 2, 6),
-                 RTL_TYPE_WID,
-                 BBG_RETAIL_TYPE_WID) S
-ON (T.PROD_DH_WID = S.PROD_DH_WID AND T.ORG_WID = S.ORG_WID AND T.MN_WID = S.MN_WID AND T.RTL_TYPE_WID = S.RTL_TYPE_WID AND T.BBG_RETAIL_TYPE_WID = S.BBG_RETAIL_TYPE_WID)
-WHEN MATCHED THEN
-  UPDATE
-     SET T.SLS_QTY                  = S.SLS_QTY,
-         T.SLS_AMT_LCL              = S.SLS_AMT_LCL,
-         T.SLS_PROFIT_AMT_LCL       = S.SLS_PROFIT_AMT_LCL,
-         T.SLS_MANUAL_MKDN_AMT_LCL  = S.SLS_MANUAL_MKDN_AMT_LCL,
-         T.SLS_MANUAL_MKUP_AMT_LCL  = S.SLS_MANUAL_MKUP_AMT_LCL,
-         T.SLS_TAX_AMT_LCL          = S.SLS_TAX_AMT_LCL,
-         T.SLS_EMP_DISC_AMT_LCL     = S.SLS_EMP_DISC_AMT_LCL,
-         T.SLS_MANUAL_COUNT         = S.SLS_MANUAL_COUNT,
-         T.SLS_SCAN_COUNT           = S.SLS_SCAN_COUNT,
-         T.RET_QTY                  = S.RET_QTY,
-         T.RET_AMT_LCL              = S.RET_AMT_LCL,
-         T.RET_PROFIT_AMT_LCL       = S.RET_PROFIT_AMT_LCL,
-         T.RET_MANUAL_MKDN_AMT_LCL  = S.RET_MANUAL_MKDN_AMT_LCL,
-         T.RET_MANUAL_MKUP_AMT_LCL  = S.RET_MANUAL_MKUP_AMT_LCL,
-         T.RET_TAX_AMT_LCL          = S.RET_TAX_AMT_LCL,
-         T.RET_EMP_DISC_AMT_LCL     = S.RET_EMP_DISC_AMT_LCL,
-         T.RET_MANUAL_COUNT         = S.RET_MANUAL_COUNT,
-         T.RET_SCAN_COUNT           = S.RET_SCAN_COUNT,
-         T.BBG_CUSTOMER_COUNT       = S.BBG_CUSTOMER_COUNT,
-         T.BBG_SERVICE_SATISFACTION = S.BBG_SERVICE_SATISFACTION,
-         T.W_UPDATE_DT              = S.W_UPDATE_DT,
-         T.BBG_REFERENCE_FO1        = S.BBG_REFERENCE_FO1,
-         T.BBG_REFERENCE_FO2        = S.BBG_REFERENCE_FO2,
-         T.BBG_REFERENCE_FO3        = S.BBG_REFERENCE_FO3,
-         T.BBG_REFERENCE_FO4        = S.BBG_REFERENCE_FO4,
-         T.BBG_REFERENCE_FO5        = S.BBG_REFERENCE_FO5,
-         T.BBG_REFERENCE_FO6        = S.BBG_REFERENCE_FO6,
-         T.BBG_REFERENCE_FO7        = S.BBG_REFERENCE_FO7,
-         T.BBG_REFERENCE_FO8        = S.BBG_REFERENCE_FO8,
-         T.BBG_REFERENCE_FO9        = S.BBG_REFERENCE_FO9,
-         T.BBG_REFERENCE_FO10       = S.BBG_REFERENCE_FO10
-WHEN NOT MATCHED THEN
-  INSERT
-    (T.PROD_DH_WID,
-     T.ORG_WID,
-     T.ORG_SCD1_WID,
-     T.ORG_DH_WID,
-     T.MN_WID,
-     T.RTL_TYPE_WID,
-     T.SLS_QTY,
-     T.SLS_AMT_LCL,
-     T.SLS_PROFIT_AMT_LCL,
-     T.SLS_MANUAL_MKDN_AMT_LCL,
-     T.SLS_MANUAL_MKUP_AMT_LCL,
-     T.SLS_TAX_AMT_LCL,
-     T.SLS_EMP_DISC_AMT_LCL,
-     T.SLS_MANUAL_COUNT,
-     T.SLS_SCAN_COUNT,
-     T.RET_QTY,
-     T.RET_AMT_LCL,
-     T.RET_PROFIT_AMT_LCL,
-     T.RET_MANUAL_MKDN_AMT_LCL,
-     T.RET_MANUAL_MKUP_AMT_LCL,
-     T.RET_TAX_AMT_LCL,
-     T.RET_EMP_DISC_AMT_LCL,
-     T.RET_MANUAL_COUNT,
-     T.RET_SCAN_COUNT,
-     T.INTEGRATION_ID,
-     T.GLOBAL1_EXCHANGE_RATE,
-     T.GLOBAL2_EXCHANGE_RATE,
-     T.GLOBAL3_EXCHANGE_RATE,
-     T.LOC_EXCHANGE_RATE,
-     T.BBG_RETAIL_TYPE_WID,
-     T.BBG_CUSTOMER_COUNT,
-     T.BBG_SERVICE_SATISFACTION,
-     T.W_INSERT_DT,
-     T.W_UPDATE_DT,
-     T.BBG_REFERENCE_DO1,
-     T.BBG_REFERENCE_DO2,
-     T.BBG_REFERENCE_DO3,
-     T.BBG_REFERENCE_DO4,
-     T.BBG_REFERENCE_DO5,
-     T.BBG_REFERENCE_FO1,
-     T.BBG_REFERENCE_FO2,
-     T.BBG_REFERENCE_FO3,
-     T.BBG_REFERENCE_FO4,
-     T.BBG_REFERENCE_FO5,
-     T.BBG_REFERENCE_FO6,
-     T.BBG_REFERENCE_FO7,
-     T.BBG_REFERENCE_FO8,
-     T.BBG_REFERENCE_FO9,
-     T.BBG_REFERENCE_FO10)
-  VALUES
-    (S.PROD_DH_WID,
-     S.ORG_WID,
-     S.ORG_SCD1_WID,
-     S.ORG_DH_WID,
-     S.MN_WID,
-     S.RTL_TYPE_WID,
-     S.SLS_QTY,
-     S.SLS_AMT_LCL,
-     S.SLS_PROFIT_AMT_LCL,
-     S.SLS_MANUAL_MKDN_AMT_LCL,
-     S.SLS_MANUAL_MKUP_AMT_LCL,
-     S.SLS_TAX_AMT_LCL,
-     S.SLS_EMP_DISC_AMT_LCL,
-     S.SLS_MANUAL_COUNT,
-     S.SLS_SCAN_COUNT,
-     S.RET_QTY,
-     S.RET_AMT_LCL,
-     S.RET_PROFIT_AMT_LCL,
-     S.RET_MANUAL_MKDN_AMT_LCL,
-     S.RET_MANUAL_MKUP_AMT_LCL,
-     S.RET_TAX_AMT_LCL,
-     S.RET_EMP_DISC_AMT_LCL,
-     S.RET_MANUAL_COUNT,
-     S.RET_SCAN_COUNT,
-     S.INTEGRATION_ID,
-     S.GLOBAL1_EXCHANGE_RATE,
-     S.GLOBAL2_EXCHANGE_RATE,
-     S.GLOBAL3_EXCHANGE_RATE,
-     S.LOC_EXCHANGE_RATE,
-     S.BBG_RETAIL_TYPE_WID,
-     S.BBG_CUSTOMER_COUNT,
-     S.BBG_SERVICE_SATISFACTION,
-     S.W_INSERT_DT,
-     S.W_UPDATE_DT,
-     S.BBG_REFERENCE_DO1,
-     S.BBG_REFERENCE_DO2,
-     S.BBG_REFERENCE_DO3,
-     S.BBG_REFERENCE_DO4,
-     S.BBG_REFERENCE_DO5,
-     S.BBG_REFERENCE_FO1,
-     S.BBG_REFERENCE_FO2,
-     S.BBG_REFERENCE_FO3,
-     S.BBG_REFERENCE_FO4,
-     S.BBG_REFERENCE_FO5,
-     S.BBG_REFERENCE_FO6,
-     S.BBG_REFERENCE_FO7,
-     S.BBG_REFERENCE_FO8,
-     S.BBG_REFERENCE_FO9,
-     S.BBG_REFERENCE_FO10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4818,6 +4611,594 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>MERGE /*+APPEND*/
+INTO RADM.W_RTL_SLS_SC_LC_MN_CUR_A T
+USING (SELECT 
+        PROD_DH_WID,
+        ORG_WID,
+        max(ORG_SCD1_WID) ORG_SCD1_WID,
+        max(ORG_DH_WID) ORG_DH_WID,
+        SUBSTR(TO_CHAR(DT_WID), 2, 6) MN_WID,
+        RTL_TYPE_WID,
+        SUM(NVL(SLS_QTY, 0)) SLS_QTY,
+        SUM(NVL(SLS_AMT_LCL, 0)) SLS_AMT_LCL,
+        SUM(NVL(SLS_PROFIT_AMT_LCL, 0)) SLS_PROFIT_AMT_LCL,
+        SUM(NVL(SLS_MANUAL_MKDN_AMT_LCL, 0)) SLS_MANUAL_MKDN_AMT_LCL,
+        SUM(NVL(SLS_MANUAL_MKUP_AMT_LCL, 0)) SLS_MANUAL_MKUP_AMT_LCL,
+        SUM(NVL(SLS_TAX_AMT_LCL, 0)) SLS_TAX_AMT_LCL,
+        SUM(NVL(SLS_EMP_DISC_AMT_LCL, 0)) SLS_EMP_DISC_AMT_LCL,
+        SUM(NVL(SLS_MANUAL_COUNT, 0)) SLS_MANUAL_COUNT,
+        SUM(NVL(SLS_SCAN_COUNT, 0)) SLS_SCAN_COUNT,
+        SUM(NVL(RET_QTY, 0)) RET_QTY,
+        SUM(NVL(RET_AMT_LCL, 0)) RET_AMT_LCL,
+        SUM(NVL(RET_PROFIT_AMT_LCL, 0)) RET_PROFIT_AMT_LCL,
+        SUM(NVL(RET_MANUAL_MKDN_AMT_LCL, 0)) RET_MANUAL_MKDN_AMT_LCL,
+        SUM(NVL(RET_MANUAL_MKUP_AMT_LCL, 0)) RET_MANUAL_MKUP_AMT_LCL,
+        SUM(NVL(RET_TAX_AMT_LCL, 0)) RET_TAX_AMT_LCL,
+        SUM(NVL(RET_EMP_DISC_AMT_LCL, 0)) RET_EMP_DISC_AMT_LCL,
+        SUM(NVL(RET_MANUAL_COUNT, 0)) RET_MANUAL_COUNT,
+        SUM(NVL(RET_SCAN_COUNT, 0)) RET_SCAN_COUNT,
+        max(SUBSTR(INTEGRATION_ID, 1, INSTR(INTEGRATION_ID, '~', 1, 1)) ||
+            SUBSTR(INTEGRATION_ID,
+                   INSTR(INTEGRATION_ID, '~', 1, 1) + 1,
+                   INSTR(INTEGRATION_ID, '~', 1, 2) -
+                   INSTR(INTEGRATION_ID, '~', 1, 1)) ||
+            SUBSTR(TO_CHAR(DT_WID), 2, 6) ||
+            SUBSTR(INTEGRATION_ID,
+                   INSTR(INTEGRATION_ID, '~', 1, 3),
+                   LENGTH(INTEGRATION_ID) - INSTR(INTEGRATION_ID, '~', 1, 3) + 1)) INTEGRATION_ID,
+        max(GLOBAL1_EXCHANGE_RATE) GLOBAL1_EXCHANGE_RATE,
+        max(GLOBAL2_EXCHANGE_RATE) GLOBAL2_EXCHANGE_RATE,
+        max(GLOBAL3_EXCHANGE_RATE) GLOBAL3_EXCHANGE_RATE,
+        max(LOC_EXCHANGE_RATE) LOC_EXCHANGE_RATE,
+        BBG_RETAIL_TYPE_WID,
+        SUM(NVL(BBG_CUSTOMER_COUNT, 0)) BBG_CUSTOMER_COUNT,
+        SUM(NVL(BBG_SERVICE_SATISFACTION, 0)) BBG_SERVICE_SATISFACTION,
+        SYSDATE W_INSERT_DT,
+        SYSDATE W_UPDATE_DT,
+        max(BBG_REFERENCE_DO1) BBG_REFERENCE_DO1,
+        max(BBG_REFERENCE_DO2) BBG_REFERENCE_DO2,
+        max(BBG_REFERENCE_DO3) BBG_REFERENCE_DO3,
+        max(BBG_REFERENCE_DO4) BBG_REFERENCE_DO4,
+        max(BBG_REFERENCE_DO5) BBG_REFERENCE_DO5,
+        SUM(BBG_REFERENCE_FO1) BBG_REFERENCE_FO1,
+        SUM(BBG_REFERENCE_FO2) BBG_REFERENCE_FO2,
+        SUM(BBG_REFERENCE_FO3) BBG_REFERENCE_FO3,
+        SUM(BBG_REFERENCE_FO4) BBG_REFERENCE_FO4,
+        SUM(BBG_REFERENCE_FO5) BBG_REFERENCE_FO5,
+        SUM(BBG_REFERENCE_FO6) BBG_REFERENCE_FO6,
+        SUM(BBG_REFERENCE_FO7) BBG_REFERENCE_FO7,
+        SUM(BBG_REFERENCE_FO8) BBG_REFERENCE_FO8,
+        SUM(BBG_REFERENCE_FO9) BBG_REFERENCE_FO9,
+        SUM(BBG_REFERENCE_FO10) BBG_REFERENCE_FO10
+         FROM RADM.W_RTL_SLS_SC_LC_DY_CUR_A
+        WHERE DT_WID &gt;=
+              '1' || TO_CHAR(TRUNC(SYSDATE - 1, 'month'), 'YYYYMMDD') ||
+              '000'
+        GROUP BY PROD_DH_WID,
+                 ORG_WID,
+                 SUBSTR(TO_CHAR(DT_WID), 2, 6),
+                 RTL_TYPE_WID,
+                 BBG_RETAIL_TYPE_WID) S
+ON (T.PROD_DH_WID = S.PROD_DH_WID AND T.ORG_WID = S.ORG_WID AND T.MN_WID = S.MN_WID AND T.RTL_TYPE_WID = S.RTL_TYPE_WID AND T.BBG_RETAIL_TYPE_WID = S.BBG_RETAIL_TYPE_WID)
+WHEN MATCHED THEN
+  UPDATE
+     SET T.SLS_QTY                  = S.SLS_QTY,
+         T.SLS_AMT_LCL              = S.SLS_AMT_LCL,
+         T.SLS_PROFIT_AMT_LCL       = S.SLS_PROFIT_AMT_LCL,
+         T.SLS_MANUAL_MKDN_AMT_LCL  = S.SLS_MANUAL_MKDN_AMT_LCL,
+         T.SLS_MANUAL_MKUP_AMT_LCL  = S.SLS_MANUAL_MKUP_AMT_LCL,
+         T.SLS_TAX_AMT_LCL          = S.SLS_TAX_AMT_LCL,
+         T.SLS_EMP_DISC_AMT_LCL     = S.SLS_EMP_DISC_AMT_LCL,
+         T.SLS_MANUAL_COUNT         = S.SLS_MANUAL_COUNT,
+         T.SLS_SCAN_COUNT           = S.SLS_SCAN_COUNT,
+         T.RET_QTY                  = S.RET_QTY,
+         T.RET_AMT_LCL              = S.RET_AMT_LCL,
+         T.RET_PROFIT_AMT_LCL       = S.RET_PROFIT_AMT_LCL,
+         T.RET_MANUAL_MKDN_AMT_LCL  = S.RET_MANUAL_MKDN_AMT_LCL,
+         T.RET_MANUAL_MKUP_AMT_LCL  = S.RET_MANUAL_MKUP_AMT_LCL,
+         T.RET_TAX_AMT_LCL          = S.RET_TAX_AMT_LCL,
+         T.RET_EMP_DISC_AMT_LCL     = S.RET_EMP_DISC_AMT_LCL,
+         T.RET_MANUAL_COUNT         = S.RET_MANUAL_COUNT,
+         T.RET_SCAN_COUNT           = S.RET_SCAN_COUNT,
+         T.BBG_CUSTOMER_COUNT       = S.BBG_CUSTOMER_COUNT,
+         T.BBG_SERVICE_SATISFACTION = S.BBG_SERVICE_SATISFACTION,
+         T.W_UPDATE_DT              = S.W_UPDATE_DT,
+         T.BBG_REFERENCE_FO1        = S.BBG_REFERENCE_FO1,
+         T.BBG_REFERENCE_FO2        = S.BBG_REFERENCE_FO2,
+         T.BBG_REFERENCE_FO3        = S.BBG_REFERENCE_FO3,
+         T.BBG_REFERENCE_FO4        = S.BBG_REFERENCE_FO4,
+         T.BBG_REFERENCE_FO5        = S.BBG_REFERENCE_FO5,
+         T.BBG_REFERENCE_FO6        = S.BBG_REFERENCE_FO6,
+         T.BBG_REFERENCE_FO7        = S.BBG_REFERENCE_FO7,
+         T.BBG_REFERENCE_FO8        = S.BBG_REFERENCE_FO8,
+         T.BBG_REFERENCE_FO9        = S.BBG_REFERENCE_FO9,
+         T.BBG_REFERENCE_FO10       = S.BBG_REFERENCE_FO10
+WHEN NOT MATCHED THEN
+  INSERT
+    (T.PROD_DH_WID,
+     T.ORG_WID,
+     T.ORG_SCD1_WID,
+     T.ORG_DH_WID,
+     T.MN_WID,
+     T.RTL_TYPE_WID,
+     T.SLS_QTY,
+     T.SLS_AMT_LCL,
+     T.SLS_PROFIT_AMT_LCL,
+     T.SLS_MANUAL_MKDN_AMT_LCL,
+     T.SLS_MANUAL_MKUP_AMT_LCL,
+     T.SLS_TAX_AMT_LCL,
+     T.SLS_EMP_DISC_AMT_LCL,
+     T.SLS_MANUAL_COUNT,
+     T.SLS_SCAN_COUNT,
+     T.RET_QTY,
+     T.RET_AMT_LCL,
+     T.RET_PROFIT_AMT_LCL,
+     T.RET_MANUAL_MKDN_AMT_LCL,
+     T.RET_MANUAL_MKUP_AMT_LCL,
+     T.RET_TAX_AMT_LCL,
+     T.RET_EMP_DISC_AMT_LCL,
+     T.RET_MANUAL_COUNT,
+     T.RET_SCAN_COUNT,
+     T.INTEGRATION_ID,
+     T.GLOBAL1_EXCHANGE_RATE,
+     T.GLOBAL2_EXCHANGE_RATE,
+     T.GLOBAL3_EXCHANGE_RATE,
+     T.LOC_EXCHANGE_RATE,
+     T.BBG_RETAIL_TYPE_WID,
+     T.BBG_CUSTOMER_COUNT,
+     T.BBG_SERVICE_SATISFACTION,
+     T.W_INSERT_DT,
+     T.W_UPDATE_DT,
+     T.BBG_REFERENCE_DO1,
+     T.BBG_REFERENCE_DO2,
+     T.BBG_REFERENCE_DO3,
+     T.BBG_REFERENCE_DO4,
+     T.BBG_REFERENCE_DO5,
+     T.BBG_REFERENCE_FO1,
+     T.BBG_REFERENCE_FO2,
+     T.BBG_REFERENCE_FO3,
+     T.BBG_REFERENCE_FO4,
+     T.BBG_REFERENCE_FO5,
+     T.BBG_REFERENCE_FO6,
+     T.BBG_REFERENCE_FO7,
+     T.BBG_REFERENCE_FO8,
+     T.BBG_REFERENCE_FO9,
+     T.BBG_REFERENCE_FO10)
+  VALUES
+    (S.PROD_DH_WID,
+     S.ORG_WID,
+     S.ORG_SCD1_WID,
+     S.ORG_DH_WID,
+     S.MN_WID,
+     S.RTL_TYPE_WID,
+     S.SLS_QTY,
+     S.SLS_AMT_LCL,
+     S.SLS_PROFIT_AMT_LCL,
+     S.SLS_MANUAL_MKDN_AMT_LCL,
+     S.SLS_MANUAL_MKUP_AMT_LCL,
+     S.SLS_TAX_AMT_LCL,
+     S.SLS_EMP_DISC_AMT_LCL,
+     S.SLS_MANUAL_COUNT,
+     S.SLS_SCAN_COUNT,
+     S.RET_QTY,
+     S.RET_AMT_LCL,
+     S.RET_PROFIT_AMT_LCL,
+     S.RET_MANUAL_MKDN_AMT_LCL,
+     S.RET_MANUAL_MKUP_AMT_LCL,
+     S.RET_TAX_AMT_LCL,
+     S.RET_EMP_DISC_AMT_LCL,
+     S.RET_MANUAL_COUNT,
+     S.RET_SCAN_COUNT,
+     S.INTEGRATION_ID,
+     S.GLOBAL1_EXCHANGE_RATE,
+     S.GLOBAL2_EXCHANGE_RATE,
+     S.GLOBAL3_EXCHANGE_RATE,
+     S.LOC_EXCHANGE_RATE,
+     S.BBG_RETAIL_TYPE_WID,
+     S.BBG_CUSTOMER_COUNT,
+     S.BBG_SERVICE_SATISFACTION,
+     S.W_INSERT_DT,
+     S.W_UPDATE_DT,
+     S.BBG_REFERENCE_DO1,
+     S.BBG_REFERENCE_DO2,
+     S.BBG_REFERENCE_DO3,
+     S.BBG_REFERENCE_DO4,
+     S.BBG_REFERENCE_DO5,
+     S.BBG_REFERENCE_FO1,
+     S.BBG_REFERENCE_FO2,
+     S.BBG_REFERENCE_FO3,
+     S.BBG_REFERENCE_FO4,
+     S.BBG_REFERENCE_FO5,
+     S.BBG_REFERENCE_FO6,
+     S.BBG_REFERENCE_FO7,
+     S.BBG_REFERENCE_FO8,
+     S.BBG_REFERENCE_FO9,
+     S.BBG_REFERENCE_FO10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIL_RetailInvPositionFactGeneral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java.sql.SQLRecoverableException: No more data to read from socket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> merge     into  
+ RADM.W_RTL_INV_IT_LC_G T 
+ using 
+  (
+  Select   
+  W_RTL_INV_IT_LC_DY_TMP.PROD_IT_WID PROD_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_SCD1_WID PROD_SCD1_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_SC_WID PROD_SC_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_CL_WID PROD_CL_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_DP_WID PROD_DP_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_GP_WID PROD_GP_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_DV_WID PROD_DV_WID,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_IT_NUM PROD_IT_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_SC_NUM PROD_SC_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_CL_NUM PROD_CL_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_DP_NUM PROD_DP_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_GP_NUM PROD_GP_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_DV_NUM PROD_DV_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_WID ORG_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_SCD1_WID ORG_SCD1_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_LC_WID ORG_DH_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_DS_WID ORG_DS_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_RG_WID ORG_RG_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_AR_WID ORG_AR_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_CH_WID ORG_CH_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_NUM ORG_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_DS_NUM ORG_DS_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_RG_NUM ORG_RG_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_AR_NUM ORG_AR_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.ORG_CH_NUM ORG_CH_NUM,
+ W_RTL_INV_IT_LC_DY_TMP.CLEARANCE_FLG CLEARANCE_FLG,
+ W_RTL_INV_IT_LC_DY_TMP.INV_REPL_FLG INV_REPL_FLG,
+ W_RTL_INV_IT_LC_DY_TMP.INV_REPL_METHOD_TYPE INV_REPL_METHOD_TYPE,
+ W_RTL_INV_IT_LC_DY_TMP.INV_REPL_INCREMENT_PCT INV_REPL_INCREMENT_PCT,
+ W_RTL_INV_IT_LC_DY_TMP.INV_SOH_QTY INV_SOH_QTY,
+ W_RTL_INV_IT_LC_DY_TMP.INV_ON_ORD_QTY INV_ON_ORD_QTY,
+ W_RTL_INV_IT_LC_DY_TMP.INV_IN_TRAN_QTY INV_IN_TRAN_QTY,
+ W_RTL_INV_IT_LC_DY_TMP.INV_MAX_SOH_QTY INV_MAX_SOH_QTY,
+ W_RTL_INV_IT_LC_DY_TMP.INV_MIN_SOH_QTY INV_MIN_SOH_QTY,
+ W_RTL_INV_IT_LC_DY_TMP.INV_UNIT_RTL_AMT_LCL INV_UNIT_RTL_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_SOH_RTL_AMT_LCL INV_SOH_RTL_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_ON_ORD_RTL_AMT_LCL INV_ON_ORD_RTL_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_IN_TRAN_RTL_AMT_LCL INV_IN_TRAN_RTL_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_MAX_SOH_RTL_AMT_LCL INV_MAX_SOH_RTL_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_MIN_SOH_RTL_AMT_LCL INV_MIN_SOH_RTL_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_AVG_COST_AMT_LCL INV_AVG_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_UNIT_COST_AMT_LCL INV_UNIT_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_SOH_COST_AMT_LCL INV_SOH_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_ON_ORD_COST_AMT_LCL INV_ON_ORD_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_IN_TRAN_COST_AMT_LCL INV_IN_TRAN_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_MAX_SOH_COST_AMT_LCL INV_MAX_SOH_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.INV_MIN_SOH_COST_AMT_LCL INV_MIN_SOH_COST_AMT_LCL,
+ W_RTL_INV_IT_LC_DY_TMP.DM_RECD_STATUS DM_RECD_STATUS,
+ W_RTL_INV_IT_LC_DY_TMP.DOC_CURR_CODE DOC_CURR_CODE,
+ W_RTL_INV_IT_LC_DY_TMP.LOC_CURR_CODE LOC_CURR_CODE,
+ W_RTL_INV_IT_LC_DY_TMP.LOC_EXCHANGE_RATE LOC_EXCHANGE_RATE,
+ W_RTL_INV_IT_LC_DY_TMP.GLOBAL1_EXCHANGE_RATE GLOBAL1_EXCHANGE_RATE,
+ W_RTL_INV_IT_LC_DY_TMP.GLOBAL2_EXCHANGE_RATE GLOBAL2_EXCHANGE_RATE,
+ W_RTL_INV_IT_LC_DY_TMP.GLOBAL3_EXCHANGE_RATE GLOBAL3_EXCHANGE_RATE,
+ W_RTL_INV_IT_LC_DY_TMP.CREATED_BY_ID CREATED_BY_WID,
+ W_RTL_INV_IT_LC_DY_TMP.CHANGED_BY_ID CHANGED_BY_WID,
+ W_RTL_INV_IT_LC_DY_TMP.CREATED_ON_DT CREATED_ON_DT,
+ W_RTL_INV_IT_LC_DY_TMP.CHANGED_ON_DT CHANGED_ON_DT,
+ W_RTL_INV_IT_LC_DY_TMP.AUX1_CHANGED_ON_DT AUX1_CHANGED_ON_DT,
+ W_RTL_INV_IT_LC_DY_TMP.AUX2_CHANGED_ON_DT AUX2_CHANGED_ON_DT,
+ W_RTL_INV_IT_LC_DY_TMP.AUX3_CHANGED_ON_DT AUX3_CHANGED_ON_DT,
+ W_RTL_INV_IT_LC_DY_TMP.AUX4_CHANGED_ON_DT AUX4_CHANGED_ON_DT,
+ W_RTL_INV_IT_LC_DY_TMP.DELETE_FLG DELETE_FLG,
+ SYSDATE W_INSERT_DT,
+ SYSDATE W_UPDATE_DT,
+ W_RTL_INV_IT_LC_DY_TMP.DATASOURCE_NUM_ID DATASOURCE_NUM_ID,
+ #RA_BI.ETL_PROC_WID ETL_PROC_WID,
+ W_RTL_INV_IT_LC_DY_TMP.ETL_THREAD_VAL ETL_THREAD_VAL,
+ W_RTL_INV_IT_LC_DY_TMP.PROD_IT_WID||'~'||W_RTL_INV_IT_LC_DY_TMP.ORG_LC_WID INTEGRATION_ID,
+ W_RTL_INV_IT_LC_DY_TMP.TENANT_ID TENANT_ID,
+ W_RTL_INV_IT_LC_DY_TMP.X_CUSTOM X_CUSTOM,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_ITEM_LOC_WID BBG_ITEM_LOC_WID,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_DO1 BBG_REFERENCE_DO1,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_DO2 BBG_REFERENCE_DO2,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_DO3 BBG_REFERENCE_DO3,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_DO4 BBG_REFERENCE_DO4,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_DO5 BBG_REFERENCE_DO5,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO1 BBG_REFERENCE_FO1,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO2 BBG_REFERENCE_FO2,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO3 BBG_REFERENCE_FO3,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO4 BBG_REFERENCE_FO4,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO5 BBG_REFERENCE_FO5,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO6 BBG_REFERENCE_FO6,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO7 BBG_REFERENCE_FO7,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO8 BBG_REFERENCE_FO8,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO9 BBG_REFERENCE_FO9,
+ W_RTL_INV_IT_LC_DY_TMP.BBG_REFERENCE_FO10 BBG_REFERENCE_FO10
+  From RABATCHER.W_RTL_INV_IT_LC_DY_TMP   W_RTL_INV_IT_LC_DY_TMP
+        Where (1=1)
+ And (W_RTL_INV_IT_LC_DY_TMP.ETL_THREAD_VAL=#RA_BI.RA_THREAD_VAL)
+  ) S
+ on (
+   T.PROD_WID=S.PROD_WID
+ and  T.ORG_WID=S.ORG_WID
+  )
+ when matched
+ then update set
+  T.PROD_SCD1_WID = S.PROD_SCD1_WID,
+ T.PROD_SC_WID = S.PROD_SC_WID,
+ T.PROD_CL_WID = S.PROD_CL_WID,
+ T.PROD_DP_WID = S.PROD_DP_WID,
+ T.PROD_GP_WID = S.PROD_GP_WID,
+ T.PROD_DV_WID = S.PROD_DV_WID,
+ T.PROD_IT_NUM = S.PROD_IT_NUM,
+ T.PROD_SC_NUM = S.PROD_SC_NUM,
+ T.PROD_CL_NUM = S.PROD_CL_NUM,
+ T.PROD_DP_NUM = S.PROD_DP_NUM,
+ T.PROD_GP_NUM = S.PROD_GP_NUM,
+ T.PROD_DV_NUM = S.PROD_DV_NUM,
+ T.ORG_SCD1_WID = S.ORG_SCD1_WID,
+ T.ORG_DH_WID = S.ORG_DH_WID,
+ T.ORG_DS_WID = S.ORG_DS_WID,
+ T.ORG_RG_WID = S.ORG_RG_WID,
+ T.ORG_AR_WID = S.ORG_AR_WID,
+ T.ORG_CH_WID = S.ORG_CH_WID,
+ T.ORG_NUM = S.ORG_NUM,
+ T.ORG_DS_NUM = S.ORG_DS_NUM,
+ T.ORG_RG_NUM = S.ORG_RG_NUM,
+ T.ORG_AR_NUM = S.ORG_AR_NUM,
+ T.ORG_CH_NUM = S.ORG_CH_NUM,
+ T.CLEARANCE_FLG = S.CLEARANCE_FLG,
+ T.INV_REPL_FLG = S.INV_REPL_FLG,
+ T.INV_REPL_METHOD_TYPE = S.INV_REPL_METHOD_TYPE,
+ T.INV_REPL_INCREMENT_PCT = S.INV_REPL_INCREMENT_PCT,
+ T.INV_SOH_QTY = S.INV_SOH_QTY,
+ T.INV_ON_ORD_QTY = S.INV_ON_ORD_QTY,
+ T.INV_IN_TRAN_QTY = S.INV_IN_TRAN_QTY,
+ T.INV_MAX_SOH_QTY = S.INV_MAX_SOH_QTY,
+ T.INV_MIN_SOH_QTY = S.INV_MIN_SOH_QTY,
+ T.INV_UNIT_RTL_AMT_LCL = S.INV_UNIT_RTL_AMT_LCL,
+ T.INV_SOH_RTL_AMT_LCL = S.INV_SOH_RTL_AMT_LCL,
+ T.INV_ON_ORD_RTL_AMT_LCL = S.INV_ON_ORD_RTL_AMT_LCL,
+ T.INV_IN_TRAN_RTL_AMT_LCL = S.INV_IN_TRAN_RTL_AMT_LCL,
+ T.INV_MAX_SOH_RTL_AMT_LCL = S.INV_MAX_SOH_RTL_AMT_LCL,
+ T.INV_MIN_SOH_RTL_AMT_LCL = S.INV_MIN_SOH_RTL_AMT_LCL,
+ T.INV_AVG_COST_AMT_LCL = S.INV_AVG_COST_AMT_LCL,
+ T.INV_UNIT_COST_AMT_LCL = S.INV_UNIT_COST_AMT_LCL,
+ T.INV_SOH_COST_AMT_LCL = S.INV_SOH_COST_AMT_LCL,
+ T.INV_ON_ORD_COST_AMT_LCL = S.INV_ON_ORD_COST_AMT_LCL,
+ T.INV_IN_TRAN_COST_AMT_LCL = S.INV_IN_TRAN_COST_AMT_LCL,
+ T.INV_MAX_SOH_COST_AMT_LCL = S.INV_MAX_SOH_COST_AMT_LCL,
+ T.INV_MIN_SOH_COST_AMT_LCL = S.INV_MIN_SOH_COST_AMT_LCL,
+ T.DM_RECD_STATUS = S.DM_RECD_STATUS,
+ T.DOC_CURR_CODE = S.DOC_CURR_CODE,
+ T.LOC_CURR_CODE = S.LOC_CURR_CODE,
+ T.LOC_EXCHANGE_RATE = S.LOC_EXCHANGE_RATE,
+ T.GLOBAL1_EXCHANGE_RATE = S.GLOBAL1_EXCHANGE_RATE,
+ T.GLOBAL2_EXCHANGE_RATE = S.GLOBAL2_EXCHANGE_RATE,
+ T.GLOBAL3_EXCHANGE_RATE = S.GLOBAL3_EXCHANGE_RATE,
+ T.CREATED_BY_WID = S.CREATED_BY_WID,
+ T.CHANGED_BY_WID = S.CHANGED_BY_WID,
+ T.CREATED_ON_DT = S.CREATED_ON_DT,
+ T.CHANGED_ON_DT = S.CHANGED_ON_DT,
+ T.AUX1_CHANGED_ON_DT = S.AUX1_CHANGED_ON_DT,
+ T.AUX2_CHANGED_ON_DT = S.AUX2_CHANGED_ON_DT,
+ T.AUX3_CHANGED_ON_DT = S.AUX3_CHANGED_ON_DT,
+ T.AUX4_CHANGED_ON_DT = S.AUX4_CHANGED_ON_DT,
+ T.DELETE_FLG = S.DELETE_FLG,
+ T.W_UPDATE_DT = S.W_UPDATE_DT,
+ T.DATASOURCE_NUM_ID = S.DATASOURCE_NUM_ID,
+ T.ETL_PROC_WID = S.ETL_PROC_WID,
+ T.ETL_THREAD_VAL = S.ETL_THREAD_VAL,
+ T.INTEGRATION_ID = S.INTEGRATION_ID,
+ T.TENANT_ID = S.TENANT_ID,
+ T.X_CUSTOM = S.X_CUSTOM,
+ T.BBG_ITEM_LOC_WID = S.BBG_ITEM_LOC_WID,
+ T.BBG_REFERENCE_DO1 = S.BBG_REFERENCE_DO1,
+ T.BBG_REFERENCE_DO2 = S.BBG_REFERENCE_DO2,
+ T.BBG_REFERENCE_DO3 = S.BBG_REFERENCE_DO3,
+ T.BBG_REFERENCE_DO4 = S.BBG_REFERENCE_DO4,
+ T.BBG_REFERENCE_DO5 = S.BBG_REFERENCE_DO5,
+ T.BBG_REFERENCE_FO1 = S.BBG_REFERENCE_FO1,
+ T.BBG_REFERENCE_FO2 = S.BBG_REFERENCE_FO2,
+ T.BBG_REFERENCE_FO3 = S.BBG_REFERENCE_FO3,
+ T.BBG_REFERENCE_FO4 = S.BBG_REFERENCE_FO4,
+ T.BBG_REFERENCE_FO5 = S.BBG_REFERENCE_FO5,
+ T.BBG_REFERENCE_FO6 = S.BBG_REFERENCE_FO6,
+ T.BBG_REFERENCE_FO7 = S.BBG_REFERENCE_FO7,
+ T.BBG_REFERENCE_FO8 = S.BBG_REFERENCE_FO8,
+ T.BBG_REFERENCE_FO9 = S.BBG_REFERENCE_FO9,
+ T.BBG_REFERENCE_FO10 = S.BBG_REFERENCE_FO10
+ when not matched
+ then insert
+  (
+  T.ROW_WID
+                ,T.PROD_WID,
+ T.PROD_SCD1_WID,
+ T.PROD_SC_WID,
+ T.PROD_CL_WID,
+ T.PROD_DP_WID,
+ T.PROD_GP_WID,
+ T.PROD_DV_WID,
+ T.PROD_IT_NUM,
+ T.PROD_SC_NUM,
+ T.PROD_CL_NUM,
+ T.PROD_DP_NUM,
+ T.PROD_GP_NUM,
+ T.PROD_DV_NUM,
+ T.ORG_WID,
+ T.ORG_SCD1_WID,
+ T.ORG_DH_WID,
+ T.ORG_DS_WID,
+ T.ORG_RG_WID,
+ T.ORG_AR_WID,
+ T.ORG_CH_WID,
+ T.ORG_NUM,
+ T.ORG_DS_NUM,
+ T.ORG_RG_NUM,
+ T.ORG_AR_NUM,
+ T.ORG_CH_NUM,
+ T.CLEARANCE_FLG,
+ T.INV_REPL_FLG,
+ T.INV_REPL_METHOD_TYPE,
+ T.INV_REPL_INCREMENT_PCT,
+ T.INV_SOH_QTY,
+ T.INV_ON_ORD_QTY,
+ T.INV_IN_TRAN_QTY,
+ T.INV_MAX_SOH_QTY,
+ T.INV_MIN_SOH_QTY,
+ T.INV_UNIT_RTL_AMT_LCL,
+ T.INV_SOH_RTL_AMT_LCL,
+ T.INV_ON_ORD_RTL_AMT_LCL,
+ T.INV_IN_TRAN_RTL_AMT_LCL,
+ T.INV_MAX_SOH_RTL_AMT_LCL,
+ T.INV_MIN_SOH_RTL_AMT_LCL,
+ T.INV_AVG_COST_AMT_LCL,
+ T.INV_UNIT_COST_AMT_LCL,
+ T.INV_SOH_COST_AMT_LCL,
+ T.INV_ON_ORD_COST_AMT_LCL,
+ T.INV_IN_TRAN_COST_AMT_LCL,
+ T.INV_MAX_SOH_COST_AMT_LCL,
+ T.INV_MIN_SOH_COST_AMT_LCL,
+ T.DM_RECD_STATUS,
+ T.DOC_CURR_CODE,
+ T.LOC_CURR_CODE,
+ T.LOC_EXCHANGE_RATE,
+ T.GLOBAL1_EXCHANGE_RATE,
+ T.GLOBAL2_EXCHANGE_RATE,
+ T.GLOBAL3_EXCHANGE_RATE,
+ T.CREATED_BY_WID,
+ T.CHANGED_BY_WID,
+ T.CREATED_ON_DT,
+ T.CHANGED_ON_DT,
+ T.AUX1_CHANGED_ON_DT,
+ T.AUX2_CHANGED_ON_DT,
+ T.AUX3_CHANGED_ON_DT,
+ T.AUX4_CHANGED_ON_DT,
+ T.DELETE_FLG,
+ T.W_INSERT_DT,
+ T.W_UPDATE_DT,
+ T.DATASOURCE_NUM_ID,
+ T.ETL_PROC_WID,
+ T.ETL_THREAD_VAL,
+ T.INTEGRATION_ID,
+ T.TENANT_ID,
+ T.X_CUSTOM,
+ T.BBG_ITEM_LOC_WID,
+ T.BBG_REFERENCE_DO1,
+ T.BBG_REFERENCE_DO2,
+ T.BBG_REFERENCE_DO3,
+ T.BBG_REFERENCE_DO4,
+ T.BBG_REFERENCE_DO5,
+ T.BBG_REFERENCE_FO1,
+ T.BBG_REFERENCE_FO2,
+ T.BBG_REFERENCE_FO3,
+ T.BBG_REFERENCE_FO4,
+ T.BBG_REFERENCE_FO5,
+ T.BBG_REFERENCE_FO6,
+ T.BBG_REFERENCE_FO7,
+ T.BBG_REFERENCE_FO8,
+ T.BBG_REFERENCE_FO9,
+ T.BBG_REFERENCE_FO10
+  )
+ values
+  (
+  RADM.W_RTL_INV_IT_LC_G_SEQ.NEXTVAL
+  ,S.PROD_WID,
+ S.PROD_SCD1_WID,
+ S.PROD_SC_WID,
+ S.PROD_CL_WID,
+ S.PROD_DP_WID,
+ S.PROD_GP_WID,
+ S.PROD_DV_WID,
+ S.PROD_IT_NUM,
+ S.PROD_SC_NUM,
+ S.PROD_CL_NUM,
+ S.PROD_DP_NUM,
+ S.PROD_GP_NUM,
+ S.PROD_DV_NUM,
+ S.ORG_WID,
+ S.ORG_SCD1_WID,
+ S.ORG_DH_WID,
+ S.ORG_DS_WID,
+ S.ORG_RG_WID,
+ S.ORG_AR_WID,
+ S.ORG_CH_WID,
+ S.ORG_NUM,
+ S.ORG_DS_NUM,
+ S.ORG_RG_NUM,
+ S.ORG_AR_NUM,
+ S.ORG_CH_NUM,
+ S.CLEARANCE_FLG,
+ S.INV_REPL_FLG,
+ S.INV_REPL_METHOD_TYPE,
+ S.INV_REPL_INCREMENT_PCT,
+ S.INV_SOH_QTY,
+ S.INV_ON_ORD_QTY,
+ S.INV_IN_TRAN_QTY,
+ S.INV_MAX_SOH_QTY,
+ S.INV_MIN_SOH_QTY,
+ S.INV_UNIT_RTL_AMT_LCL,
+ S.INV_SOH_RTL_AMT_LCL,
+ S.INV_ON_ORD_RTL_AMT_LCL,
+ S.INV_IN_TRAN_RTL_AMT_LCL,
+ S.INV_MAX_SOH_RTL_AMT_LCL,
+ S.INV_MIN_SOH_RTL_AMT_LCL,
+ S.INV_AVG_COST_AMT_LCL,
+ S.INV_UNIT_COST_AMT_LCL,
+ S.INV_SOH_COST_AMT_LCL,
+ S.INV_ON_ORD_COST_AMT_LCL,
+ S.INV_IN_TRAN_COST_AMT_LCL,
+ S.INV_MAX_SOH_COST_AMT_LCL,
+ S.INV_MIN_SOH_COST_AMT_LCL,
+ S.DM_RECD_STATUS,
+ S.DOC_CURR_CODE,
+ S.LOC_CURR_CODE,
+ S.LOC_EXCHANGE_RATE,
+ S.GLOBAL1_EXCHANGE_RATE,
+ S.GLOBAL2_EXCHANGE_RATE,
+ S.GLOBAL3_EXCHANGE_RATE,
+ S.CREATED_BY_WID,
+ S.CHANGED_BY_WID,
+ S.CREATED_ON_DT,
+ S.CHANGED_ON_DT,
+ S.AUX1_CHANGED_ON_DT,
+ S.AUX2_CHANGED_ON_DT,
+ S.AUX3_CHANGED_ON_DT,
+ S.AUX4_CHANGED_ON_DT,
+ S.DELETE_FLG,
+ S.W_INSERT_DT,
+ S.W_UPDATE_DT,
+ S.DATASOURCE_NUM_ID,
+ S.ETL_PROC_WID,
+ S.ETL_THREAD_VAL,
+ S.INTEGRATION_ID,
+ S.TENANT_ID,
+ S.X_CUSTOM,
+ S.BBG_ITEM_LOC_WID,
+ S.BBG_REFERENCE_DO1,
+ S.BBG_REFERENCE_DO2,
+ S.BBG_REFERENCE_DO3,
+ S.BBG_REFERENCE_DO4,
+ S.BBG_REFERENCE_DO5,
+ S.BBG_REFERENCE_FO1,
+ S.BBG_REFERENCE_FO2,
+ S.BBG_REFERENCE_FO3,
+ S.BBG_REFERENCE_FO4,
+ S.BBG_REFERENCE_FO5,
+ S.BBG_REFERENCE_FO6,
+ S.BBG_REFERENCE_FO7,
+ S.BBG_REFERENCE_FO8,
+ S.BBG_REFERENCE_FO9,
+ S.BBG_REFERENCE_FO10
+ )
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -5263,16 +5644,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="24.625" style="4" customWidth="1"/>
@@ -5345,7 +5726,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>4</v>
@@ -5402,7 +5783,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>6</v>
@@ -5419,7 +5800,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>7</v>
@@ -5476,10 +5857,10 @@
         <v>33</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5490,7 +5871,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>27</v>
@@ -5518,10 +5899,10 @@
         <v>32</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>34</v>
@@ -5535,10 +5916,10 @@
         <v>33</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5549,10 +5930,10 @@
         <v>33</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5560,13 +5941,13 @@
         <v>42188.191018518519</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5574,13 +5955,13 @@
         <v>42188.217141203706</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5588,13 +5969,13 @@
         <v>42188.289247685185</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5602,13 +5983,13 @@
         <v>42190.149664351855</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5616,13 +5997,13 @@
         <v>42193.231828703705</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5633,10 +6014,10 @@
         <v>33</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5644,13 +6025,13 @@
         <v>42204.191701388889</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5658,13 +6039,13 @@
         <v>42205.150138888886</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5672,16 +6053,16 @@
         <v>42206.098078703704</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="18" t="s">
+      <c r="F26" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5689,13 +6070,13 @@
         <v>42227.379571759258</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5703,13 +6084,27 @@
         <v>42227.386250000003</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>83</v>
+    </row>
+    <row r="29" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="17">
+        <v>42228.197210648148</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Task/2015-05-18_BBG_ETL_MONTH_DATA改写月汇总_MERGE/BBG_ETL_MONTH_DATA报错记录分析_20150629.xlsx
+++ b/Task/2015-05-18_BBG_ETL_MONTH_DATA改写月汇总_MERGE/BBG_ETL_MONTH_DATA报错记录分析_20150629.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5199,6 +5199,30 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>13.08.2015 / 04:23:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBG_SCMPLILDSIL.KSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception in thread "main" java.lang.OutOfMemoryError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBG_RA_CUST_IT_SIL.KSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-8-13 AM5:09:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception in thread "main" java.lang.OutOfMemoryError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -5644,16 +5668,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="24.625" style="4" customWidth="1"/>
@@ -6105,6 +6129,28 @@
       </c>
       <c r="D29" s="18" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Task/2015-05-18_BBG_ETL_MONTH_DATA改写月汇总_MERGE/BBG_ETL_MONTH_DATA报错记录分析_20150629.xlsx
+++ b/Task/2015-05-18_BBG_ETL_MONTH_DATA改写月汇总_MERGE/BBG_ETL_MONTH_DATA报错记录分析_20150629.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5223,6 +5223,107 @@
     <t>Exception in thread "main" java.lang.OutOfMemoryError</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SDE_RetailItemUDADimensionLoad</t>
+  </si>
+  <si>
+    <t>ORA-00600: internal error code, arguments: [kclcls_8], [9], [3055463], [], [], [], [], [], [], [], [], []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/* DETECTION_STRATEGY = NOT_EXISTS */
+insert into  RADM.W_RTL_ITEM_GRP1_DS T
+ (
+ PROD_NUM,
+ FLEX_ATTRIB_1_CHAR,
+ FLEX_ATTRIB_2_CHAR,
+ FLEX_ATTRIB_3_CHAR,
+ INTEGRATION_ID
+ ,PROD_GRP_TYPE,
+ CREATED_BY_ID,
+ CHANGED_BY_ID,
+ CREATED_ON_DT,
+ CHANGED_ON_DT,
+ DATASOURCE_NUM_ID
+ )
+select           S.PROD_NUM,
+ S.FLEX_ATTRIB_1_CHAR,
+ S.FLEX_ATTRIB_2_CHAR,
+ S.FLEX_ATTRIB_3_CHAR,
+ S.INTEGRATION_ID
+ ,'#RA_BI.RA_SRC_ITEM_GRP_UDA',
+ '-1',
+ '-1',
+ SYSDATE,
+ SYSDATE,
+ #RA_BI.DATASOURCE_NUM_ID
+from
+(
+ select   
+  C1_PROD_NUM PROD_NUM,
+ C2_FLEX_ATTRIB_1_CHAR FLEX_ATTRIB_1_CHAR,
+ C3_FLEX_ATTRIB_2_CHAR FLEX_ATTRIB_2_CHAR,
+ C4_FLEX_ATTRIB_3_CHAR FLEX_ATTRIB_3_CHAR,
+ C5_INTEGRATION_ID INTEGRATION_ID
+ from RABATCHER.#GLOBAL.LOADING_TAB_PREFIX0W_R
+ where (1=1)
+)S
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDE_RetailItemListDimensionLoad</t>
+  </si>
+  <si>
+    <t>ORA-00600: internal error code, arguments: [kclcls_8], [9], [3055450], [], [], [], [], [], [], [], [], []</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/* DETECTION_STRATEGY = NOT_EXISTS */
+insert into  RADM.W_RTL_ITEM_GRP1_DS T
+ (
+ PROD_NUM,
+ FLEX_ATTRIB_3_CHAR,
+ FLEX_ATTRIB_5_NUM,
+ INTEGRATION_ID
+ ,PROD_GRP_TYPE,
+ CREATED_BY_ID,
+ CHANGED_BY_ID,
+ CREATED_ON_DT,
+ CHANGED_ON_DT,
+ DATASOURCE_NUM_ID
+ )
+select           S.PROD_NUM,
+ S.FLEX_ATTRIB_3_CHAR,
+ S.FLEX_ATTRIB_5_NUM,
+ S.INTEGRATION_ID
+ ,'#RA_BI.RA_SRC_ITEM_GRP_LIST',
+ -1,
+ -1,
+ SYSDATE
+,
+ SYSDATE
+,
+ #RA_BI.DATASOURCE_NUM_ID
+from
+(
+ select   
+  C4_ITEM PROD_NUM,
+ C3_FLEX_ATTRIB_3_CHAR FLEX_ATTRIB_3_CHAR,
+ C1_FLEX_ATTRIB_5_NUM FLEX_ATTRIB_5_NUM,
+ C2_INTEGRATION_ID INTEGRATION_ID
+ from RABATCHER.#GLOBAL.LOADING_TAB_PREFIX0W_R
+ where (1=1)
+)S
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RADM.W_RTL_ITEM_GRP1_DS换表空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RADM.W_RTL_ITEM_GRP2_DS换表空间</t>
+  </si>
 </sst>
 </file>
 
@@ -5668,16 +5769,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="4" customWidth="1"/>
     <col min="2" max="2" width="27.25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="24.625" style="4" customWidth="1"/>
@@ -6151,6 +6252,40 @@
       </c>
       <c r="C31" s="5" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="17">
+        <v>42235.055219907408</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="17">
+        <v>42235.049618055556</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Task/2015-05-18_BBG_ETL_MONTH_DATA改写月汇总_MERGE/BBG_ETL_MONTH_DATA报错记录分析_20150629.xlsx
+++ b/Task/2015-05-18_BBG_ETL_MONTH_DATA改写月汇总_MERGE/BBG_ETL_MONTH_DATA报错记录分析_20150629.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5324,6 +5324,193 @@
   <si>
     <t>RADM.W_RTL_ITEM_GRP2_DS换表空间</t>
   </si>
+  <si>
+    <t>SIL_RetailSalesPromotionFactLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORA-01555: snapshot too old: rollback segment number 31 with name "_SYSSMU31_261844801$" too small</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> merge   /*+ APPEND */  into  
+ RADM.W_RTL_SLSPR_IT_LC_DY_F T 
+ using 
+  (
+  Select  /*+ APPEND */ 
+  MAX(W_RTL_SLSPR_IT_LC_DY_TMP.ORG_WID) ORG_WID,
+ W_RTL_SLSPR_IT_LC_DY_TMP.ORG_LC_WID ORG_DH_WID,
+ W_RTL_SLSPR_IT_LC_DY_TMP.PROD_IT_WID PROD_WID,
+ W_RTL_SLSPR_IT_LC_DY_TMP.DT_WID DT_WID,
+ W_RTL_SLSPR_IT_LC_DY_TMP.PROMO_WID PROMO_WID,
+ MAX(W_RTL_SLSPR_IT_LC_DY_TMP.DOC_CURR_CODE) DOC_CURR_CODE,
+ MAX(W_RTL_SLSPR_IT_LC_DY_TMP.LOC_CURR_CODE) LOC_CURR_CODE,
+ MAX(W_RTL_SLSPR_IT_LC_DY_TMP.LOC_EXCHANGE_RATE) LOC_EXCHANGE_RATE,
+ MAX(W_RTL_SLSPR_IT_LC_DY_TMP.GLOBAL1_EXCHANGE_RATE) GLOBAL1_EXCHANGE_RATE,
+ MAX(W_RTL_SLSPR_IT_LC_DY_TMP.GLOBAL2_EXCHANGE_RATE) GLOBAL2_EXCHANGE_RATE,
+ MAX(W_RTL_SLSPR_IT_LC_DY_TMP.GLOBAL3_EXCHANGE_RATE) GLOBAL3_EXCHANGE_RATE,
+ MAX(W_RTL_SLSPR_IT_LC_DY_TMP.CREATED_BY_ID) CREATED_BY_WID,
+ MAX(W_RTL_SLSPR_IT_LC_DY_TMP.CHANGED_BY_ID) CHANGED_BY_WID,
+ MAX(W_RTL_SLSPR_IT_LC_DY_TMP.CREATED_ON_DT) CREATED_ON_DT,
+ MAX(W_RTL_SLSPR_IT_LC_DY_TMP.CHANGED_ON_DT) CHANGED_ON_DT,
+ MAX(W_RTL_SLSPR_IT_LC_DY_TMP.AUX1_CHANGED_ON_DT) AUX1_CHANGED_ON_DT,
+ MAX(W_RTL_SLSPR_IT_LC_DY_TMP.AUX2_CHANGED_ON_DT) AUX2_CHANGED_ON_DT,
+ MAX(W_RTL_SLSPR_IT_LC_DY_TMP.AUX3_CHANGED_ON_DT) AUX3_CHANGED_ON_DT,
+ MAX(W_RTL_SLSPR_IT_LC_DY_TMP.AUX4_CHANGED_ON_DT) AUX4_CHANGED_ON_DT,
+ MAX(W_RTL_SLSPR_IT_LC_DY_TMP.DELETE_FLG) DELETE_FLG,
+ SYSDATE W_INSERT_DT,
+ SYSDATE W_UPDATE_DT,
+ MAX(W_RTL_SLSPR_IT_LC_DY_TMP.DATASOURCE_NUM_ID) DATASOURCE_NUM_ID,
+ #RA_BI.ETL_PROC_WID ETL_PROC_WID,
+ MAX(W_RTL_SLSPR_IT_LC_DY_TMP.PROD_IT_NUM||'~'||W_RTL_SLSPR_IT_LC_DY_TMP.ORG_NUM||'~'||W_RTL_SLSPR_IT_LC_DY_TMP.DAY_DT||'~'||W_RTL_SLSPR_IT_LC_DY_TMP.PROMO_DETAIL_ID) INTEGRATION_ID,
+ MAX(W_RTL_SLSPR_IT_LC_DY_TMP.TENANT_ID) TENANT_ID,
+ MAX(W_RTL_SLSPR_IT_LC_DY_TMP.X_CUSTOM) X_CUSTOM,
+ W_RTL_SLSPR_IT_LC_DY_TMP.ORG_SCD1_WID ORG_SCD1_WID,
+ W_RTL_SLSPR_IT_LC_DY_TMP.PROD_SCD1_WID PROD_SCD1_WID
+  ,SUM(W_RTL_SLSPR_IT_LC_DY_TMP.SLSPR_QTY) SLSPR_QTY,
+ SUM(W_RTL_SLSPR_IT_LC_DY_TMP.SLSPR_AMT_LCL) SLSPR_AMT_LCL,
+ SUM(W_RTL_SLSPR_IT_LC_DY_TMP.SLSPR_PROF_AMT_LCL) SLSPR_PROF_AMT_LCL,
+ SUM(W_RTL_SLSPR_IT_LC_DY_TMP.RETPR_QTY) RETPR_QTY,
+ SUM(W_RTL_SLSPR_IT_LC_DY_TMP.RETPR_AMT_LCL) RETPR_AMT_LCL,
+ SUM(W_RTL_SLSPR_IT_LC_DY_TMP.RETPR_PROF_AMT_LCL) RETPR_PROF_AMT_LCL,
+ SUM(W_RTL_SLSPR_IT_LC_DY_TMP.SLSPR_MKDN_AMT_LCL) SLSPR_MKDN_AMT_LCL,
+ SUM(W_RTL_SLSPR_IT_LC_DY_TMP.RETPR_MKDN_AMT_LCL) RETPR_MKDN_AMT_LCL
+  From RABATCHER.W_RTL_SLSPR_IT_LC_DY_TMP   W_RTL_SLSPR_IT_LC_DY_TMP
+        Where (1=1)
+ And (W_RTL_SLSPR_IT_LC_DY_TMP.ETL_THREAD_VAL=#RA_BI.RA_THREAD_VAL)
+ Group By W_RTL_SLSPR_IT_LC_DY_TMP.ORG_SCD1_WID,
+ W_RTL_SLSPR_IT_LC_DY_TMP.PROD_SCD1_WID,
+ W_RTL_SLSPR_IT_LC_DY_TMP.ORG_LC_WID,
+ W_RTL_SLSPR_IT_LC_DY_TMP.PROD_IT_WID,
+ W_RTL_SLSPR_IT_LC_DY_TMP.DT_WID,
+ W_RTL_SLSPR_IT_LC_DY_TMP.PROMO_WID
+  ) S
+ on (
+   T.ORG_DH_WID=S.ORG_DH_WID
+ and  T.PROD_WID=S.PROD_WID
+ and  T.DT_WID=S.DT_WID
+ and  T.PROMO_WID=S.PROMO_WID
+  )
+ when matched
+ then update set
+  T.ORG_WID = S.ORG_WID,
+ T.DOC_CURR_CODE = S.DOC_CURR_CODE,
+ T.LOC_CURR_CODE = S.LOC_CURR_CODE,
+ T.LOC_EXCHANGE_RATE = S.LOC_EXCHANGE_RATE,
+ T.GLOBAL1_EXCHANGE_RATE = S.GLOBAL1_EXCHANGE_RATE,
+ T.GLOBAL2_EXCHANGE_RATE = S.GLOBAL2_EXCHANGE_RATE,
+ T.GLOBAL3_EXCHANGE_RATE = S.GLOBAL3_EXCHANGE_RATE,
+ T.CREATED_BY_WID = S.CREATED_BY_WID,
+ T.CHANGED_BY_WID = S.CHANGED_BY_WID,
+ T.CREATED_ON_DT = S.CREATED_ON_DT,
+ T.CHANGED_ON_DT = S.CHANGED_ON_DT,
+ T.AUX1_CHANGED_ON_DT = S.AUX1_CHANGED_ON_DT,
+ T.AUX2_CHANGED_ON_DT = S.AUX2_CHANGED_ON_DT,
+ T.AUX3_CHANGED_ON_DT = S.AUX3_CHANGED_ON_DT,
+ T.AUX4_CHANGED_ON_DT = S.AUX4_CHANGED_ON_DT,
+ T.DELETE_FLG = S.DELETE_FLG,
+ T.W_UPDATE_DT = S.W_UPDATE_DT,
+ T.DATASOURCE_NUM_ID = S.DATASOURCE_NUM_ID,
+ T.ETL_PROC_WID = S.ETL_PROC_WID,
+ T.INTEGRATION_ID = S.INTEGRATION_ID,
+ T.TENANT_ID = S.TENANT_ID,
+ T.X_CUSTOM = S.X_CUSTOM,
+ T.ORG_SCD1_WID = S.ORG_SCD1_WID,
+ T.PROD_SCD1_WID = S.PROD_SCD1_WID
+  ,T.SLSPR_QTY = S.SLSPR_QTY + T.SLSPR_QTY,
+ T.SLSPR_AMT_LCL = S.SLSPR_AMT_LCL + T.SLSPR_AMT_LCL,
+ T.SLSPR_PROF_AMT_LCL = S.SLSPR_PROF_AMT_LCL + T.SLSPR_PROF_AMT_LCL,
+ T.RETPR_QTY = S.RETPR_QTY + T.RETPR_QTY,
+ T.RETPR_AMT_LCL = S.RETPR_AMT_LCL + T.RETPR_AMT_LCL,
+ T.RETPR_PROF_AMT_LCL = S.RETPR_PROF_AMT_LCL + T.RETPR_PROF_AMT_LCL,
+ T.SLSPR_MKDN_AMT_LCL = S.SLSPR_MKDN_AMT_LCL + T.SLSPR_MKDN_AMT_LCL,
+ T.RETPR_MKDN_AMT_LCL = S.RETPR_MKDN_AMT_LCL + T.RETPR_MKDN_AMT_LCL
+ when not matched
+ then insert
+  (
+  T.ROW_WID
+                ,T.ORG_WID,
+ T.ORG_DH_WID,
+ T.PROD_WID,
+ T.DT_WID,
+ T.PROMO_WID,
+ T.SLSPR_QTY,
+ T.SLSPR_AMT_LCL,
+ T.SLSPR_PROF_AMT_LCL,
+ T.RETPR_QTY,
+ T.RETPR_AMT_LCL,
+ T.RETPR_PROF_AMT_LCL,
+ T.SLSPR_MKDN_AMT_LCL,
+ T.RETPR_MKDN_AMT_LCL,
+ T.DOC_CURR_CODE,
+ T.LOC_CURR_CODE,
+ T.LOC_EXCHANGE_RATE,
+ T.GLOBAL1_EXCHANGE_RATE,
+ T.GLOBAL2_EXCHANGE_RATE,
+ T.GLOBAL3_EXCHANGE_RATE,
+ T.CREATED_BY_WID,
+ T.CHANGED_BY_WID,
+ T.CREATED_ON_DT,
+ T.CHANGED_ON_DT,
+ T.AUX1_CHANGED_ON_DT,
+ T.AUX2_CHANGED_ON_DT,
+ T.AUX3_CHANGED_ON_DT,
+ T.AUX4_CHANGED_ON_DT,
+ T.DELETE_FLG,
+ T.W_INSERT_DT,
+ T.W_UPDATE_DT,
+ T.DATASOURCE_NUM_ID,
+ T.ETL_PROC_WID,
+ T.INTEGRATION_ID,
+ T.TENANT_ID,
+ T.X_CUSTOM,
+ T.ORG_SCD1_WID,
+ T.PROD_SCD1_WID
+  )
+ values
+  (
+  RADM.W_RTL_SLSPR_IT_LC_DY_F_SEQ.NEXTVAL
+  ,S.ORG_WID,
+ S.ORG_DH_WID,
+ S.PROD_WID,
+ S.DT_WID,
+ S.PROMO_WID,
+ S.SLSPR_QTY,
+ S.SLSPR_AMT_LCL,
+ S.SLSPR_PROF_AMT_LCL,
+ S.RETPR_QTY,
+ S.RETPR_AMT_LCL,
+ S.RETPR_PROF_AMT_LCL,
+ S.SLSPR_MKDN_AMT_LCL,
+ S.RETPR_MKDN_AMT_LCL,
+ S.DOC_CURR_CODE,
+ S.LOC_CURR_CODE,
+ S.LOC_EXCHANGE_RATE,
+ S.GLOBAL1_EXCHANGE_RATE,
+ S.GLOBAL2_EXCHANGE_RATE,
+ S.GLOBAL3_EXCHANGE_RATE,
+ S.CREATED_BY_WID,
+ S.CHANGED_BY_WID,
+ S.CREATED_ON_DT,
+ S.CHANGED_ON_DT,
+ S.AUX1_CHANGED_ON_DT,
+ S.AUX2_CHANGED_ON_DT,
+ S.AUX3_CHANGED_ON_DT,
+ S.AUX4_CHANGED_ON_DT,
+ S.DELETE_FLG,
+ S.W_INSERT_DT,
+ S.W_UPDATE_DT,
+ S.DATASOURCE_NUM_ID,
+ S.ETL_PROC_WID,
+ S.INTEGRATION_ID,
+ S.TENANT_ID,
+ S.X_CUSTOM,
+ S.ORG_SCD1_WID,
+ S.PROD_SCD1_WID
+ )
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -5769,11 +5956,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32:F33"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6286,6 +6473,20 @@
       </c>
       <c r="F33" s="6" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="17">
+        <v>42255.128333333334</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
